--- a/resources/filtered_papers.xlsx
+++ b/resources/filtered_papers.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,10 +452,51 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Jean-Luc Hainaut and Vincent Englebert and Jean Henrard and Jean-Marc Hick and Didier Roland</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>@article{hainaut:1996,
+journal = {Automated Software Engineering (ASE)}, 
+author = {Jean-Luc Hainaut and Vincent Englebert and Jean Henrard and Jean-Marc Hick and Didier Roland}, 
+title = {{Database Reverse Engineering: From Requirements to CARE Tools}}, 
+year = {1996} 
+}</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>journals/ase/HainautEHHR96</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Database Reverse Engineering: From Requirements to CARE Tools</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>db/journals/ase/ase3.html#HainautEHHR96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>journals/ase/</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1996</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Miyuru Dayarathna and Toyotaro Suzumura</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>@article{dayarathna:2014,
 journal = {Automated Software Engineering (ASE)}, 
@@ -465,38 +506,38 @@
 }</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>journals/ase/DayarathnaS14</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Graph database benchmarking on cloud environments with XGDBench</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>db/journals/ase/ase21.html#DayarathnaS14</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>journals/ase/</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>2014</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>María José Suárez Cabal and Claudio de la Riva and Javier Tuya and Raquel Blanco</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>@article{josé:2017,
 journal = {Automated Software Engineering (ASE)}, 
@@ -506,38 +547,38 @@
 }</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>journals/ase/CabalRTB17</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Incremental test data generation for database queries</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>db/journals/ase/ase24.html#CabalRTB17</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>journals/ase/</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>2017</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Kai Pan and Xintao Wu and Tao Xie</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>@article{pan:2015,
 journal = {Automated Software Engineering (ASE)}, 
@@ -547,38 +588,38 @@
 }</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>journals/ase/PanWX15</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Program-input generation for testing database applications using existing database states</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>db/journals/ase/ase22.html#PanWX15</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>journals/ase/</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G6" t="n">
         <v>2015</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Alexander Borgida</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>@article{borgida:2007,
 journal = {Automated Software Engineering (ASE)}, 
@@ -588,38 +629,1104 @@
 }</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>journals/ase/Borgida07</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>How knowledge representation meets software engineering (and often databases)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>db/journals/ase/ase14.html#Borgida07</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>journals/ase/</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>2007</v>
       </c>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jayanta Banerjee and David K. Hsiao and Fred K. Ng</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>@article{banerjee:1980,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Jayanta Banerjee and David K. Hsiao and Fred K. Ng}, 
+title = {{Database Transformation, Query Translation, and Performance Analysis of a New Database Computer in Supporting Hierarchical Database Management}}, 
+year = {1980} 
+}</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>journals/tse/BanerjeeHN80</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Database Transformation, Query Translation, and Performance Analysis of a New Database Computer in Supporting Hierarchical Database Management</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse6.html#BanerjeeHN80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1980</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ugur Halici and Asuman Dogac</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>@article{halici:1991,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Ugur Halici and Asuman Dogac}, 
+title = {{An Optimistic Locking Technique For Concurrency Control in Distributed Databases}}, 
+year = {1991} 
+}</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>journals/tse/HaliciD91</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>An Optimistic Locking Technique For Concurrency Control in Distributed Databases</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse17.html#HaliciD91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1991</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Klaus Voss</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>@article{voss:1980,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Klaus Voss}, 
+title = {{Using Predicate/Transition-Nets to Model and Analyze Distributed Database Systems}}, 
+year = {1980} 
+}</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>journals/tse/Voss80</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Using Predicate/Transition-Nets to Model and Analyze Distributed Database Systems</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse6.html#Voss80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1980</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Tony T. Lee</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>@article{t.:1987,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Tony T. Lee}, 
+title = {{An Information-Theoretic Analysis of Relational Databases - Part I: Data Dependencies and Information Metric}}, 
+year = {1987} 
+}</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>journals/tse/Lee87</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>An Information-Theoretic Analysis of Relational Databases - Part I: Data Dependencies and Information Metric</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse13.html#Lee87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1987</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sang Hyuk Son and Ashok K. Agrawala</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>@article{hyuk:1989,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Sang Hyuk Son and Ashok K. Agrawala}, 
+title = {{Distributed Checkpointing for Globally Consistent States of Databases}}, 
+year = {1989} 
+}</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>journals/tse/SonA89</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Distributed Checkpointing for Globally Consistent States of Databases</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse15.html#SonA89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1989</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Richard P. Brägger and Andreas Dudler and Jürg Rebsamen and Carl August Zehnder</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>@article{p.:1985,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Richard P. Brägger and Andreas Dudler and Jürg Rebsamen and Carl August Zehnder}, 
+title = {{Gambit: An Interactive Database Design Tool for Data Structures, Integrity Constraints, and Transactions}}, 
+year = {1985} 
+}</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>journals/tse/BraggerDRZ85</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Gambit: An Interactive Database Design Tool for Data Structures, Integrity Constraints, and Transactions</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse11.html#BraggerDRZ85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1985</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Shojiro Muro and Toshihide Ibaraki and Hidehiro Miyajima and Toshiharu Hasegawa</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>@article{muro:1985,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Shojiro Muro and Toshihide Ibaraki and Hidehiro Miyajima and Toshiharu Hasegawa}, 
+title = {{Evaluation of the File Redundancy in Distributed Database Systems}}, 
+year = {1985} 
+}</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>journals/tse/MuroIMH85</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Evaluation of the File Redundancy in Distributed Database Systems</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse11.html#MuroIMH85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1985</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Paula B. Hawthorn and David J. DeWitt</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>@article{b.:1982,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Paula B. Hawthorn and David J. DeWitt}, 
+title = {{Performance Analysis of Alternative Database Machine Architectures}}, 
+year = {1982} 
+}</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>journals/tse/HawthornD82</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Performance Analysis of Alternative Database Machine Architectures</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse8.html#HawthornD82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1982</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Sakti P. Ghosh</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>@article{p.:1986,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Sakti P. Ghosh}, 
+title = {{Statistical Relational Tables for Statistical Database Management}}, 
+year = {1986} 
+}</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>journals/tse/Ghosh86</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Statistical Relational Tables for Statistical Database Management</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse12.html#Ghosh86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1986</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mukesh Singhal</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>@article{singhal:1990,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Mukesh Singhal}, 
+title = {{Update Transport: A New Technique for Update Synchronization in Replicated Database Systems}}, 
+year = {1990} 
+}</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>journals/tse/Singhal90</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Update Transport: A New Technique for Update Synchronization in Replicated Database Systems</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse16.html#Singhal90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1990</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Randy H. Katz and Tobin J. Lehman</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>@article{h.:1984,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Randy H. Katz and Tobin J. Lehman}, 
+title = {{Database Support for Versions and Alternatives of Large Design Files}}, 
+year = {1984} 
+}</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>journals/tse/KatzL84</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Database Support for Versions and Alternatives of Large Design Files</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse10.html#KatzL84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1984</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Philip S. Yu and Simonetta Balsamo and Yann-Hang Lee</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>@article{s.:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Philip S. Yu and Simonetta Balsamo and Yann-Hang Lee}, 
+title = {{Dynamic Transaction Routing in Distributed Database Systems}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>journals/tse/YuBL88</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Dynamic Transaction Routing in Distributed Database Systems</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#YuBL88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Jason S. J. Chen and Victor O. K. Li</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>@article{s.:1989,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Jason S. J. Chen and Victor O. K. Li}, 
+title = {{Optimizing Joins in Fragmented Database Systems on a Broadcast Local Network}}, 
+year = {1989} 
+}</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>journals/tse/ChenL89</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Optimizing Joins in Fragmented Database Systems on a Broadcast Local Network</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse15.html#ChenL89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1989</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Nick Roussopoulos</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>@article{roussopoulos:1982,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Nick Roussopoulos}, 
+title = {{The Logical Access Path Schema of a Database}}, 
+year = {1982} 
+}</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>journals/tse/Roussopoulos82</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>The Logical Access Path Schema of a Database</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse8.html#Roussopoulos82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1982</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Philip A. Bernstein and James B. Rothnie Jr. and Nathan Goodman and Christos H. Papadimitriou</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>@article{a.:1978,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Philip A. Bernstein and James B. Rothnie Jr. and Nathan Goodman and Christos H. Papadimitriou}, 
+title = {{The Concurrency Control Mechanism of SDD-1: A System for Distributed Databases (The Fully Redundant Case)}}, 
+year = {1978} 
+}</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>journals/tse/BernsteinRGP78</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>The Concurrency Control Mechanism of SDD-1: A System for Distributed Databases (The Fully Redundant Case)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse4.html#BernsteinRGP78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1978</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Gary S. Ho and C. V. Ramamoorthy</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>@article{s.:1982,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Gary S. Ho and C. V. Ramamoorthy}, 
+title = {{Protocols for Deadlock Detection in Distributed Database Systems}}, 
+year = {1982} 
+}</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>journals/tse/HoR82</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Protocols for Deadlock Detection in Distributed Database Systems</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse8.html#HoR82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1982</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sakti P. Ghosh</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>@article{p.:1989,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Sakti P. Ghosh}, 
+title = {{Numerical Operations on a Relational Database}}, 
+year = {1989} 
+}</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>journals/tse/Ghosh89</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Numerical Operations on a Relational Database</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse15.html#Ghosh89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1989</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Dorothy E. Denning and Selim G. Akl and Mark R. Heckman and Teresa F. Lunt and Matthew Morgenstern and Peter G. Neumann and Roger R. Schell</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>@article{e.:1987,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Dorothy E. Denning and Selim G. Akl and Mark R. Heckman and Teresa F. Lunt and Matthew Morgenstern and Peter G. Neumann and Roger R. Schell}, 
+title = {{Views for Multilevel Database Security}}, 
+year = {1987} 
+}</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>journals/tse/DenningAHLMNS87</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Views for Multilevel Database Security</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse13.html#DenningAHLMNS87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1987</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Amit P. Sheth and Anoop Singhal and Ming T. Liu</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>@article{p.:1985,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Amit P. Sheth and Anoop Singhal and Ming T. Liu}, 
+title = {{An Analysis of the Effect of Network Parameters on the Performance of Distributed Database Systems}}, 
+year = {1985} 
+}</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>journals/tse/ShethSL85</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>An Analysis of the Effect of Network Parameters on the Performance of Distributed Database Systems</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse11.html#ShethSL85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1985</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Gultekin Özsoyoglu and Z. Meral Özsoyoglu</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>@article{özsoyoglu:1985,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Gultekin Özsoyoglu and Z. Meral Özsoyoglu}, 
+title = {{Statistical Database Query Languages}}, 
+year = {1985} 
+}</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>journals/tse/OzsoyogluO85</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Statistical Database Query Languages</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse11.html#OzsoyogluO85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1985</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Toshimi Minoura and Gio Wiederhold</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>@article{minoura:1982,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Toshimi Minoura and Gio Wiederhold}, 
+title = {{Resilient Extended True-Copy Token Scheme for a Distributed Database System}}, 
+year = {1982} 
+}</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>journals/tse/MinouraW82</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Resilient Extended True-Copy Token Scheme for a Distributed Database System</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse8.html#MinouraW82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Arie Shoshani and Harry K. T. Wong</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>@article{shoshani:1985,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Arie Shoshani and Harry K. T. Wong}, 
+title = {{Statistical and Scientific Database Issues}}, 
+year = {1985} 
+}</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>journals/tse/ShoshaniW85</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Statistical and Scientific Database Issues</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse11.html#ShoshaniW85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1985</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Jay Banerjee and Won Kim 0001 and Sung-Jo Kim and Jorge F. Garza</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>@article{banerjee:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Jay Banerjee and Won Kim 0001 and Sung-Jo Kim and Jorge F. Garza}, 
+title = {{Clustering a DAG for CAD Databases}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>journals/tse/BanerjeeKKG88</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Clustering a DAG for CAD Databases</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#BanerjeeKKG88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Gultekin Özsoyoglu and Francis Y. L. Chin</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>@article{özsoyoglu:1982,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Gultekin Özsoyoglu and Francis Y. L. Chin}, 
+title = {{Enhancing the Security of Statistical Databases with a Question-Answering System and a Kernel Design}}, 
+year = {1982} 
+}</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>journals/tse/OzsoyogluC82</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Enhancing the Security of Statistical Databases with a Question-Answering System and a Kernel Design</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse8.html#OzsoyogluC82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1982</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>David Farmer and Roger King and David Myers</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>@article{farmer:1985,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {David Farmer and Roger King and David Myers}, 
+title = {{The Semantic Database Constructor}}, 
+year = {1985} 
+}</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>journals/tse/FarmerKM85</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>The Semantic Database Constructor</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse11.html#FarmerKM85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1985</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Peter A. Ng</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>@article{a.:1981,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Peter A. Ng}, 
+title = {{Further Analysis of the Entity-Relationship Approach to Database Design}}, 
+year = {1981} 
+}</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>journals/tse/Ng81</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Further Analysis of the Entity-Relationship Approach to Database Design</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse7.html#Ng81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1981</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>Umeshwar Dayal and Hai-Yann Hwang</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>@article{dayal:1984,
 journal = {Transactions on Software Engineering (TSE)}, 
@@ -629,38 +1736,1022 @@
 }</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>journals/tse/DayalH84</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>View Definition and Generalization for Database Integration in a Multidatabase System</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>db/journals/tse/tse10.html#DayalH84</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>journals/tse/</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
         <v>1984</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Bernd-Jürgen Falkowski</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>@article{falkowski:1992,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Bernd-Jürgen Falkowski}, 
+title = {{Comments on an Optimal Set of Indices For a Relational Database}}, 
+year = {1992} 
+}</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>journals/tse/Falkowski92</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Comments on an Optimal Set of Indices For a Relational Database</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse18.html#Falkowski92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1992</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Klaus R. Dittrich and Raymond A. Lorie</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>@article{r.:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Klaus R. Dittrich and Raymond A. Lorie}, 
+title = {{Version Support for Engineering Database Systems}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>journals/tse/DittrichL88</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Version Support for Engineering Database Systems</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#DittrichL88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Hanoch Levy and Ted Messinger and Robert J. T. Morris</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>@article{levy:1996,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Hanoch Levy and Ted Messinger and Robert J. T. Morris}, 
+title = {{The Cache Assignment Problem and Its Application to Database Buffer Management}}, 
+year = {1996} 
+}</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>journals/tse/LevyMM96</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>The Cache Assignment Problem and Its Application to Database Buffer Management</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse22.html#LevyMM96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1996</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Bharat K. Bhargava and John Riedl</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>@article{k.:1989,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Bharat K. Bhargava and John Riedl}, 
+title = {{The Raid Distributed Database System}}, 
+year = {1989} 
+}</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>journals/tse/BhargavaR89</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>The Raid Distributed Database System</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse15.html#BhargavaR89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1989</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Philip S. Yu and Ming-Syan Chen and Hans-Ulrich Heiss and Sukho Lee</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>@article{s.:1992,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Philip S. Yu and Ming-Syan Chen and Hans-Ulrich Heiss and Sukho Lee}, 
+title = {{On Workload Characterization of Relational Database Environments}}, 
+year = {1992} 
+}</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>journals/tse/YuCHL92</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>On Workload Characterization of Relational Database Environments</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse18.html#YuCHL92</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1992</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Douglas W. Cornell and Philip S. Yu</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>@article{w.:1990,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Douglas W. Cornell and Philip S. Yu}, 
+title = {{An Effective Approach to Vertical Partitioning for Physical Design of Relational Databases}}, 
+year = {1990} 
+}</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>journals/tse/CornellY90</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>An Effective Approach to Vertical Partitioning for Physical Design of Relational Databases</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse16.html#CornellY90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1990</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>J. R. Jagannathan and R. Vasudevan</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>@article{r.:1983,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {J. R. Jagannathan and R. Vasudevan}, 
+title = {{Comments on "Protocols for Deadlock Detection in Distributed Database Systems"}}, 
+year = {1983} 
+}</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>journals/tse/JagannathanV83</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Comments on "Protocols for Deadlock Detection in Distributed Database Systems"</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse9.html#JagannathanV83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1983</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Gwan-Hwan Hwang and Sheng-Jen Chang and Huey-Der Chu</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>@article{hwang:2004,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Gwan-Hwan Hwang and Sheng-Jen Chang and Huey-Der Chu}, 
+title = {{Technology for Testing Nondeterministic Client/Server Database Applications}}, 
+year = {2004} 
+}</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>journals/tse/HwangCC04</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Technology for Testing Nondeterministic Client/Server Database Applications</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse30.html#HwangCC04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Herman Lam and Stanley Y. W. Su and Nageshwar R. Koganti</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>@article{lam:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Herman Lam and Stanley Y. W. Su and Nageshwar R. Koganti}, 
+title = {{A Physical Database Design Evaluation System for CODASYL Databases}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>journals/tse/LamSK88</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>A Physical Database Design Evaluation System for CODASYL Databases</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#LamSK88</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Leszek Lilien and Bharat K. Bhargava</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>@article{lilien:1985,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Leszek Lilien and Bharat K. Bhargava}, 
+title = {{Database Integrity Block Construct: Concepts and Design Issues}}, 
+year = {1985} 
+}</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>journals/tse/LilienB85</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Database Integrity Block Construct: Concepts and Design Issues</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse11.html#LilienB85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1985</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Alan R. Hevner and S. Bing Yao</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>@article{r.:1979,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Alan R. Hevner and S. Bing Yao}, 
+title = {{Query Processing in Distributed Database Systems}}, 
+year = {1979} 
+}</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>journals/tse/HevnerY79</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Query Processing in Distributed Database Systems</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse5.html#HevnerY79</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1979</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Lorenzo Bossi and Elisa Bertino and Syed Rafiul Hussain</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>@article{bossi:2017,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Lorenzo Bossi and Elisa Bertino and Syed Rafiul Hussain}, 
+title = {{A System for Profiling and Monitoring Database Access Patterns by Application Programs for Anomaly Detection}}, 
+year = {2017} 
+}</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>journals/tse/BossiBH17</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>A System for Profiling and Monitoring Database Access Patterns by Application Programs for Anomaly Detection</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse43.html#BossiBH17</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>William Perrizo</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>@article{perrizo:1984,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {William Perrizo}, 
+title = {{A Method for Processing Distributed Database Queries}}, 
+year = {1984} 
+}</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>journals/tse/Perrizo84</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>A Method for Processing Distributed Database Queries</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse10.html#Perrizo84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1984</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Goetz Graefe and Diane L. Davison</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>@article{graefe:1993,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Goetz Graefe and Diane L. Davison}, 
+title = {{Encapsulation of Parallelism and Architecture-Independence in Extensible Database Query Execution}}, 
+year = {1993} 
+}</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>journals/tse/GraefeD93</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Encapsulation of Parallelism and Architecture-Independence in Extensible Database Query Execution</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse19.html#GraefeD93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1993</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Thomas Joseph and Alfonso F. Cardenas</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>@article{joseph:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Thomas Joseph and Alfonso F. Cardenas}, 
+title = {{PICQUERY: A High Level Query Language for Pictorial Database Management}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>journals/tse/JosephC88</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>PICQUERY: A High Level Query Language for Pictorial Database Management</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#JosephC88</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Timos K. Sellis and Leonard D. Shapiro</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>@article{k.:1991,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Timos K. Sellis and Leonard D. Shapiro}, 
+title = {{Query Optimization for Nontraditional Database Applications}}, 
+year = {1991} 
+}</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>journals/tse/SellisS91</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Query Optimization for Nontraditional Database Applications</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse17.html#SellisS91</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1991</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Sushil Jajodia and Frederick N. Springsteel</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>@article{jajodia:1987,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Sushil Jajodia and Frederick N. Springsteel}, 
+title = {{Construction of Universal Instances for Loop-Free Network Databases Using a Join-Like Operation}}, 
+year = {1987} 
+}</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>journals/tse/JajodiaS87</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Construction of Universal Instances for Loop-Free Network Databases Using a Join-Like Operation</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse13.html#JajodiaS87</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1987</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Rony Attar and Philip A. Bernstein and Nathan Goodman</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>@article{attar:1984,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Rony Attar and Philip A. Bernstein and Nathan Goodman}, 
+title = {{Site Initialization, Recovery, and Backup in a Distributed Database System}}, 
+year = {1984} 
+}</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>journals/tse/AttarBG84</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Site Initialization, Recovery, and Backup in a Distributed Database System</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse10.html#AttarBG84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1984</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Haran Boral and David J. DeWitt and Dina Friedland and Nancy F. Jarrell and W. Kevin Wilkinson</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>@article{boral:1982,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Haran Boral and David J. DeWitt and Dina Friedland and Nancy F. Jarrell and W. Kevin Wilkinson}, 
+title = {{Implementation of the Database Machine DIRECT}}, 
+year = {1982} 
+}</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>journals/tse/BoralDFJW82</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Implementation of the Database Machine DIRECT</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse8.html#BoralDFJW82</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1982</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Barry E. Jacobs and Cynthia A. Walczak</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>@article{e.:1983,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Barry E. Jacobs and Cynthia A. Walczak}, 
+title = {{A Generalized Query-by-Example Data Manipulation Language Based on Database Logic}}, 
+year = {1983} 
+}</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>journals/tse/JacobsW83</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>A Generalized Query-by-Example Data Manipulation Language Based on Database Logic</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse9.html#JacobsW83</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1983</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>S. Misbah Deen and R. R. Amin and Malcolm C. Taylor</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>@article{misbah:1987,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {S. Misbah Deen and R. R. Amin and Malcolm C. Taylor}, 
+title = {{Data Integration in Distributed Databases}}, 
+year = {1987} 
+}</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>journals/tse/DeenAT87</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Data Integration in Distributed Databases</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse13.html#DeenAT87</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1987</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chao-Chih Yang and Guang Li and Peter A. Ng</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>@article{yang:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Chao-Chih Yang and Guang Li and Peter A. Ng}, 
+title = {{An Improved Algorithm Based on Subset Closures for Synthesizing a Relational Database Scheme}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>journals/tse/YangLN88</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>An Improved Algorithm Based on Subset Closures for Synthesizing a Relational Database Scheme</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#YangLN88</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ugur Halici and Asuman Dogac</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>@article{halici:1989,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Ugur Halici and Asuman Dogac}, 
+title = {{Concurrency Control in Distributed Databases Through Time Intervals and Short-Term Locks}}, 
+year = {1989} 
+}</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>journals/tse/HaliciD89</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Concurrency Control in Distributed Databases Through Time Intervals and Short-Term Locks</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse15.html#HaliciD89</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1989</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Francis Y. L. Chin and K. V. S. Ramarao</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>@article{y.:1987,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Francis Y. L. Chin and K. V. S. Ramarao}, 
+title = {{An Information-Based Model for Failure-Handling in Distributed Database Systems}}, 
+year = {1987} 
+}</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>journals/tse/ChinR87</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>An Information-Based Model for Failure-Handling in Distributed Database Systems</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse13.html#ChinR87</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1987</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>Cheng Hsu and M'hamed Bouziane and Laurie Rattner and Lester Yee</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>@article{hsu:1991,
 journal = {Transactions on Software Engineering (TSE)}, 
@@ -670,38 +2761,3400 @@
 }</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>journals/tse/HsuBRY91</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Information Resources Management in Heterogeneous, Distributed Environments: A Metadatabase Approach</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>db/journals/tse/tse17.html#HsuBRY91</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>journals/tse/</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
         <v>1991</v>
       </c>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="H59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Michael Kifer and Eliezer L. Lozinskii</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>@article{kifer:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Michael Kifer and Eliezer L. Lozinskii}, 
+title = {{SYGRAF: Implementing Logic Programs in a Database Style}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>journals/tse/KiferL88</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SYGRAF: Implementing Logic Programs in a Database Style</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#KiferL88</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Makoto Yoshida and Kyoko Mizumachi and Atsushi Wakino and Ikuo Oyake and Yutaka Matsushita</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>@article{yoshida:1985,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Makoto Yoshida and Kyoko Mizumachi and Atsushi Wakino and Ikuo Oyake and Yutaka Matsushita}, 
+title = {{Time and Cost Evaluation Schemes of Multiple Copies of Data in Distributet Database Systems}}, 
+year = {1985} 
+}</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>journals/tse/YoshidaMWOM85</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Time and Cost Evaluation Schemes of Multiple Copies of Data in Distributet Database Systems</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse11.html#YoshidaMWOM85</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1985</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Shi-Kuo Chang and Wu-Haung Cheng</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>@article{chang:1978,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Shi-Kuo Chang and Wu-Haung Cheng}, 
+title = {{Database Skeleton and Its Application to Logical Database Synthesis}}, 
+year = {1978} 
+}</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>journals/tse/ChangC78</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Database Skeleton and Its Application to Logical Database Synthesis</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse4.html#ChangC78</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1978</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Alberto Del Bimbo and Maurizio Campanai and Paolo Nesi</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>@article{del:1993,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Alberto Del Bimbo and Maurizio Campanai and Paolo Nesi}, 
+title = {{A Three-Dimensional Iconic Environment for Image Database Querying}}, 
+year = {1993} 
+}</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>journals/tse/BimboCN93</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>A Three-Dimensional Iconic Environment for Image Database Querying</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse19.html#BimboCN93</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1993</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Kathryn C. Kinsley and Charles E. Hughes</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>@article{c.:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Kathryn C. Kinsley and Charles E. Hughes}, 
+title = {{Evaluating Database Update Schemes: A Methodology and Its Applications to Distributive Systems}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>journals/tse/KinsleyH88</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Evaluating Database Update Schemes: A Methodology and Its Applications to Distributive Systems</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#KinsleyH88</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>J. Bradley</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>@article{bradley:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {J. Bradley}, 
+title = {{A Group-Select Operation for Relational Algebra and Implications for Database Machine Design}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>journals/tse/Bradley88</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>A Group-Select Operation for Relational Algebra and Implications for Database Machine Design</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#Bradley88</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Santanu Paul and Atul Prakash</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>@article{paul:1996,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Santanu Paul and Atul Prakash}, 
+title = {{A Query Algebra for Program Databases}}, 
+year = {1996} 
+}</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>journals/tse/PaulP96</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>A Query Algebra for Program Databases</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse22.html#PaulP96</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1996</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Don S. Batory and J. R. Barnett and Jorge F. Garza and K. P. Smith and K. Tsukuda and Brian C. Twichell and T. E. Wise</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>@article{s.:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Don S. Batory and J. R. Barnett and Jorge F. Garza and K. P. Smith and K. Tsukuda and Brian C. Twichell and T. E. Wise}, 
+title = {{GENESIS: An Extensible Database Management System}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>journals/tse/BatoryBGSTTW88</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GENESIS: An Extensible Database Management System</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#BatoryBGSTTW88</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Nick Roussopoulos and Christos Faloutsos and Timos K. Sellis</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>@article{roussopoulos:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Nick Roussopoulos and Christos Faloutsos and Timos K. Sellis}, 
+title = {{An Efficient Pictorial Database System for PSQL}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>journals/tse/RoussopoulosFS88</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>An Efficient Pictorial Database System for PSQL</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#RoussopoulosFS88</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>James K. Mullin</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>@article{k.:1990,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {James K. Mullin}, 
+title = {{Optimal Semijoins for Distributed Database Systems}}, 
+year = {1990} 
+}</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>journals/tse/Mullin90</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Optimal Semijoins for Distributed Database Systems</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse16.html#Mullin90</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1990</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Sakti Pramanik and David Vineyard</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>@article{pramanik:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Sakti Pramanik and David Vineyard}, 
+title = {{Optimizing Join Queries in Distributed Databases}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>journals/tse/PramanikV88</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Optimizing Join Queries in Distributed Databases</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#PramanikV88</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Donald A. Varvel and Leonard D. Shapiro</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>@article{a.:1989,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Donald A. Varvel and Leonard D. Shapiro}, 
+title = {{The Computational Completeness of Extended Database Query Languages}}, 
+year = {1989} 
+}</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>journals/tse/VarvelS89</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>The Computational Completeness of Extended Database Query Languages</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse15.html#VarvelS89</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1989</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Bruce Hillyer and David Elliot Shaw and Anil Nigam</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>@article{hillyer:1986,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Bruce Hillyer and David Elliot Shaw and Anil Nigam}, 
+title = {{NON-VON's Performance on Certain Database Benchmarks}}, 
+year = {1986} 
+}</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>journals/tse/HillyerSN86</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>NON-VON's Performance on Certain Database Benchmarks</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse12.html#HillyerSN86</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1986</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Shi-Kuo Chang and Wu-Haung Cheng</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>@article{chang:1980,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Shi-Kuo Chang and Wu-Haung Cheng}, 
+title = {{A Methodology for Structured Database Decomposition}}, 
+year = {1980} 
+}</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>journals/tse/ChangC80</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>A Methodology for Structured Database Decomposition</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse6.html#ChangC80</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1980</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Timo Niemi and Kalervo Järvelin</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>@article{niemi:1991,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Timo Niemi and Kalervo Järvelin}, 
+title = {{Prolog-Based Meta-Rules For Relational Database Representation and Manipulation}}, 
+year = {1991} 
+}</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>journals/tse/NiemiJ91</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Prolog-Based Meta-Rules For Relational Database Representation and Manipulation</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse17.html#NiemiJ91</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1991</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Bao-Chyuan Jenq and Walter H. Kohler and Donald F. Towsley</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>@article{jenq:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Bao-Chyuan Jenq and Walter H. Kohler and Donald F. Towsley}, 
+title = {{A Queueing Network Model for a Distributed Database Testbed System}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>journals/tse/JenqKT88</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>A Queueing Network Model for a Distributed Database Testbed System</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#JenqKT88</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Scott E. Hudson and Roger King</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>@article{e.:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Scott E. Hudson and Roger King}, 
+title = {{The Cactis Project: Database Support for Software Environment}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>journals/tse/HudsonK88</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>The Cactis Project: Database Support for Software Environment</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#HudsonK88</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Claude Boksenbaum and Michèle Cart and Jean FerriéJean-François Pons</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>@article{boksenbaum:1987,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Claude Boksenbaum and Michèle Cart and Jean FerriéJean-François Pons}, 
+title = {{Concurrent Certifications by Intervals of Timestamps in Distributed Database Systems}}, 
+year = {1987} 
+}</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>journals/tse/BoksenbaumCFP87</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Concurrent Certifications by Intervals of Timestamps in Distributed Database Systems</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse13.html#BoksenbaumCFP87</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1987</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Yang-Chang Hong and Stanley Y. W. Su</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>@article{hong:1982,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Yang-Chang Hong and Stanley Y. W. Su}, 
+title = {{A Mechanism for Database Protection in Cellular-Logic Devices}}, 
+year = {1982} 
+}</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>journals/tse/HongS82</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>A Mechanism for Database Protection in Cellular-Logic Devices</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse8.html#HongS82</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1982</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Amihai Motro</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>@article{motro:1987,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Amihai Motro}, 
+title = {{Superviews: Virtual Integration of Multiple Databases}}, 
+year = {1987} 
+}</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>journals/tse/Motro87</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Superviews: Virtual Integration of Multiple Databases</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse13.html#Motro87</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1987</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Toshihide Ibaraki and Tiko Kameda and Naoki Katoh</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>@article{ibaraki:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Toshihide Ibaraki and Tiko Kameda and Naoki Katoh}, 
+title = {{Cautious Transaction Schedulers for Database Concurrency Control}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>journals/tse/IbarakiKK88</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Cautious Transaction Schedulers for Database Concurrency Control</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#IbarakiKK88</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Abraham Silberschatz and Zvi M. Kedem</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>@article{silberschatz:1982,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Abraham Silberschatz and Zvi M. Kedem}, 
+title = {{A Family of Locking Protocols for Database Systems that Are Modeled by Directed Graphs}}, 
+year = {1982} 
+}</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>journals/tse/SilberschatzK82</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>A Family of Locking Protocols for Database Systems that Are Modeled by Directed Graphs</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse8.html#SilberschatzK82</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1982</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Jack A. Orenstein and Frank Manola</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>@article{a.:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Jack A. Orenstein and Frank Manola}, 
+title = {{PROBE Spatial Data Modeling and Query Processing in an Image Database Application}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>journals/tse/OrensteinM88</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>PROBE Spatial Data Modeling and Query Processing in an Image Database Application</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#OrensteinM88</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Mohammad A. Ketabchi and Valdis Berzins</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>@article{a.:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Mohammad A. Ketabchi and Valdis Berzins}, 
+title = {{Mathematical Model of Composite Objects and Its Application for Organizing Engineering Databases}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>journals/tse/KetabchiB88</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Mathematical Model of Composite Objects and Its Application for Organizing Engineering Databases</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#KetabchiB88</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>John P. Kearns and Samuel DeFazio</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>@article{p.:1983,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {John P. Kearns and Samuel DeFazio}, 
+title = {{Locality of Reference in Hierarchical Database Systems}}, 
+year = {1983} 
+}</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>journals/tse/KearnsD83</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Locality of Reference in Hierarchical Database Systems</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse9.html#KearnsD83</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1983</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Stefano Ceri and Shamkant B. Navathe and Gio Wiederhold</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>@article{ceri:1983,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Stefano Ceri and Shamkant B. Navathe and Gio Wiederhold}, 
+title = {{Distribution Design of Logical Database Schemas}}, 
+year = {1983} 
+}</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>journals/tse/CeriNW83</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Distribution Design of Logical Database Schemas</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse9.html#CeriNW83</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1983</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Javier Tuya and Claudio de la Riva and María José Suárez Cabal and Raquel Blanco</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>@article{tuya:2016,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Javier Tuya and Claudio de la Riva and María José Suárez Cabal and Raquel Blanco}, 
+title = {{Coverage-Aware Test Database Reduction}}, 
+year = {2016} 
+}</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>journals/tse/TuyaRCB16</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Coverage-Aware Test Database Reduction</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse42.html#TuyaRCB16</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Tadao Ichikawa and Masahito Hirakawa</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>@article{ichikawa:1986,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Tadao Ichikawa and Masahito Hirakawa}, 
+title = {{ARES: A Relational Database with the Capability of Performing Flexible Interpretation of Queries}}, 
+year = {1986} 
+}</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>journals/tse/IchikawaH86</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>ARES: A Relational Database with the Capability of Performing Flexible Interpretation of Queries</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse12.html#IchikawaH86</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1986</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Philip A. Bernstein and David W. Shipman and Wing S. Wong</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>@article{a.:1979,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Philip A. Bernstein and David W. Shipman and Wing S. Wong}, 
+title = {{Formal Aspects of Serializability in Database Concurrency Control}}, 
+year = {1979} 
+}</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>journals/tse/BernsteinSW79</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Formal Aspects of Serializability in Database Concurrency Control</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse5.html#BernsteinSW79</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1979</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Shi-Kuo Chang and Jyh-Sheng Ke</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>@article{chang:1978,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Shi-Kuo Chang and Jyh-Sheng Ke}, 
+title = {{Database Skeleton and Its Application to Fuzzy Query Translation}}, 
+year = {1978} 
+}</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>journals/tse/ChangK78</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Database Skeleton and Its Application to Fuzzy Query Translation</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse4.html#ChangK78</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1978</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Gwan-Hwan Hwang and Sheng-Jen Chang and Huey-Der Chu</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>@article{hwang:2004,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Gwan-Hwan Hwang and Sheng-Jen Chang and Huey-Der Chu}, 
+title = {{Correction to 'Technology for Testing Nondeterministic Client/Server Database Applications'}}, 
+year = {2004} 
+}</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>journals/tse/HwangCC04a</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Correction to 'Technology for Testing Nondeterministic Client/Server Database Applications'</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse30.html#HwangCC04a</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Sunil K. Sarin and Nancy A. Lynch</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>@article{k.:1987,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Sunil K. Sarin and Nancy A. Lynch}, 
+title = {{Discarding Obsolete Information in a Replicated Database System}}, 
+year = {1987} 
+}</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>journals/tse/SarinL87</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Discarding Obsolete Information in a Replicated Database System</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse13.html#SarinL87</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1987</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Lin Lin Wang</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>@article{lin:1996,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Lin Lin Wang}, 
+title = {{Thorough Investigation into "An Improved Algorithm Based on Subset Closures for Synthesizing a Relational Database Scheme''}}, 
+year = {1996} 
+}</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>journals/tse/Wang96</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Thorough Investigation into "An Improved Algorithm Based on Subset Closures for Synthesizing a Relational Database Scheme''</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse22.html#Wang96</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1996</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Douglas W. Cornell and Philip S. Yu</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>@article{w.:1989,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Douglas W. Cornell and Philip S. Yu}, 
+title = {{On Optimal Site Assignment for Relations in the Distributed Database Environment}}, 
+year = {1989} 
+}</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>journals/tse/CornellY89</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>On Optimal Site Assignment for Relations in the Distributed Database Environment</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse15.html#CornellY89</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1989</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>David L. Spooner and Ehud Gudes</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>@article{l.:1984,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {David L. Spooner and Ehud Gudes}, 
+title = {{A Unifying Approach to the Design of a Secure Database Operating System}}, 
+year = {1984} 
+}</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>journals/tse/SpoonerG84</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>A Unifying Approach to the Design of a Secure Database Operating System</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse10.html#SpoonerG84</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1984</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Sakti P. Ghosh</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>@article{p.:1985,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Sakti P. Ghosh}, 
+title = {{An Application of Statistical Databases in Manufacturing Testing}}, 
+year = {1985} 
+}</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>journals/tse/Ghosh85</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>An Application of Statistical Databases in Manufacturing Testing</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse11.html#Ghosh85</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1985</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Narain H. Gehani</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>@article{h.:1982,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Narain H. Gehani}, 
+title = {{Databases and Units of Measure}}, 
+year = {1982} 
+}</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>journals/tse/Gehani82</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Databases and Units of Measure</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse8.html#Gehani82</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1982</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Benjamin W. Wah and Yao-Nan Lien</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>@article{w.:1985,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Benjamin W. Wah and Yao-Nan Lien}, 
+title = {{Design of Distributed Databases on Local Computer Systems with a Multiaccess Network}}, 
+year = {1985} 
+}</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>journals/tse/WahL85</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Design of Distributed Databases on Local Computer Systems with a Multiaccess Network</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse11.html#WahL85</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1985</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Ouri Wolfson and Soumitra Sengupta and Yechiam Yemini</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>@article{wolfson:1991,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Ouri Wolfson and Soumitra Sengupta and Yechiam Yemini}, 
+title = {{Managing Communication Networks by Monitoring Databases}}, 
+year = {1991} 
+}</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>journals/tse/WolfsonSY91</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Managing Communication Networks by Monitoring Databases</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse17.html#WolfsonSY91</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1991</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Francis Y. L. Chin and Gultekin Özsoyoglu</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>@article{y.:1982,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Francis Y. L. Chin and Gultekin Özsoyoglu}, 
+title = {{Auditing and Inference Control in Statistical Databases}}, 
+year = {1982} 
+}</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>journals/tse/ChinO82</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Auditing and Inference Control in Statistical Databases</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse8.html#ChinO82</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1982</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Philip Heidelberger and M. Seetha Lakshmi</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>@article{heidelberger:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Philip Heidelberger and M. Seetha Lakshmi}, 
+title = {{A Performance Comparison of Multimicro and Mainframe Database Architectures}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>journals/tse/HeidelbergerL88</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>A Performance Comparison of Multimicro and Mainframe Database Architectures</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#HeidelbergerL88</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Mostafa A. Bassiouni</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>@article{a.:1985,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Mostafa A. Bassiouni}, 
+title = {{Data Compression in Scientific and Statistical Databases}}, 
+year = {1985} 
+}</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>journals/tse/Bassiouni85</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Data Compression in Scientific and Statistical Databases</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse11.html#Bassiouni85</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1985</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Phil McMinn and Chris J. Wright and Colton J. McCurdy and Gregory M. Kapfhammer</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>@article{mcminn:2019,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Phil McMinn and Chris J. Wright and Colton J. McCurdy and Gregory M. Kapfhammer}, 
+title = {{Automatic Detection and Removal of Ineffective Mutants for the Mutation Analysis of Relational Database Schemas}}, 
+year = {2019} 
+}</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>journals/tse/McMinnWMK19</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Automatic Detection and Removal of Ineffective Mutants for the Mutation Analysis of Relational Database Schemas</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse45.html#McMinnWMK19</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Kathryn C. Kinsley and Charles E. Hughes</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>@article{c.:1992,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Kathryn C. Kinsley and Charles E. Hughes}, 
+title = {{Analysis of a Virtual Memory Model For Maintaining Database Views}}, 
+year = {1992} 
+}</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>journals/tse/KinsleyH92</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Analysis of a Virtual Memory Model For Maintaining Database Views</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse18.html#KinsleyH92</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1992</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Gurdeep S. Hura and Harpreet Singh and N. K. Nanda</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>@article{s.:1986,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Gurdeep S. Hura and Harpreet Singh and N. K. Nanda}, 
+title = {{Some Design Aspects of Databases Through Petri Net Modeling}}, 
+year = {1986} 
+}</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>journals/tse/HuraSN86</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Some Design Aspects of Databases Through Petri Net Modeling</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse12.html#HuraSN86</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1986</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Shi-Kuo Chang and C. W. Yan and Donald C. Dimitroff and Timothy Arndt</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>@article{chang:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Shi-Kuo Chang and C. W. Yan and Donald C. Dimitroff and Timothy Arndt}, 
+title = {{An Intelligent Image Database System}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>journals/tse/ChangYDA88</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>An Intelligent Image Database System</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#ChangYDA88</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>B. Srinivasan and R. Sankar</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>@article{srinivasan:1981,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {B. Srinivasan and R. Sankar}, 
+title = {{Algorithms to Distribute a Database for Parallel Searching}}, 
+year = {1981} 
+}</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>journals/tse/SrinivasanS81</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Algorithms to Distribute a Database for Parallel Searching</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse7.html#SrinivasanS81</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1981</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Ghassan Z. Qadah and Keki B. Irani</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>@article{z.:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Ghassan Z. Qadah and Keki B. Irani}, 
+title = {{The Join Alogorithms on a Shared-Memory Multiprocessor Database Machine}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>journals/tse/QadahI88</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>The Join Alogorithms on a Shared-Memory Multiprocessor Database Machine</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#QadahI88</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>David K. Hsiao and Douglas S. Kerr and Chen-Jen Nee</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>@article{k.:1979,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {David K. Hsiao and Douglas S. Kerr and Chen-Jen Nee}, 
+title = {{Database Access Control in the Presence of Context Dependent Protection Requirement}}, 
+year = {1979} 
+}</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>journals/tse/HsiaoKN79</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Database Access Control in the Presence of Context Dependent Protection Requirement</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse5.html#HsiaoKN79</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1979</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Andreas Reuter 0001 and Horst Kinzinger</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>@article{reuter:1984,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Andreas Reuter 0001 and Horst Kinzinger}, 
+title = {{Automatic Design of the Internal Schema for a CODASYL Database System}}, 
+year = {1984} 
+}</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>journals/tse/ReuterK84</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Automatic Design of the Internal Schema for a CODASYL Database System</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse10.html#ReuterK84</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1984</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Shigeru Masuyama and Toshihide Ibaraki and Shojiro Nishio and Toshiharu Hasegawa</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>@article{masuyama:1987,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Shigeru Masuyama and Toshihide Ibaraki and Shojiro Nishio and Toshiharu Hasegawa}, 
+title = {{Shortest Semijoin Schedule for a Local Area Distributed Database System}}, 
+year = {1987} 
+}</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>journals/tse/MasuyamaINH87</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Shortest Semijoin Schedule for a Local Area Distributed Database System</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse13.html#MasuyamaINH87</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1987</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>K. H. Pun and Geneva G. Belford</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>@article{h.:1987,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {K. H. Pun and Geneva G. Belford}, 
+title = {{Performance Study of Two Phase Locking in Single-Site Database Systems}}, 
+year = {1987} 
+}</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>journals/tse/PunB87</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Performance Study of Two Phase Locking in Single-Site Database Systems</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse13.html#PunB87</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>1987</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Hector Garcia-Molina and Boris Kogan</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>@article{garcia-molina:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Hector Garcia-Molina and Boris Kogan}, 
+title = {{Achieving High Availability in Distributed Databases}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>journals/tse/Garcia-MolinaK88</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Achieving High Availability in Distributed Databases</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#Garcia-MolinaK88</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Tony T. Lee</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>@article{t.:1987,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Tony T. Lee}, 
+title = {{An Information-Theoretic Analysis of Relational Databases - Part II: Information Structures of Database Schemas}}, 
+year = {1987} 
+}</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>journals/tse/Lee87a</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>An Information-Theoretic Analysis of Relational Databases - Part II: Information Structures of Database Schemas</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse13.html#Lee87a</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1987</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Abdel Aziz Farrag and M. Tamer Özsu</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>@article{aziz:1987,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Abdel Aziz Farrag and M. Tamer Özsu}, 
+title = {{Towards a General Concurrency Control Algorithm for Database Systems}}, 
+year = {1987} 
+}</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>journals/tse/FarragO87</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Towards a General Concurrency Control Algorithm for Database Systems</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse13.html#FarragO87</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1987</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>George I. Davida and David J. Linton and C. Russel Szelag and David L. Wells</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>@article{i.:1978,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {George I. Davida and David J. Linton and C. Russel Szelag and David L. Wells}, 
+title = {{Database Security}}, 
+year = {1978} 
+}</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>journals/tse/DavidaLSW78</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Database Security</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse4.html#DavidaLSW78</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>1978</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>M. Tamer Özsu</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>@article{tamer:1985,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {M. Tamer Özsu}, 
+title = {{Modeling and Analysis of Distributed Database Concurrency Control Algorithms Using an Extended Petri Net Formalism}}, 
+year = {1985} 
+}</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>journals/tse/Ozsu85</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Modeling and Analysis of Distributed Database Concurrency Control Algorithms Using an Extended Petri Net Formalism</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse11.html#Ozsu85</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1985</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Michael Hatzopoulos and John G. Kollias</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>@article{hatzopoulos:1984,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Michael Hatzopoulos and John G. Kollias}, 
+title = {{On the Optimal Selection of Multilist Database Structures}}, 
+year = {1984} 
+}</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>journals/tse/HatzopoulosK84</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>On the Optimal Selection of Multilist Database Structures</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse10.html#HatzopoulosK84</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>1984</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Wesley W. Chu and Ion Tim Ieong</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>@article{w.:1993,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Wesley W. Chu and Ion Tim Ieong}, 
+title = {{A Transaction-Based Approach to Vertical Partitioning for Relational Database Systems}}, 
+year = {1993} 
+}</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>journals/tse/ChuI93</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>A Transaction-Based Approach to Vertical Partitioning for Relational Database Systems</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse19.html#ChuI93</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1993</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>S. Bing Yao and Alan R. Hevner and Hélène Young-Myers</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>@article{bing:1987,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {S. Bing Yao and Alan R. Hevner and Hélène Young-Myers}, 
+title = {{Analysis of Database System Architectures Using Benchmarks}}, 
+year = {1987} 
+}</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>journals/tse/YaoHY87</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Analysis of Database System Architectures Using Benchmarks</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse13.html#YaoHY87</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>1987</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Asuman Dogac and Birol Yürüten and Stefano Spaccapietra</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>@article{dogac:1989,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Asuman Dogac and Birol Yürüten and Stefano Spaccapietra}, 
+title = {{A Generalized Expert System for Database Design}}, 
+year = {1989} 
+}</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>journals/tse/DogacYS89</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>A Generalized Expert System for Database Design</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse15.html#DogacYS89</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1989</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Georges Gardarin and Michel A. Melkanoff</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>@article{gardarin:1982,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Georges Gardarin and Michel A. Melkanoff}, 
+title = {{Proving Consistency of Database Transactions Written in Extended Pascal}}, 
+year = {1982} 
+}</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>journals/tse/GardarinM82</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Proving Consistency of Database Transactions Written in Extended Pascal</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse8.html#GardarinM82</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1982</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Rakesh Agrawal 0001 and Michael J. Carey 0001 and Lawrence W. McVoy</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>@article{agrawal:1987,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Rakesh Agrawal 0001 and Michael J. Carey 0001 and Lawrence W. McVoy}, 
+title = {{The Performance of Alternative Strategies for Dealing with Deadlocks in Database Management Systems}}, 
+year = {1987} 
+}</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>journals/tse/AgrawalCM87</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>The Performance of Alternative Strategies for Dealing with Deadlocks in Database Management Systems</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse13.html#AgrawalCM87</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1987</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Patricia G. Selinger</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>@article{g.:1983,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Patricia G. Selinger}, 
+title = {{State-of-the-Art Issues in Distributed Databases}}, 
+year = {1983} 
+}</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>journals/tse/Selinger83</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>State-of-the-Art Issues in Distributed Databases</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse9.html#Selinger83</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>1983</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Krishna P. Mikkilineni and Yuan-Chieh Chow and Stanley Y. W. Su</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>@article{p.:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Krishna P. Mikkilineni and Yuan-Chieh Chow and Stanley Y. W. Su}, 
+title = {{Petri-Net-Based Modeling and Evaluation of Pipelined Processing of Concurrent Database Queries}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>journals/tse/MikkilineniCS88</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Petri-Net-Based Modeling and Evaluation of Pipelined Processing of Concurrent Database Queries</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#MikkilineniCS88</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>James A. Larson and Shamkant B. Navathe and Ramez Elmasri</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>@article{a.:1989,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {James A. Larson and Shamkant B. Navathe and Ramez Elmasri}, 
+title = {{A Theory of Attribute Equivalence in Databases with Application to Schema Integration}}, 
+year = {1989} 
+}</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>journals/tse/LarsonNE89</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>A Theory of Attribute Equivalence in Databases with Application to Schema Integration</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse15.html#LarsonNE89</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1989</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Steven A. Demurjian and David K. Hsiao</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>@article{a.:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Steven A. Demurjian and David K. Hsiao}, 
+title = {{Towards a Better Understanding of Data Models Through the Multilingual Database System}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>journals/tse/DemurjianH88</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Towards a Better Understanding of Data Models Through the Multilingual Database System</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#DemurjianH88</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Leszek Lilien and Bharat K. Bhargava</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>@article{lilien:1984,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Leszek Lilien and Bharat K. Bhargava}, 
+title = {{A Scheme for Batch Verification of Integrity Assertions in a Database System}}, 
+year = {1984} 
+}</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>journals/tse/LilienB84</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>A Scheme for Batch Verification of Integrity Assertions in a Database System</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse10.html#LilienB84</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1984</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Joobin Choobineh and Michael V. Mannino and Jay F. Nunamaker Jr. and Benn R. Konsynski</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>@article{choobineh:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Joobin Choobineh and Michael V. Mannino and Jay F. Nunamaker Jr. and Benn R. Konsynski}, 
+title = {{An Expert Database Design System Based on Analysis of Forms}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>journals/tse/ChoobinehMNK88</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>An Expert Database Design System Based on Analysis of Forms</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#ChoobinehMNK88</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Stefano Ceri and Georg Gottlob and Gio Wiederhold</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>@article{ceri:1989,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Stefano Ceri and Georg Gottlob and Gio Wiederhold}, 
+title = {{Efficient Database Access from Prolog}}, 
+year = {1989} 
+}</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>journals/tse/CeriGW89</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Efficient Database Access from Prolog</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse15.html#CeriGW89</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1989</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Kyu-Young Whang and Ashok Malhotra and Gary H. Sockut and Luanne M. Burns and Key-Sun Choi</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>@article{whang:1992,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Kyu-Young Whang and Ashok Malhotra and Gary H. Sockut and Luanne M. Burns and Key-Sun Choi}, 
+title = {{Two-Dimensional Specification of Universal Quantification in a Graphical Database Query Language}}, 
+year = {1992} 
+}</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>journals/tse/WhangMSBC92</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Two-Dimensional Specification of Universal Quantification in a Graphical Database Query Language</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse18.html#WhangMSBC92</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>1992</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>S. Sitharama Iyengar and Rangasami L. Kashyap</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>@article{sitharama:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {S. Sitharama Iyengar and Rangasami L. Kashyap}, 
+title = {{Guest Editors' Introduction: Image Databases}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>journals/tse/IyengarK88</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Guest Editors' Introduction: Image Databases</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#IyengarK88</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Toshihide Ibaraki and Tiko Kameda and Naoki Katoh</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>@article{ibaraki:1990,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Toshihide Ibaraki and Tiko Kameda and Naoki Katoh}, 
+title = {{Multiversion Cautious Schedulers for Database Concurrency Control}}, 
+year = {1990} 
+}</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>journals/tse/IbarakiKK90</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Multiversion Cautious Schedulers for Database Concurrency Control</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse16.html#IbarakiKK90</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1990</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Nancy D. Griffeth and John A. Miller</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>@article{d.:1985,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Nancy D. Griffeth and John A. Miller}, 
+title = {{Performance Modeling of Database Recovery Protocols}}, 
+year = {1985} 
+}</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>journals/tse/GriffethM85</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Performance Modeling of Database Recovery Protocols</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse11.html#GriffethM85</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1985</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Levent V. Orman</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>@article{v.:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Levent V. Orman}, 
+title = {{Functional Development of Database Applications}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>journals/tse/Orman88</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Functional Development of Database Applications</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#Orman88</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Billy G. Claybrook and Anne-Marie Claybrook and James G. Williams 0002</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>@article{g.:1985,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Billy G. Claybrook and Anne-Marie Claybrook and James G. Williams 0002}, 
+title = {{Defining Database Views as Data Abstractions}}, 
+year = {1985} 
+}</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>journals/tse/ClaybrookCW85</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Defining Database Views as Data Abstractions</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse11.html#ClaybrookCW85</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1985</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Alexander Thomasian</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>@article{thomasian:1985,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Alexander Thomasian}, 
+title = {{Performance Evaluation of Centralized Databases with Static Locking}}, 
+year = {1985} 
+}</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>journals/tse/Thomasian85</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Performance Evaluation of Centralized Databases with Static Locking</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse11.html#Thomasian85</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>1985</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Masahiro Tsuchiya and Michael P. Mariani and James D. Brom</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>@article{tsuchiya:1986,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Masahiro Tsuchiya and Michael P. Mariani and James D. Brom}, 
+title = {{Distributed Database Management Model and Validation}}, 
+year = {1986} 
+}</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>journals/tse/TsuchiyaMB86</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Distributed Database Management Model and Validation</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse12.html#TsuchiyaMB86</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>1986</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Abdullah Uz Tansel and M. Erol Arkun and Gultekin Özsoyoglu</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>@article{uz:1989,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Abdullah Uz Tansel and M. Erol Arkun and Gultekin Özsoyoglu}, 
+title = {{Time-by-Example Query Language for Historical Databases}}, 
+year = {1989} 
+}</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>journals/tse/TanselAO89</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Time-by-Example Query Language for Historical Databases</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse15.html#TanselAO89</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1989</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Jo-Mei Chang and King-sun Fu</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>@article{chang:1981,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Jo-Mei Chang and King-sun Fu}, 
+title = {{Extended K-d Tree Database Organization: A Dynamic Multiattribute Clustering Method}}, 
+year = {1981} 
+}</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>journals/tse/ChangF81</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Extended K-d Tree Database Organization: A Dynamic Multiattribute Clustering Method</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse7.html#ChangF81</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1981</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Jon Louis Bentley</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>@article{louis:1979,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Jon Louis Bentley}, 
+title = {{Multidimensional Binary Search Trees in Database Applications}}, 
+year = {1979} 
+}</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>journals/tse/Bentley79</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Multidimensional Binary Search Trees in Database Applications</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse5.html#Bentley79</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>1979</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Pasquale Rullo and Domenico Saccà</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>@article{rullo:1988,
+journal = {Transactions on Software Engineering (TSE)}, 
+author = {Pasquale Rullo and Domenico Saccà}, 
+title = {{An Automatic Physical Designer for Network Model Databases}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>journals/tse/RulloS88</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>An Automatic Physical Designer for Network Model Databases</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>db/journals/tse/tse14.html#RulloS88</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>journals/tse/</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>Gary Wassermann and Carl Gould 0001 and Zhendong Su and Premkumar T. Devanbu</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>@article{wassermann:2007,
 journal = {ACM Transactions on Software Engineering and Methodology (TOSEM)}, 
@@ -711,38 +6164,79 @@
 }</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>journals/tosem/WassermannGSD07</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>Static checking of dynamically generated queries in database applications</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>db/journals/tosem/tosem16.html#WassermannGSD07</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>journals/tosem/</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G142" t="n">
         <v>2007</v>
       </c>
-      <c r="H9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="H142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Phil McMinn and Chris J. Wright and Gregory M. Kapfhammer</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>@article{mcminn:2015,
+journal = {ACM Transactions on Software Engineering and Methodology (TOSEM)}, 
+author = {Phil McMinn and Chris J. Wright and Gregory M. Kapfhammer}, 
+title = {{The Effectiveness of Test Coverage Criteria for Relational Database Schema Integrity Constraints}}, 
+year = {2015} 
+}</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>journals/tosem/McMinnWK15</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>The Effectiveness of Test Coverage Criteria for Relational Database Schema Integrity Constraints</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>db/journals/tosem/tosem25.html#McMinnWK15</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>journals/tosem/</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>Kai Pan and Xintao Wu and Tao Xie</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>@article{pan:2014,
 journal = {ACM Transactions on Software Engineering and Methodology (TOSEM)}, 
@@ -752,38 +6246,38 @@
 }</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>journals/tosem/PanWX14</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>Guided test generation for database applications via synthesized database interactions</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>db/journals/tosem/tosem23.html#PanWX14</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>journals/tosem/</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G144" t="n">
         <v>2014</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="H144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>Yossi Cohen and Yishai A. Feldman</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>@article{cohen:2003,
 journal = {ACM Transactions on Software Engineering and Methodology (TOSEM)}, 
@@ -793,38 +6287,38 @@
 }</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>journals/tosem/CohenF03</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>Automatic high-quality reengineering of database programs by abstraction, transformation and reimplementation</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>db/journals/tosem/tosem12.html#CohenF03</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>journals/tosem/</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G145" t="n">
         <v>2003</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="H145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>B. M. Mainul Hossain and Mark Grechanik and Ugo Buy and Haisheng Wang</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>@inproceedings{m.:2013,
 booktitle = {Symposium on the Foundations of Software Engineering (FSE)}, 
@@ -834,42 +6328,42 @@
 }</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>conf/sigsoft/HossainGBW13</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>REDACT: preventing database deadlocks from application-based transactions</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>db/conf/sigsoft/fse2013.html#HossainGBW13</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>conf/sigsoft/</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G146" t="n">
         <v>2013</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>conf/sigsoft/2013</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>Raquel Blanco and Javier Tuya</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>@inproceedings{blanco:2015,
 booktitle = {Symposium on the Foundations of Software Engineering (FSE)}, 
@@ -879,42 +6373,42 @@
 }</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>conf/sigsoft/BlancoT15</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>A test model for graph database applications: an MDA-based approach</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>db/conf/sigsoft/atest2015.html#BlancoT15</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>conf/sigsoft/</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G147" t="n">
         <v>2015</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H147" t="inlineStr">
         <is>
           <t>conf/sigsoft/2015atest</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>Mark Grechanik and B. M. Mainul Hossain and Ugo Buy and Haisheng Wang</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>@inproceedings{grechanik:2013,
 booktitle = {Symposium on the Foundations of Software Engineering (FSE)}, 
@@ -924,42 +6418,42 @@
 }</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>conf/sigsoft/GrechanikHBW13</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>Preventing database deadlocks in applications</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>db/conf/sigsoft/fse2013.html#GrechanikHBW13</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>conf/sigsoft/</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G148" t="n">
         <v>2013</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>conf/sigsoft/2013</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>Gregory M. Kapfhammer and Mary Lou Soffa</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>@inproceedings{m.:2003,
 booktitle = {Symposium on the Foundations of Software Engineering (FSE)}, 
@@ -969,42 +6463,42 @@
 }</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>conf/sigsoft/KapfhammerS03</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>A family of test adequacy criteria for database-driven applications</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>db/conf/sigsoft/fse2003.html#KapfhammerS03</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>conf/sigsoft/</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G149" t="n">
         <v>2003</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>conf/sigsoft/2003</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>Junwen Yang and Cong Yan and Pranav Subramaniam and Shan Lu and Alvin Cheung</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>@inproceedings{yang:2018,
 booktitle = {Symposium on the Foundations of Software Engineering (FSE)}, 
@@ -1014,42 +6508,42 @@
 }</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>conf/sigsoft/YangYSLC18</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>PowerStation: automatically detecting and fixing inefficiencies of database-backed web applications in IDE</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>db/conf/sigsoft/fse2018.html#YangYSLC18</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>conf/sigsoft/</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G150" t="n">
         <v>2018</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>conf/sigsoft/2018</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>Tse-Hsun Chen and Weiyi Shang and Ahmed E. Hassan and Mohamed N. Nasser and Parminder Flora</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>@inproceedings{chen:2016,
 booktitle = {Symposium on the Foundations of Software Engineering (FSE)}, 
@@ -1059,42 +6553,42 @@
 }</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>conf/sigsoft/ChenSHNF16</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>CacheOptimizer: helping developers configure caching frameworks for hibernate-based database-centric web applications</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>db/conf/sigsoft/fse2016.html#ChenSHNF16</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>conf/sigsoft/</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G151" t="n">
         <v>2016</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>conf/sigsoft/2016</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>María José Suárez Cabal and Javier Tuya</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>@inproceedings{josé:2004,
 booktitle = {Symposium on the Foundations of Software Engineering (FSE)}, 
@@ -1104,42 +6598,42 @@
 }</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>conf/sigsoft/CabalT04</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>Using an SQL coverage measurement for testing database applications</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>db/conf/sigsoft/fse2004.html#CabalT04</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>conf/sigsoft/</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G152" t="n">
         <v>2004</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>conf/sigsoft/2004</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>Dong Qiu and Bixin Li and Zhendong Su</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>@inproceedings{qiu:2013,
 booktitle = {Symposium on the Foundations of Software Engineering (FSE)}, 
@@ -1149,42 +6643,42 @@
 }</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>conf/sigsoft/QiuLS13</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>An empirical analysis of the co-evolution of schema and code in database applications</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>db/conf/sigsoft/fse2013.html#QiuLS13</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>conf/sigsoft/</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G153" t="n">
         <v>2013</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t>conf/sigsoft/2013</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>Julien Delplanque</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>@inproceedings{delplanque:2018,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -1194,42 +6688,87 @@
 }</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>conf/kbse/Delplanque18</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>Software engineering techniques applied to relational databases</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2018.html#Delplanque18</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G154" t="n">
         <v>2018</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H154" t="inlineStr">
         <is>
           <t>conf/kbse/2018</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Yossi Cohen and Yishai A. Feldman</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>@inproceedings{cohen:1997,
+booktitle = {International Conference on Automated Software Engineering(ASE)}, 
+author = {Yossi Cohen and Yishai A. Feldman}, 
+title = {{Automatic High-Quality Reengineering of Database Programs by Temporal Abstraction}}, 
+year = {1997} 
+}</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>conf/kbse/CohenF97</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Automatic High-Quality Reengineering of Database Programs by Temporal Abstraction</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>db/conf/kbse/ase1997.html#CohenF97</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>conf/kbse/</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>1997</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>conf/kbse/1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
         <is>
           <t>Shadi Abdul Khalek and Sarfraz Khurshid</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B156" t="inlineStr">
         <is>
           <t>@inproceedings{abdul:2010,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -1239,42 +6778,87 @@
 }</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>conf/kbse/KhalekK10</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>Automated SQL query generation for systematic testing of database engines</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2010.html#KhalekK10</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G156" t="n">
         <v>2010</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H156" t="inlineStr">
         <is>
           <t>conf/kbse/2010</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Yuetang Deng and Phyllis G. Frankl and Zhongqiang Chen</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>@inproceedings{deng:2003,
+booktitle = {International Conference on Automated Software Engineering(ASE)}, 
+author = {Yuetang Deng and Phyllis G. Frankl and Zhongqiang Chen}, 
+title = {{Testing Database Transaction Concurrency}}, 
+year = {2003} 
+}</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>conf/kbse/DengFC03</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Testing Database Transaction Concurrency</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>db/conf/kbse/ase2003.html#DengFC03</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>conf/kbse/</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>conf/kbse/2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t>Kai Pan and Xintao Wu and Tao Xie</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>@inproceedings{pan:2011,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -1284,42 +6868,42 @@
 }</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>conf/kbse/PanWX11</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>Generating program inputs for database application testing</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2011.html#PanWX11</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G158" t="n">
         <v>2011</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H158" t="inlineStr">
         <is>
           <t>conf/kbse/2011</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t>Kunal Taneja and Yi Zhang and Tao Xie 0001</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>@inproceedings{taneja:2010,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -1329,42 +6913,42 @@
 }</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>conf/kbse/TanejaZX10</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>MODA: automated test generation for database applications via mock objects</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2010.html#TanejaZX10</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="G159" t="n">
         <v>2010</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H159" t="inlineStr">
         <is>
           <t>conf/kbse/2010</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t>Muhammad Suleman Mahmood and Maryam Abdul Ghafoor and Junaid Haroon Siddiqui</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>@inproceedings{suleman:2016,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -1374,42 +6958,42 @@
 }</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>conf/kbse/MahmoodGS16</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t>Symbolic execution of stored procedures in database management systems</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2016.html#MahmoodGS16</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="G160" t="n">
         <v>2016</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H160" t="inlineStr">
         <is>
           <t>conf/kbse/2016</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t>Hamid Ould-Brahim and Stan Matwin</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>@inproceedings{ould-brahim:1992,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -1419,42 +7003,177 @@
 }</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>conf/kbse/Ould-BrahimM92</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D161" t="inlineStr">
         <is>
           <t>Reusing database queries in analogical domains</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>db/conf/kbse/kbse1992.html#Ould-BrahimM92</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="G161" t="n">
         <v>1992</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H161" t="inlineStr">
         <is>
           <t>conf/kbse/1992</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Mario Linares Vásquez and Boyang Li and Christopher Vendome and Denys Poshyvanyk</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>@inproceedings{linares:2015,
+booktitle = {International Conference on Automated Software Engineering(ASE)}, 
+author = {Mario Linares Vásquez and Boyang Li and Christopher Vendome and Denys Poshyvanyk}, 
+title = {{How do Developers Document Database Usages in Source Code? (N)}}, 
+year = {2015} 
+}</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>conf/kbse/VasquezLVP15</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>How do Developers Document Database Usages in Source Code? (N)</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>db/conf/kbse/ase2015.html#VasquezLVP15</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>conf/kbse/</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>conf/kbse/2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Shahrul Azman Noah and Michael D. Williams</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>@inproceedings{azman:2000,
+booktitle = {International Conference on Automated Software Engineering(ASE)}, 
+author = {Shahrul Azman Noah and Michael D. Williams}, 
+title = {{Exploring and Validating the Contributions of Real-World Knowledge to the Diagnostic Performance of Automated Database Design Tools}}, 
+year = {2000} 
+}</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>conf/kbse/NoahW00</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Exploring and Validating the Contributions of Real-World Knowledge to the Diagnostic Performance of Automated Database Design Tools</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>db/conf/kbse/ase2000.html#NoahW00</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>conf/kbse/</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>conf/kbse/2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>William G. J. Halfond and Alessandro Orso</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>@inproceedings{g.:2006,
+booktitle = {International Conference on Automated Software Engineering(ASE)}, 
+author = {William G. J. Halfond and Alessandro Orso}, 
+title = {{Command-Form Coverage for Testing Database Applications}}, 
+year = {2006} 
+}</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>conf/kbse/HalfondO06</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Command-Form Coverage for Testing Database Applications</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>db/conf/kbse/ase2006.html#HalfondO06</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>conf/kbse/</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>2006</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>conf/kbse/2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
         <is>
           <t>Sarah R. Clark and Jake Cobb and Gregory M. Kapfhammer and James A. Jones and Mary Jean Harrold</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B165" t="inlineStr">
         <is>
           <t>@inproceedings{r.:2011,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -1464,42 +7183,42 @@
 }</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C165" t="inlineStr">
         <is>
           <t>conf/kbse/ClarkCKJH11</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>Localizing SQL faults in database applications</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2011.html#ClarkCKJH11</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G165" t="n">
         <v>2011</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H165" t="inlineStr">
         <is>
           <t>conf/kbse/2011</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="166">
+      <c r="A166" t="inlineStr">
         <is>
           <t>Yuetang Deng and Phyllis G. Frankl and David Chays</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B166" t="inlineStr">
         <is>
           <t>@inproceedings{deng:2005,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -1509,42 +7228,42 @@
 }</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C166" t="inlineStr">
         <is>
           <t>conf/icse/DengFC05</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>Testing database transactions with AGENDA</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2005.html#DengFC05</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G166" t="n">
         <v>2005</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H166" t="inlineStr">
         <is>
           <t>conf/icse/2005</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="167">
+      <c r="A167" t="inlineStr">
         <is>
           <t>Mathieu Humblet and Dang Vinh Tran and Jens H. Weber and Anthony Cleve</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B167" t="inlineStr">
         <is>
           <t>@inproceedings{humblet:2016,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -1554,42 +7273,87 @@
 }</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C167" t="inlineStr">
         <is>
           <t>conf/icse/HumbletTWC16</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D167" t="inlineStr">
         <is>
           <t>Variability management in database applications</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>db/conf/icse/vace2016.html#HumbletTWC16</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G167" t="n">
         <v>2016</v>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>conf/icse/2016vace</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Klaus R. Dittrich and Dimitris Tombros and Andreas Geppert</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>@inproceedings{r.:2000,
+booktitle = {International Conference on Software Engineering (ICSE)}, 
+author = {Klaus R. Dittrich and Dimitris Tombros and Andreas Geppert}, 
+title = {{Databases in software engineering: a roadmap}}, 
+year = {2000} 
+}</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>conf/icse/DittrichTG00</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Databases in software engineering: a roadmap</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>db/conf/icse/future2000.html#DittrichTG00</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>conf/icse/</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>conf/icse/2000future</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
         <is>
           <t>Andy Maule and Wolfgang Emmerich and David S. Rosenblum</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>@inproceedings{maule:2008,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -1599,42 +7363,87 @@
 }</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>conf/icse/MauleER08</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t>Impact analysis of database schema changes</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2008.html#MauleER08</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G169" t="n">
         <v>2008</v>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H169" t="inlineStr">
         <is>
           <t>conf/icse/2008</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Roger King</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>@inproceedings{king:1994,
+booktitle = {International Conference on Software Engineering (ICSE)}, 
+author = {Roger King}, 
+title = {{Workshop on the Intersection Between Databases and Software Engineering}}, 
+year = {1994} 
+}</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>conf/icse/King94</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Workshop on the Intersection Between Databases and Software Engineering</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>db/conf/icse/icse94.html#King94</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>conf/icse/</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>1994</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>conf/icse/1994</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
         <is>
           <t>John Slankas</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>@inproceedings{slankas:2013,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -1644,42 +7453,42 @@
 }</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>conf/icse/Slankas04</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D171" t="inlineStr">
         <is>
           <t>Implementing database access control policy from unconstrained natural language text</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2013.html#Slankas04</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="G171" t="n">
         <v>2013</v>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H171" t="inlineStr">
         <is>
           <t>conf/icse/2013</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="172">
+      <c r="A172" t="inlineStr">
         <is>
           <t>Wito Delnat and Eddy Truyen and Ansar Rafique and Dimitri Van Landuyt and Wouter Joosen</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>@inproceedings{delnat:2018,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -1689,42 +7498,87 @@
 }</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>conf/icse/DelnatTRLJ18</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D172" t="inlineStr">
         <is>
           <t>K8-scalar: a workbench to compare autoscalers for container-orchestrated database clusters</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>db/conf/icse/seams2018.html#DelnatTRLJ18</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G172" t="n">
         <v>2018</v>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H172" t="inlineStr">
         <is>
           <t>conf/icse/2018seams</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Philip A. Bernstein</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>@inproceedings{a.:1987,
+booktitle = {International Conference on Software Engineering (ICSE)}, 
+author = {Philip A. Bernstein}, 
+title = {{Database System Support for Software Engineering}}, 
+year = {1987} 
+}</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>conf/icse/Bernstein87</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Database System Support for Software Engineering</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>db/conf/icse/icse87.html#Bernstein87</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>conf/icse/</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>1987</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>conf/icse/1987</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
         <is>
           <t>Tse-Hsun Chen and Weiyi Shang and Ahmed E. Hassan and Mohamed N. Nasser and Parminder Flora</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>@inproceedings{chen:2016,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -1734,42 +7588,87 @@
 }</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>conf/icse/ChenSHNF16</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>Detecting problems in the database access code of large scale systems: an industrial experience report</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2016c.html#ChenSHNF16</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="G174" t="n">
         <v>2016</v>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H174" t="inlineStr">
         <is>
           <t>conf/icse/2016c</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Rudolf Bayer</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>@inproceedings{bayer:1979,
+booktitle = {International Conference on Software Engineering (ICSE)}, 
+author = {Rudolf Bayer}, 
+title = {{On Synchronization and Recovery in Database Systems}}, 
+year = {1979} 
+}</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>conf/icse/Bayer79</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>On Synchronization and Recovery in Database Systems</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>db/conf/icse/icse79.html#Bayer79</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>conf/icse/</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>1979</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>conf/icse/1979</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
         <is>
           <t>David Willmor and Suzanne M. Embury</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>@inproceedings{willmor:2006,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -1779,42 +7678,87 @@
 }</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>conf/icse/WillmorE06</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D176" t="inlineStr">
         <is>
           <t>An intensional approach to the specification of test cases for database applications</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2006.html#WillmorE06</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="G176" t="n">
         <v>2006</v>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H176" t="inlineStr">
         <is>
           <t>conf/icse/2006</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Karen E. Huff</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>@inproceedings{e.:1981,
+booktitle = {International Conference on Software Engineering (ICSE)}, 
+author = {Karen E. Huff}, 
+title = {{A Database Model for Effective Configuration Management in the Programming Environment}}, 
+year = {1981} 
+}</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>conf/icse/Huff81</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>A Database Model for Effective Configuration Management in the Programming Environment</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>db/conf/icse/icse81.html#Huff81</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>conf/icse/</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>1981</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>conf/icse/1981</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
         <is>
           <t>Kai Pan and Xintao Wu and Tao Xie</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>@inproceedings{pan:2013,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -1824,42 +7768,42 @@
 }</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>conf/icse/PanWX13</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D178" t="inlineStr">
         <is>
           <t>Automatic test generation for mutation testing on database applications</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>db/conf/icse/ast2013.html#PanWX13</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G34" t="n">
+      <c r="G178" t="n">
         <v>2013</v>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H178" t="inlineStr">
         <is>
           <t>conf/icse/2013ast</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="179">
+      <c r="A179" t="inlineStr">
         <is>
           <t>Mashel Al-Barak and Rami Bahsoon</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>@inproceedings{al-barak:2018,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -1869,42 +7813,177 @@
 }</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>conf/icse/Al-BarakB18</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D179" t="inlineStr">
         <is>
           <t>Prioritizing technical debt in database normalization using portfolio theory and data quality metrics</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>db/conf/icse/techdebt2018.html#Al-BarakB18</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G35" t="n">
+      <c r="G179" t="n">
         <v>2018</v>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H179" t="inlineStr">
         <is>
           <t>conf/icse/2018techdebt</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>David Chays and Yuetang Deng</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>@inproceedings{chays:2003,
+booktitle = {International Conference on Software Engineering (ICSE)}, 
+author = {David Chays and Yuetang Deng}, 
+title = {{Demonstration of AGENDA Tool Set for Testing Relational Database Applications}}, 
+year = {2003} 
+}</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>conf/icse/ChaysD03</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Demonstration of AGENDA Tool Set for Testing Relational Database Applications</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>db/conf/icse/icse2003.html#ChaysD03</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>conf/icse/</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>conf/icse/2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Richard W. Selby</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>@inproceedings{w.:1997,
+booktitle = {International Conference on Software Engineering (ICSE)}, 
+author = {Richard W. Selby}, 
+title = {{Platforms for Software Execution: Databases vs. Operating Systems vs. Browsers (Panel)}}, 
+year = {1997} 
+}</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>conf/icse/Selby97</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Platforms for Software Execution: Databases vs. Operating Systems vs. Browsers (Panel)</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>db/conf/icse/icse97.html#Selby97</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>conf/icse/</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>1997</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>conf/icse/1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Isao Miyamoto</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>@inproceedings{miyamoto:1976,
+booktitle = {International Conference on Software Engineering (ICSE)}, 
+author = {Isao Miyamoto}, 
+title = {{Some Considerations in Database Application Programming}}, 
+year = {1976} 
+}</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>conf/icse/Miyamoto76</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Some Considerations in Database Application Programming</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>db/conf/icse/icse76.html#Miyamoto76</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>conf/icse/</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>1976</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>conf/icse/1976</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
         <is>
           <t>Andreza M. F. V. de Castro and Gisele Macedo and Eliane Collins and Arilo Claudio Dias-Neto</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>@inproceedings{m.:2013,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -1914,42 +7993,87 @@
 }</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>conf/icse/CastroMCD13</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D183" t="inlineStr">
         <is>
           <t>Extension of Selenium RC tool to perform automated testing with databases in web applications</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>db/conf/icse/ast2013.html#CastroMCD13</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G36" t="n">
+      <c r="G183" t="n">
         <v>2013</v>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H183" t="inlineStr">
         <is>
           <t>conf/icse/2013ast</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Cathrin Weiss and Cindy Rubio-González and Ben Liblit</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>@inproceedings{weiss:2015,
+booktitle = {International Conference on Software Engineering (ICSE)}, 
+author = {Cathrin Weiss and Cindy Rubio-González and Ben Liblit}, 
+title = {{Database-Backed Program Analysis for Scalable Error Propagation}}, 
+year = {2015} 
+}</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>conf/icse/WeissRL15</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Database-Backed Program Analysis for Scalable Error Propagation</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>db/conf/icse/icse2015-1.html#WeissRL15</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>conf/icse/</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>conf/icse/2015-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
         <is>
           <t>Dimitrios S. Kolovos and Fady Medhat and Richard F. Paige and Davide Di Ruscio and Tijs van der Storm and Sebastian Scholze and Athanasios Zolotas</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>@inproceedings{s.:2019,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -1959,42 +8083,177 @@
 }</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>conf/icse/KolovosMPRSSZ19</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>Domain-specific languages for the design, deployment and manipulation of heterogeneous databases</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>db/conf/icse/mise2019.html#KolovosMPRSSZ19</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G37" t="n">
+      <c r="G185" t="n">
         <v>2019</v>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H185" t="inlineStr">
         <is>
           <t>conf/icse/2019mise</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Maria Heloisa (Lolo) Penedo and E. Don Stuckle</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>@inproceedings{heloisa:1985,
+booktitle = {International Conference on Software Engineering (ICSE)}, 
+author = {Maria Heloisa (Lolo) Penedo and E. Don Stuckle}, 
+title = {{PMDB - A Project Master Database for Software Engineering Environments}}, 
+year = {1985} 
+}</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>conf/icse/PenedoS85</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>PMDB - A Project Master Database for Software Engineering Environments</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>db/conf/icse/icse85.html#PenedoS85</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>conf/icse/</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>1985</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>conf/icse/1985</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>K. Chong and P. Hsia</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>@inproceedings{chong:1984,
+booktitle = {International Conference on Software Engineering (ICSE)}, 
+author = {K. Chong and P. Hsia}, 
+title = {{Diagnostic System for Distributed Software: A Relational Database Approach}}, 
+year = {1984} 
+}</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>conf/icse/ChongH84</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Diagnostic System for Distributed Software: A Relational Database Approach</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>db/conf/icse/icse84.html#ChongH84</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>conf/icse/</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>1984</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>conf/icse/1984</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>David W. Stemple and Tim Sheard</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>@inproceedings{w.:1985,
+booktitle = {International Conference on Software Engineering (ICSE)}, 
+author = {David W. Stemple and Tim Sheard}, 
+title = {{Database Theory for Supporting Specification-Based Database Systems Development}}, 
+year = {1985} 
+}</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>conf/icse/StempleS85</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Database Theory for Supporting Specification-Based Database Systems Development</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>db/conf/icse/icse85.html#StempleS85</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>conf/icse/</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>1985</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>conf/icse/1985</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
         <is>
           <t>Marco Scavuzzo and Damian Andrew Tamburri and Elisabetta Di Nitto</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>@inproceedings{scavuzzo:2016,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -2004,42 +8263,42 @@
 }</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>conf/icse/ScavuzzoTN16</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D189" t="inlineStr">
         <is>
           <t>Providing big data applications with fault-tolerant data migration across heterogeneous NoSQL databases</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>db/conf/icse/bigdse2016.html#ScavuzzoTN16</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G38" t="n">
+      <c r="G189" t="n">
         <v>2016</v>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H189" t="inlineStr">
         <is>
           <t>conf/icse/2016bigdse</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="190">
+      <c r="A190" t="inlineStr">
         <is>
           <t>Jaumir V. da Silveira Jr. and Karin Koogan Breitman</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>@inproceedings{v.:2011,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -2049,42 +8308,42 @@
 }</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>conf/icse/SilveiraB11</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D190" t="inlineStr">
         <is>
           <t>A cloud-aware API for semi-structured BLOB databases addressing data overflow</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>db/conf/icse/topi2011.html#SilveiraB11</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G39" t="n">
+      <c r="G190" t="n">
         <v>2011</v>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H190" t="inlineStr">
         <is>
           <t>conf/icse/2011topi</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="191">
+      <c r="A191" t="inlineStr">
         <is>
           <t>Barbara A. Kitchenham and Cat Kutay and D. Ross Jeffery and Colin Connaughton</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>@inproceedings{a.:2006,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -2094,42 +8353,177 @@
 }</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>conf/icse/KitchenhamKJC06</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D191" t="inlineStr">
         <is>
           <t>Lessons learnt from the analysis of large-scale corporate databases</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2006.html#KitchenhamKJC06</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G40" t="n">
+      <c r="G191" t="n">
         <v>2006</v>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H191" t="inlineStr">
         <is>
           <t>conf/icse/2006</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Carl Gould 0001 and Zhendong Su and Premkumar T. Devanbu</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>@inproceedings{gould:2004,
+booktitle = {International Conference on Software Engineering (ICSE)}, 
+author = {Carl Gould 0001 and Zhendong Su and Premkumar T. Devanbu}, 
+title = {{Static Checking of Dynamically Generated Queries in Database Applications}}, 
+year = {2004} 
+}</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>conf/icse/GouldSD04</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Static Checking of Dynamically Generated Queries in Database Applications</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>db/conf/icse/icse2004.html#GouldSD04</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>conf/icse/</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>conf/icse/2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Lin Chiu and Ming T. Liu</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>@inproceedings{chiu:1988,
+booktitle = {International Conference on Software Engineering (ICSE)}, 
+author = {Lin Chiu and Ming T. Liu}, 
+title = {{High-Level Specification of Concurrency Control in Distributed Database Systems}}, 
+year = {1988} 
+}</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>conf/icse/ChiuL88</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>High-Level Specification of Concurrency Control in Distributed Database Systems</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>db/conf/icse/icse88.html#ChiuL88</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>conf/icse/</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>1988</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>conf/icse/1988</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Michael de Jong and Arie van Deursen and Anthony Cleve</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>@inproceedings{de:2017,
+booktitle = {International Conference on Software Engineering (ICSE)}, 
+author = {Michael de Jong and Arie van Deursen and Anthony Cleve}, 
+title = {{Zero-Downtime SQL Database Schema Evolution for Continuous Deployment}}, 
+year = {2017} 
+}</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>conf/icse/JongDC17</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Zero-Downtime SQL Database Schema Evolution for Continuous Deployment</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>db/conf/icse/icse2017seip.html#JongDC17</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>conf/icse/</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>conf/icse/2017seip</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
         <is>
           <t>Yuan Tian 0008 and David Lo 0001 and Julia L. Lawall</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>@inproceedings{tian:2014,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -2139,42 +8533,87 @@
 }</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>conf/icse/TianLL14</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D195" t="inlineStr">
         <is>
           <t>SEWordSim: software-specific word similarity database</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2014c.html#TianLL14</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G41" t="n">
+      <c r="G195" t="n">
         <v>2014</v>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H195" t="inlineStr">
         <is>
           <t>conf/icse/2014c</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Oskari Koskimies and Johan Wikman and Tapani Mikola and Antero Taivalsaari</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>@inproceedings{koskimies:2015,
+booktitle = {International Conference on Software Engineering (ICSE)}, 
+author = {Oskari Koskimies and Johan Wikman and Tapani Mikola and Antero Taivalsaari}, 
+title = {{EDB: A Multi-master Database for Liquid Multi-device Software}}, 
+year = {2015} 
+}</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>conf/icse/KoskimiesWMT15</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>EDB: A Multi-master Database for Liquid Multi-device Software</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>db/conf/icse/mobilesoft2015.html#KoskimiesWMT15</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>conf/icse/</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>conf/icse/2015mobilesoft</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
         <is>
           <t>Claudio de la Riva and María José Suárez Cabal and Javier Tuya</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>@inproceedings{de:2010,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -2184,42 +8623,42 @@
 }</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>conf/icse/RivaCT10</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D197" t="inlineStr">
         <is>
           <t>Constraint-based test database generation for SQL queries</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>db/conf/icse/ast2010.html#RivaCT10</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G42" t="n">
+      <c r="G197" t="n">
         <v>2010</v>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="H197" t="inlineStr">
         <is>
           <t>conf/icse/2010ast</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="198">
+      <c r="A198" t="inlineStr">
         <is>
           <t>Nate Kube and Kevin Yoo and Daniel Hoffman</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>@inproceedings{kube:2011,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -2229,42 +8668,42 @@
 }</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>conf/icse/KubeYH11</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D198" t="inlineStr">
         <is>
           <t>Automated testing of industrial control devices: the delphi database</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>db/conf/icse/ast2011.html#KubeYH11</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G43" t="n">
+      <c r="G198" t="n">
         <v>2011</v>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H198" t="inlineStr">
         <is>
           <t>conf/icse/2011ast</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="199">
+      <c r="A199" t="inlineStr">
         <is>
           <t>Percy E. Salas and Edgard Marx and Alexander Mera and José Viterbo</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>@inproceedings{e.:2011,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -2274,42 +8713,42 @@
 }</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>conf/icse/SalasMMV11</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D199" t="inlineStr">
         <is>
           <t>RDB2RDF plugin: relational databases to RDF plugin for eclipse</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>db/conf/icse/topi2011.html#SalasMMV11</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G44" t="n">
+      <c r="G199" t="n">
         <v>2011</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H199" t="inlineStr">
         <is>
           <t>conf/icse/2011topi</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="200">
+      <c r="A200" t="inlineStr">
         <is>
           <t>Tushar Sharma and Marios Fragkoulis and Stamatia Rizou and Magiel Bruntink and Diomidis Spinellis</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>@inproceedings{sharma:2018,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -2319,42 +8758,42 @@
 }</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>conf/icse/SharmaFRBS18</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D200" t="inlineStr">
         <is>
           <t>Smelly relations: measuring and understanding database schema quality</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>db/conf/icse/seip2018.html#SharmaFRBS18</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G45" t="n">
+      <c r="G200" t="n">
         <v>2018</v>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H200" t="inlineStr">
         <is>
           <t>conf/icse/2018seip</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="201">
+      <c r="A201" t="inlineStr">
         <is>
           <t>Junwen Yang and Cong Yan and Chengcheng Wan and Shan Lu and Alvin Cheung</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>@inproceedings{yang:2019,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -2364,42 +8803,42 @@
 }</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>conf/icse/YangYWLC19</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D201" t="inlineStr">
         <is>
           <t>View-centric performance optimization for database-backed web applications</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2019.html#YangYWLC19</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G46" t="n">
+      <c r="G201" t="n">
         <v>2019</v>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H201" t="inlineStr">
         <is>
           <t>conf/icse/2019</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="202">
+      <c r="A202" t="inlineStr">
         <is>
           <t>Csaba Nagy and Anthony Cleve</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>@inproceedings{nagy:2018,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -2409,42 +8848,132 @@
 }</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>conf/icse/NagyC18</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D202" t="inlineStr">
         <is>
           <t>SQLInspect: a static analyzer to inspect database usage in Java applications</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2018c.html#NagyC18</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G47" t="n">
+      <c r="G202" t="n">
         <v>2018</v>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H202" t="inlineStr">
         <is>
           <t>conf/icse/2018c</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Michael de Jong and Arie van Deursen</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>@inproceedings{de:2015,
+booktitle = {International Conference on Software Engineering (ICSE)}, 
+author = {Michael de Jong and Arie van Deursen}, 
+title = {{Continuous Deployment and Schema Evolution in SQL Databases}}, 
+year = {2015} 
+}</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>conf/icse/JongD15</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Continuous Deployment and Schema Evolution in SQL Databases</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>db/conf/icse/releng2015.html#JongD15</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>conf/icse/</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>conf/icse/2015releng</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Ramkrishna Chatterjee and Gopalan Arun and Sanjay Agarwal and Ben Speckhard and Ramesh Vasudevan</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>@inproceedings{chatterjee:2004,
+booktitle = {International Conference on Software Engineering (ICSE)}, 
+author = {Ramkrishna Chatterjee and Gopalan Arun and Sanjay Agarwal and Ben Speckhard and Ramesh Vasudevan}, 
+title = {{Using Data Versioning in Database Application Development}}, 
+year = {2004} 
+}</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>conf/icse/ChatterjeeAASV04</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Using Data Versioning in Database Application Development</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>db/conf/icse/icse2004.html#ChatterjeeAASV04</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>conf/icse/</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>conf/icse/2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
         <is>
           <t>Phil McMinn and Gregory M. Kapfhammer and Chris J. Wright</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>@inproceedings{mcminn:2016,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -2454,42 +8983,42 @@
 }</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>conf/icse/McMinnKW16</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D205" t="inlineStr">
         <is>
           <t>Virtual mutation analysis of relational database schemas</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>db/conf/icse/ast2016.html#McMinnKW16</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G48" t="n">
+      <c r="G205" t="n">
         <v>2016</v>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H205" t="inlineStr">
         <is>
           <t>conf/icse/2016ast</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="206">
+      <c r="A206" t="inlineStr">
         <is>
           <t>Junwen Yang and Pranav Subramaniam and Shan Lu and Cong Yan and Alvin Cheung</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>@inproceedings{yang:2018,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -2499,42 +9028,132 @@
 }</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>conf/icse/YangSLYC18</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D206" t="inlineStr">
         <is>
           <t>How not to structure your database-backed web applications: a study of performance bugs in the wild</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2018.html#YangSLYC18</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G49" t="n">
+      <c r="G206" t="n">
         <v>2018</v>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H206" t="inlineStr">
         <is>
           <t>conf/icse/2018</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Jesús M. González-Barahona and Gregorio Robles and Daniel Izquierdo-Cortazar</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>@inproceedings{m.:2015,
+booktitle = {International Conference on Mining Software Repositories (MSR)}, 
+author = {Jesús M. González-Barahona and Gregorio Robles and Daniel Izquierdo-Cortazar}, 
+title = {{The MetricsGrimoire Database Collection}}, 
+year = {2015} 
+}</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>conf/msr/Gonzalez-Barahona15</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>The MetricsGrimoire Database Collection</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>db/conf/msr/msr2015.html#Gonzalez-Barahona15</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>conf/msr/</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>conf/msr/2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Omar Alonso and Premkumar T. Devanbu and Michael Gertz</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>@inproceedings{alonso:2004,
+booktitle = {International Conference on Mining Software Repositories (MSR)}, 
+author = {Omar Alonso and Premkumar T. Devanbu and Michael Gertz}, 
+title = {{Database Techniques for the Analysis and Exploration of Software Repositories}}, 
+year = {2004} 
+}</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>conf/msr/AlonsoDG04</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Database Techniques for the Analysis and Exploration of Software Repositories</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>db/conf/msr/msr2004.html#AlonsoDG04</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>conf/msr/</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>conf/msr/2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
         <is>
           <t>Alexander Breckel</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>@inproceedings{breckel:2012,
 booktitle = {International Conference on Mining Software Repositories (MSR)}, 
@@ -2544,42 +9163,42 @@
 }</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>conf/msr/Breckel12</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D209" t="inlineStr">
         <is>
           <t>Error mining: Bug detection through comparison with large code databases</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>db/conf/msr/msr2012.html#Breckel12</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F209" t="inlineStr">
         <is>
           <t>conf/msr/</t>
         </is>
       </c>
-      <c r="G50" t="n">
+      <c r="G209" t="n">
         <v>2012</v>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H209" t="inlineStr">
         <is>
           <t>conf/msr/2012</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="210">
+      <c r="A210" t="inlineStr">
         <is>
           <t>Remco Bloemen and Chintan Amrit and Stefan Kuhlmann and Gonzalo Ordóñez-Matamoros</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>@inproceedings{bloemen:2014,
 booktitle = {International Conference on Mining Software Repositories (MSR)}, 
@@ -2589,32 +9208,77 @@
 }</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>conf/msr/BloemenAKO14</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D210" t="inlineStr">
         <is>
           <t>Innovation diffusion in open source software: preliminary analysis of dependency changes in the gentoo portage package database</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>db/conf/msr/msr2014.html#BloemenAKO14</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>conf/msr/</t>
         </is>
       </c>
-      <c r="G51" t="n">
+      <c r="G210" t="n">
         <v>2014</v>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H210" t="inlineStr">
         <is>
           <t>conf/msr/2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Lucas Nussbaum and Stefano Zacchiroli</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>@inproceedings{nussbaum:2010,
+booktitle = {International Conference on Mining Software Repositories (MSR)}, 
+author = {Lucas Nussbaum and Stefano Zacchiroli}, 
+title = {{The Ultimate Debian Database: Consolidating bazaar metadata for Quality Assurance and data mining}}, 
+year = {2010} 
+}</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>conf/msr/NussbaumZ10</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>The Ultimate Debian Database: Consolidating bazaar metadata for Quality Assurance and data mining</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>db/conf/msr/msr2010.html#NussbaumZ10</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>conf/msr/</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>2010</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>conf/msr/2010</t>
         </is>
       </c>
     </row>

--- a/resources/filtered_papers.xlsx
+++ b/resources/filtered_papers.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6315,10 +6315,1090 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
+          <t>William J. Premerlani and Michael R. Blaha</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>@inproceedings{j.:1993,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {William J. Premerlani and Michael R. Blaha}, 
+title = {{An Approach for Reverse Engineering of Relational Databases}}, 
+year = {1993} 
+}</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>conf/wcre/PremerlaniB93</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>An Approach for Reverse Engineering of Relational Databases</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre1993.html#PremerlaniB93</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>1993</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>conf/wcre/1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Jean-Luc Hainaut and Jean Henrard and Didier Roland and Vincent Englebert and Jean-Marc Hick</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>@inproceedings{hainaut:1996,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Jean-Luc Hainaut and Jean Henrard and Didier Roland and Vincent Englebert and Jean-Marc Hick}, 
+title = {{Structure Elicitation in Database Reverse Engineering}}, 
+year = {1996} 
+}</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>conf/wcre/HainautHREH96</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Structure Elicitation in Database Reverse Engineering</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre1996.html#HainautHREH96</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>1996</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>conf/wcre/1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Yury Bychkov and Jens H. Jahnke</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>@inproceedings{bychkov:2001,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Yury Bychkov and Jens H. Jahnke}, 
+title = {{Interactive Migration of Legacy Databases to Net-Centric Technologies}}, 
+year = {2001} 
+}</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>conf/wcre/BychkovJ01</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Interactive Migration of Legacy Databases to Net-Centric Technologies</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre2001.html#BychkovJ01</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>2001</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>conf/wcre/2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Ricardo Pérez-Castillo and Ignacio García Rodríguez de Guzmán and Ismael Caballero and Macario Polo and Mario Piattini</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>@inproceedings{pérez-castillo:2009,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Ricardo Pérez-Castillo and Ignacio García Rodríguez de Guzmán and Ismael Caballero and Macario Polo and Mario Piattini}, 
+title = {{PRECISO: A Reverse Engineering Tool to Discover Web Services from Relational Databases}}, 
+year = {2009} 
+}</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>conf/wcre/Perez-CastilloGCPP99a</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>PRECISO: A Reverse Engineering Tool to Discover Web Services from Relational Databases</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre2009.html#Perez-CastilloGCPP99a</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>conf/wcre/2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Michael R. Blaha</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>@inproceedings{r.:1997,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Michael R. Blaha}, 
+title = {{Dimensions of Database Reverse Engineering}}, 
+year = {1997} 
+}</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>conf/wcre/Blaha97</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Dimensions of Database Reverse Engineering</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre1997.html#Blaha97</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1997</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>conf/wcre/1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Jean-Luc Hainaut and Jean-Marc Hick and Jean Henrard and Didier Roland and Vincent Englebert</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>@inproceedings{hainaut:1997,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Jean-Luc Hainaut and Jean-Marc Hick and Jean Henrard and Didier Roland and Vincent Englebert}, 
+title = {{Knowledge Transfer in Database Reverse Engineering: A Supporting Case Study}}, 
+year = {1997} 
+}</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>conf/wcre/HainautHHRE97</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Knowledge Transfer in Database Reverse Engineering: A Supporting Case Study</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre1997.html#HainautHHRE97</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>1997</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>conf/wcre/1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Manar H. Alalfi and James R. Cordy and Thomas R. Dean</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>@inproceedings{h.:2008,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Manar H. Alalfi and James R. Cordy and Thomas R. Dean}, 
+title = {{SQL2XMI: Reverse Engineering of UML-ER Diagrams from Relational Database Schemas}}, 
+year = {2008} 
+}</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>conf/wcre/AlalfiCD08</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>SQL2XMI: Reverse Engineering of UML-ER Diagrams from Relational Database Schemas</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre2008.html#AlalfiCD08</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>2008</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>conf/wcre/2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Michael R. Blaha</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>@inproceedings{r.:1998,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Michael R. Blaha}, 
+title = {{On Reverse Engineering of Vendor Databases}}, 
+year = {1998} 
+}</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>conf/wcre/Blaha98</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>On Reverse Engineering of Vendor Databases</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre1998.html#Blaha98</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>1998</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>conf/wcre/1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Ignacio García Rodríguez de Guzmán and Macario Polo and Mario Piattini</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>@inproceedings{garcía:2007,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Ignacio García Rodríguez de Guzmán and Macario Polo and Mario Piattini}, 
+title = {{An ADM Approach to Reengineer Relational Databases towards Web Services}}, 
+year = {2007} 
+}</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>conf/wcre/GuzmanPP07</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>An ADM Approach to Reengineer Relational Databases towards Web Services</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre2007.html#GuzmanPP07</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>2007</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>conf/wcre/2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Andrew J. McAllister</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>@inproceedings{j.:1996,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Andrew J. McAllister}, 
+title = {{Reverse Engineering a Medical Database}}, 
+year = {1996} 
+}</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>conf/wcre/McAllister96</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Reverse Engineering a Medical Database</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre1996.html#McAllister96</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>1996</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>conf/wcre/1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Michael R. Blaha and Ian Benson</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>@inproceedings{r.:2000,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Michael R. Blaha and Ian Benson}, 
+title = {{Teaching Database Reverse Engineering}}, 
+year = {2000} 
+}</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>conf/wcre/BlahaB00</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Teaching Database Reverse Engineering</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre2000.html#BlahaB00</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>conf/wcre/2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Michael R. Blaha and William J. Premerlani</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>@inproceedings{r.:1995,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Michael R. Blaha and William J. Premerlani}, 
+title = {{Observed Idiosyncracies of Relational Database Designs}}, 
+year = {1995} 
+}</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>conf/wcre/BlahaP95</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Observed Idiosyncracies of Relational Database Designs</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre1995.html#BlahaP95</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>1995</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>conf/wcre/1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Philippe Thiran and Geert-Jan Houben and Jean-Luc Hainaut and Djamal Benslimane</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>@inproceedings{thiran:2004,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Philippe Thiran and Geert-Jan Houben and Jean-Luc Hainaut and Djamal Benslimane}, 
+title = {{Updating Legacy Databases through Wrappers: Data Consistency Management}}, 
+year = {2004} 
+}</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>conf/wcre/ThiranHHB04</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Updating Legacy Databases through Wrappers: Data Consistency Management</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre2004.html#ThiranHHB04</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>conf/wcre/2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Michael R. Blaha</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>@inproceedings{r.:1999,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Michael R. Blaha}, 
+title = {{An Industrial Example of Database Reverse Engineering}}, 
+year = {1999} 
+}</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>conf/wcre/Blaha99</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>An Industrial Example of Database Reverse Engineering</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre1999.html#Blaha99</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>conf/wcre/1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Jean-Luc Hainaut and M. Chandelon and C. Tonneau and M. Joris</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>@inproceedings{hainaut:1993,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Jean-Luc Hainaut and M. Chandelon and C. Tonneau and M. Joris}, 
+title = {{Contribution to a Theory of Database Reverse Engineering}}, 
+year = {1993} 
+}</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>conf/wcre/HainautCTJ93</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Contribution to a Theory of Database Reverse Engineering</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre1993.html#HainautCTJ93</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>1993</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>conf/wcre/1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Michael R. Blaha</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>@inproceedings{r.:2001,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Michael R. Blaha}, 
+title = {{A Retrospective on Industrial Database Reverse Engineering Projects. Part 1}}, 
+year = {2001} 
+}</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>conf/wcre/Blaha01</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>A Retrospective on Industrial Database Reverse Engineering Projects. Part 1</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre2001.html#Blaha01</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>2001</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>conf/wcre/2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Oscar Chaparro and Jairo Aponte and Fernando Ortega 0004 and Andrian Marcus</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>@inproceedings{chaparro:2012,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Oscar Chaparro and Jairo Aponte and Fernando Ortega 0004 and Andrian Marcus}, 
+title = {{Towards the Automatic Extraction of Structural Business Rules from Legacy Databases}}, 
+year = {2012} 
+}</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>conf/wcre/ChaparroAOM12</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Towards the Automatic Extraction of Structural Business Rules from Legacy Databases</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre2012.html#ChaparroAOM12</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>conf/wcre/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Reda Alhajj and Faruk Polat</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>@inproceedings{alhajj:2001,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Reda Alhajj and Faruk Polat}, 
+title = {{Reengineering Relational Databases to Object-Oriented: Constructing the Class Hierarchy and Migrating the Data}}, 
+year = {2001} 
+}</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>conf/wcre/AlhajjP01</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Reengineering Relational Databases to Object-Oriented: Constructing the Class Hierarchy and Migrating the Data</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre2001.html#AlhajjP01</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>2001</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>conf/wcre/2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Julien Delplanque and Anne Etien and Olivier Auverlot and Tom Mens and Nicolas Anquetil and Stéphane Ducasse</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>@inproceedings{delplanque:2017,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Julien Delplanque and Anne Etien and Olivier Auverlot and Tom Mens and Nicolas Anquetil and Stéphane Ducasse}, 
+title = {{CodeCritics applied to database schema: Challenges and first results}}, 
+year = {2017} 
+}</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>conf/wcre/DelplanqueEAMAD17</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>CodeCritics applied to database schema: Challenges and first results</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/saner2017.html#DelplanqueEAMAD17</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>conf/wcre/2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Michael R. Blaha</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>@inproceedings{r.:2001,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Michael R. Blaha}, 
+title = {{A Retrospective on Industrial Database Reverse Engineering Projects. Part 2}}, 
+year = {2001} 
+}</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>conf/wcre/Blaha01a</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>A Retrospective on Industrial Database Reverse Engineering Projects. Part 2</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre2001.html#Blaha01a</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>2001</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>conf/wcre/2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Gérard P. Huet</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>@inproceedings{p.:2001,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Gérard P. Huet}, 
+title = {{From an Informal Textual Lexicon to a Well-Structured Lexical Database: An Experiment in Data Reverse Engineering}}, 
+year = {2001} 
+}</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>conf/wcre/Huet01</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>From an Informal Textual Lexicon to a Well-Structured Lexical Database: An Experiment in Data Reverse Engineering</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre2001.html#Huet01</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>2001</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>conf/wcre/2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Oleksandr Panchenko</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>@inproceedings{panchenko:2011,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Oleksandr Panchenko}, 
+title = {{In-Memory Database Support for Source Code Search and Analytics}}, 
+year = {2011} 
+}</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>conf/wcre/Panchenko11</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>In-Memory Database Support for Source Code Search and Analytics</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre2011.html#Panchenko11</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>2011</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>conf/wcre/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Arian Treffer and Michael Perscheid and Matthias Uflacker</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>@inproceedings{treffer:2017,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {Arian Treffer and Michael Perscheid and Matthias Uflacker}, 
+title = {{Bringing back-in-time debugging down to the database}}, 
+year = {2017} 
+}</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>conf/wcre/TrefferPU17</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Bringing back-in-time debugging down to the database</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/saner2017.html#TrefferPU17</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>conf/wcre/2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>N. Mfourga</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>@inproceedings{mfourga:1997,
+booktitle = {International Conference on Software Analysis, Evolution and Reengineering (SANER)}, 
+author = {N. Mfourga}, 
+title = {{Extracting Entity-Relationship Schemas from Relational Databases: A Form-Driven Approach}}, 
+year = {1997} 
+}</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>conf/wcre/Mfourga97</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Extracting Entity-Relationship Schemas from Relational Databases: A Form-Driven Approach</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>db/conf/wcre/wcre1997.html#Mfourga97</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>conf/wcre/</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>1997</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>conf/wcre/1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
           <t>B. M. Mainul Hossain and Mark Grechanik and Ugo Buy and Haisheng Wang</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>@inproceedings{m.:2013,
 booktitle = {Symposium on the Foundations of Software Engineering (FSE)}, 
@@ -6328,42 +7408,42 @@
 }</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>conf/sigsoft/HossainGBW13</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="D170" t="inlineStr">
         <is>
           <t>REDACT: preventing database deadlocks from application-based transactions</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>db/conf/sigsoft/fse2013.html#HossainGBW13</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>conf/sigsoft/</t>
         </is>
       </c>
-      <c r="G146" t="n">
+      <c r="G170" t="n">
         <v>2013</v>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="H170" t="inlineStr">
         <is>
           <t>conf/sigsoft/2013</t>
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+    <row r="171">
+      <c r="A171" t="inlineStr">
         <is>
           <t>Raquel Blanco and Javier Tuya</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>@inproceedings{blanco:2015,
 booktitle = {Symposium on the Foundations of Software Engineering (FSE)}, 
@@ -6373,42 +7453,42 @@
 }</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>conf/sigsoft/BlancoT15</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="D171" t="inlineStr">
         <is>
           <t>A test model for graph database applications: an MDA-based approach</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>db/conf/sigsoft/atest2015.html#BlancoT15</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>conf/sigsoft/</t>
         </is>
       </c>
-      <c r="G147" t="n">
+      <c r="G171" t="n">
         <v>2015</v>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="H171" t="inlineStr">
         <is>
           <t>conf/sigsoft/2015atest</t>
         </is>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+    <row r="172">
+      <c r="A172" t="inlineStr">
         <is>
           <t>Mark Grechanik and B. M. Mainul Hossain and Ugo Buy and Haisheng Wang</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>@inproceedings{grechanik:2013,
 booktitle = {Symposium on the Foundations of Software Engineering (FSE)}, 
@@ -6418,42 +7498,42 @@
 }</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>conf/sigsoft/GrechanikHBW13</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="D172" t="inlineStr">
         <is>
           <t>Preventing database deadlocks in applications</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>db/conf/sigsoft/fse2013.html#GrechanikHBW13</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>conf/sigsoft/</t>
         </is>
       </c>
-      <c r="G148" t="n">
+      <c r="G172" t="n">
         <v>2013</v>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="H172" t="inlineStr">
         <is>
           <t>conf/sigsoft/2013</t>
         </is>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+    <row r="173">
+      <c r="A173" t="inlineStr">
         <is>
           <t>Gregory M. Kapfhammer and Mary Lou Soffa</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>@inproceedings{m.:2003,
 booktitle = {Symposium on the Foundations of Software Engineering (FSE)}, 
@@ -6463,42 +7543,42 @@
 }</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>conf/sigsoft/KapfhammerS03</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>A family of test adequacy criteria for database-driven applications</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>db/conf/sigsoft/fse2003.html#KapfhammerS03</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>conf/sigsoft/</t>
         </is>
       </c>
-      <c r="G149" t="n">
+      <c r="G173" t="n">
         <v>2003</v>
       </c>
-      <c r="H149" t="inlineStr">
+      <c r="H173" t="inlineStr">
         <is>
           <t>conf/sigsoft/2003</t>
         </is>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+    <row r="174">
+      <c r="A174" t="inlineStr">
         <is>
           <t>Junwen Yang and Cong Yan and Pranav Subramaniam and Shan Lu and Alvin Cheung</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>@inproceedings{yang:2018,
 booktitle = {Symposium on the Foundations of Software Engineering (FSE)}, 
@@ -6508,42 +7588,42 @@
 }</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>conf/sigsoft/YangYSLC18</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>PowerStation: automatically detecting and fixing inefficiencies of database-backed web applications in IDE</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>db/conf/sigsoft/fse2018.html#YangYSLC18</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>conf/sigsoft/</t>
         </is>
       </c>
-      <c r="G150" t="n">
+      <c r="G174" t="n">
         <v>2018</v>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="H174" t="inlineStr">
         <is>
           <t>conf/sigsoft/2018</t>
         </is>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+    <row r="175">
+      <c r="A175" t="inlineStr">
         <is>
           <t>Tse-Hsun Chen and Weiyi Shang and Ahmed E. Hassan and Mohamed N. Nasser and Parminder Flora</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>@inproceedings{chen:2016,
 booktitle = {Symposium on the Foundations of Software Engineering (FSE)}, 
@@ -6553,42 +7633,42 @@
 }</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>conf/sigsoft/ChenSHNF16</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="D175" t="inlineStr">
         <is>
           <t>CacheOptimizer: helping developers configure caching frameworks for hibernate-based database-centric web applications</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>db/conf/sigsoft/fse2016.html#ChenSHNF16</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>conf/sigsoft/</t>
         </is>
       </c>
-      <c r="G151" t="n">
+      <c r="G175" t="n">
         <v>2016</v>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="H175" t="inlineStr">
         <is>
           <t>conf/sigsoft/2016</t>
         </is>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
+    <row r="176">
+      <c r="A176" t="inlineStr">
         <is>
           <t>María José Suárez Cabal and Javier Tuya</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>@inproceedings{josé:2004,
 booktitle = {Symposium on the Foundations of Software Engineering (FSE)}, 
@@ -6598,42 +7678,42 @@
 }</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>conf/sigsoft/CabalT04</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="D176" t="inlineStr">
         <is>
           <t>Using an SQL coverage measurement for testing database applications</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>db/conf/sigsoft/fse2004.html#CabalT04</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>conf/sigsoft/</t>
         </is>
       </c>
-      <c r="G152" t="n">
+      <c r="G176" t="n">
         <v>2004</v>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="H176" t="inlineStr">
         <is>
           <t>conf/sigsoft/2004</t>
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+    <row r="177">
+      <c r="A177" t="inlineStr">
         <is>
           <t>Dong Qiu and Bixin Li and Zhendong Su</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>@inproceedings{qiu:2013,
 booktitle = {Symposium on the Foundations of Software Engineering (FSE)}, 
@@ -6643,42 +7723,42 @@
 }</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>conf/sigsoft/QiuLS13</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="D177" t="inlineStr">
         <is>
           <t>An empirical analysis of the co-evolution of schema and code in database applications</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>db/conf/sigsoft/fse2013.html#QiuLS13</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>conf/sigsoft/</t>
         </is>
       </c>
-      <c r="G153" t="n">
+      <c r="G177" t="n">
         <v>2013</v>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="H177" t="inlineStr">
         <is>
           <t>conf/sigsoft/2013</t>
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+    <row r="178">
+      <c r="A178" t="inlineStr">
         <is>
           <t>Julien Delplanque</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>@inproceedings{delplanque:2018,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -6688,42 +7768,42 @@
 }</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>conf/kbse/Delplanque18</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D178" t="inlineStr">
         <is>
           <t>Software engineering techniques applied to relational databases</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2018.html#Delplanque18</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G154" t="n">
+      <c r="G178" t="n">
         <v>2018</v>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="H178" t="inlineStr">
         <is>
           <t>conf/kbse/2018</t>
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+    <row r="179">
+      <c r="A179" t="inlineStr">
         <is>
           <t>Yossi Cohen and Yishai A. Feldman</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>@inproceedings{cohen:1997,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -6733,42 +7813,42 @@
 }</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>conf/kbse/CohenF97</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D179" t="inlineStr">
         <is>
           <t>Automatic High-Quality Reengineering of Database Programs by Temporal Abstraction</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase1997.html#CohenF97</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G155" t="n">
+      <c r="G179" t="n">
         <v>1997</v>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="H179" t="inlineStr">
         <is>
           <t>conf/kbse/1997</t>
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+    <row r="180">
+      <c r="A180" t="inlineStr">
         <is>
           <t>Shadi Abdul Khalek and Sarfraz Khurshid</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>@inproceedings{abdul:2010,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -6778,42 +7858,42 @@
 }</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>conf/kbse/KhalekK10</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="D180" t="inlineStr">
         <is>
           <t>Automated SQL query generation for systematic testing of database engines</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2010.html#KhalekK10</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G156" t="n">
+      <c r="G180" t="n">
         <v>2010</v>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="H180" t="inlineStr">
         <is>
           <t>conf/kbse/2010</t>
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+    <row r="181">
+      <c r="A181" t="inlineStr">
         <is>
           <t>Yuetang Deng and Phyllis G. Frankl and Zhongqiang Chen</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>@inproceedings{deng:2003,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -6823,42 +7903,42 @@
 }</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>conf/kbse/DengFC03</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="D181" t="inlineStr">
         <is>
           <t>Testing Database Transaction Concurrency</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2003.html#DengFC03</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G157" t="n">
+      <c r="G181" t="n">
         <v>2003</v>
       </c>
-      <c r="H157" t="inlineStr">
+      <c r="H181" t="inlineStr">
         <is>
           <t>conf/kbse/2003</t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+    <row r="182">
+      <c r="A182" t="inlineStr">
         <is>
           <t>Kai Pan and Xintao Wu and Tao Xie</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>@inproceedings{pan:2011,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -6868,42 +7948,42 @@
 }</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>conf/kbse/PanWX11</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="D182" t="inlineStr">
         <is>
           <t>Generating program inputs for database application testing</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2011.html#PanWX11</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G158" t="n">
+      <c r="G182" t="n">
         <v>2011</v>
       </c>
-      <c r="H158" t="inlineStr">
+      <c r="H182" t="inlineStr">
         <is>
           <t>conf/kbse/2011</t>
         </is>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
+    <row r="183">
+      <c r="A183" t="inlineStr">
         <is>
           <t>Kunal Taneja and Yi Zhang and Tao Xie 0001</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>@inproceedings{taneja:2010,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -6913,42 +7993,42 @@
 }</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>conf/kbse/TanejaZX10</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="D183" t="inlineStr">
         <is>
           <t>MODA: automated test generation for database applications via mock objects</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2010.html#TanejaZX10</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G159" t="n">
+      <c r="G183" t="n">
         <v>2010</v>
       </c>
-      <c r="H159" t="inlineStr">
+      <c r="H183" t="inlineStr">
         <is>
           <t>conf/kbse/2010</t>
         </is>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
+    <row r="184">
+      <c r="A184" t="inlineStr">
         <is>
           <t>Muhammad Suleman Mahmood and Maryam Abdul Ghafoor and Junaid Haroon Siddiqui</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>@inproceedings{suleman:2016,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -6958,42 +8038,42 @@
 }</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>conf/kbse/MahmoodGS16</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="D184" t="inlineStr">
         <is>
           <t>Symbolic execution of stored procedures in database management systems</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2016.html#MahmoodGS16</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G160" t="n">
+      <c r="G184" t="n">
         <v>2016</v>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="H184" t="inlineStr">
         <is>
           <t>conf/kbse/2016</t>
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+    <row r="185">
+      <c r="A185" t="inlineStr">
         <is>
           <t>Hamid Ould-Brahim and Stan Matwin</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>@inproceedings{ould-brahim:1992,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -7003,42 +8083,42 @@
 }</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>conf/kbse/Ould-BrahimM92</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>Reusing database queries in analogical domains</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>db/conf/kbse/kbse1992.html#Ould-BrahimM92</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G161" t="n">
+      <c r="G185" t="n">
         <v>1992</v>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="H185" t="inlineStr">
         <is>
           <t>conf/kbse/1992</t>
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+    <row r="186">
+      <c r="A186" t="inlineStr">
         <is>
           <t>Mario Linares Vásquez and Boyang Li and Christopher Vendome and Denys Poshyvanyk</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>@inproceedings{linares:2015,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -7048,42 +8128,42 @@
 }</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>conf/kbse/VasquezLVP15</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="D186" t="inlineStr">
         <is>
           <t>How do Developers Document Database Usages in Source Code? (N)</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2015.html#VasquezLVP15</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G162" t="n">
+      <c r="G186" t="n">
         <v>2015</v>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="H186" t="inlineStr">
         <is>
           <t>conf/kbse/2015</t>
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
+    <row r="187">
+      <c r="A187" t="inlineStr">
         <is>
           <t>Shahrul Azman Noah and Michael D. Williams</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>@inproceedings{azman:2000,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -7093,42 +8173,42 @@
 }</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>conf/kbse/NoahW00</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>Exploring and Validating the Contributions of Real-World Knowledge to the Diagnostic Performance of Automated Database Design Tools</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2000.html#NoahW00</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G163" t="n">
+      <c r="G187" t="n">
         <v>2000</v>
       </c>
-      <c r="H163" t="inlineStr">
+      <c r="H187" t="inlineStr">
         <is>
           <t>conf/kbse/2000</t>
         </is>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
+    <row r="188">
+      <c r="A188" t="inlineStr">
         <is>
           <t>William G. J. Halfond and Alessandro Orso</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>@inproceedings{g.:2006,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -7138,42 +8218,42 @@
 }</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>conf/kbse/HalfondO06</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="D188" t="inlineStr">
         <is>
           <t>Command-Form Coverage for Testing Database Applications</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2006.html#HalfondO06</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G164" t="n">
+      <c r="G188" t="n">
         <v>2006</v>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="H188" t="inlineStr">
         <is>
           <t>conf/kbse/2006</t>
         </is>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+    <row r="189">
+      <c r="A189" t="inlineStr">
         <is>
           <t>Sarah R. Clark and Jake Cobb and Gregory M. Kapfhammer and James A. Jones and Mary Jean Harrold</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>@inproceedings{r.:2011,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -7183,42 +8263,42 @@
 }</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>conf/kbse/ClarkCKJH11</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="D189" t="inlineStr">
         <is>
           <t>Localizing SQL faults in database applications</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2011.html#ClarkCKJH11</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G165" t="n">
+      <c r="G189" t="n">
         <v>2011</v>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="H189" t="inlineStr">
         <is>
           <t>conf/kbse/2011</t>
         </is>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
+    <row r="190">
+      <c r="A190" t="inlineStr">
         <is>
           <t>Yuetang Deng and Phyllis G. Frankl and David Chays</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>@inproceedings{deng:2005,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -7228,42 +8308,42 @@
 }</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>conf/icse/DengFC05</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="D190" t="inlineStr">
         <is>
           <t>Testing database transactions with AGENDA</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2005.html#DengFC05</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G166" t="n">
+      <c r="G190" t="n">
         <v>2005</v>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="H190" t="inlineStr">
         <is>
           <t>conf/icse/2005</t>
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
+    <row r="191">
+      <c r="A191" t="inlineStr">
         <is>
           <t>Mathieu Humblet and Dang Vinh Tran and Jens H. Weber and Anthony Cleve</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>@inproceedings{humblet:2016,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -7273,42 +8353,42 @@
 }</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>conf/icse/HumbletTWC16</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="D191" t="inlineStr">
         <is>
           <t>Variability management in database applications</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>db/conf/icse/vace2016.html#HumbletTWC16</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G167" t="n">
+      <c r="G191" t="n">
         <v>2016</v>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="H191" t="inlineStr">
         <is>
           <t>conf/icse/2016vace</t>
         </is>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
+    <row r="192">
+      <c r="A192" t="inlineStr">
         <is>
           <t>Klaus R. Dittrich and Dimitris Tombros and Andreas Geppert</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B192" t="inlineStr">
         <is>
           <t>@inproceedings{r.:2000,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -7318,42 +8398,42 @@
 }</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t>conf/icse/DittrichTG00</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="D192" t="inlineStr">
         <is>
           <t>Databases in software engineering: a roadmap</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>db/conf/icse/future2000.html#DittrichTG00</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G168" t="n">
+      <c r="G192" t="n">
         <v>2000</v>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="H192" t="inlineStr">
         <is>
           <t>conf/icse/2000future</t>
         </is>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+    <row r="193">
+      <c r="A193" t="inlineStr">
         <is>
           <t>Andy Maule and Wolfgang Emmerich and David S. Rosenblum</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>@inproceedings{maule:2008,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -7363,42 +8443,42 @@
 }</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>conf/icse/MauleER08</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="D193" t="inlineStr">
         <is>
           <t>Impact analysis of database schema changes</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2008.html#MauleER08</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G169" t="n">
+      <c r="G193" t="n">
         <v>2008</v>
       </c>
-      <c r="H169" t="inlineStr">
+      <c r="H193" t="inlineStr">
         <is>
           <t>conf/icse/2008</t>
         </is>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
+    <row r="194">
+      <c r="A194" t="inlineStr">
         <is>
           <t>Roger King</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>@inproceedings{king:1994,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -7408,42 +8488,42 @@
 }</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>conf/icse/King94</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>Workshop on the Intersection Between Databases and Software Engineering</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>db/conf/icse/icse94.html#King94</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G170" t="n">
+      <c r="G194" t="n">
         <v>1994</v>
       </c>
-      <c r="H170" t="inlineStr">
+      <c r="H194" t="inlineStr">
         <is>
           <t>conf/icse/1994</t>
         </is>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
+    <row r="195">
+      <c r="A195" t="inlineStr">
         <is>
           <t>John Slankas</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>@inproceedings{slankas:2013,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -7453,42 +8533,42 @@
 }</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>conf/icse/Slankas04</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="D195" t="inlineStr">
         <is>
           <t>Implementing database access control policy from unconstrained natural language text</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2013.html#Slankas04</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G171" t="n">
+      <c r="G195" t="n">
         <v>2013</v>
       </c>
-      <c r="H171" t="inlineStr">
+      <c r="H195" t="inlineStr">
         <is>
           <t>conf/icse/2013</t>
         </is>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
+    <row r="196">
+      <c r="A196" t="inlineStr">
         <is>
           <t>Wito Delnat and Eddy Truyen and Ansar Rafique and Dimitri Van Landuyt and Wouter Joosen</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t>@inproceedings{delnat:2018,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -7498,42 +8578,42 @@
 }</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>conf/icse/DelnatTRLJ18</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="D196" t="inlineStr">
         <is>
           <t>K8-scalar: a workbench to compare autoscalers for container-orchestrated database clusters</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>db/conf/icse/seams2018.html#DelnatTRLJ18</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="F196" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G172" t="n">
+      <c r="G196" t="n">
         <v>2018</v>
       </c>
-      <c r="H172" t="inlineStr">
+      <c r="H196" t="inlineStr">
         <is>
           <t>conf/icse/2018seams</t>
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
+    <row r="197">
+      <c r="A197" t="inlineStr">
         <is>
           <t>Philip A. Bernstein</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>@inproceedings{a.:1987,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -7543,42 +8623,42 @@
 }</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>conf/icse/Bernstein87</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="D197" t="inlineStr">
         <is>
           <t>Database System Support for Software Engineering</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>db/conf/icse/icse87.html#Bernstein87</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G173" t="n">
+      <c r="G197" t="n">
         <v>1987</v>
       </c>
-      <c r="H173" t="inlineStr">
+      <c r="H197" t="inlineStr">
         <is>
           <t>conf/icse/1987</t>
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+    <row r="198">
+      <c r="A198" t="inlineStr">
         <is>
           <t>Tse-Hsun Chen and Weiyi Shang and Ahmed E. Hassan and Mohamed N. Nasser and Parminder Flora</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>@inproceedings{chen:2016,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -7588,42 +8668,42 @@
 }</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>conf/icse/ChenSHNF16</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="D198" t="inlineStr">
         <is>
           <t>Detecting problems in the database access code of large scale systems: an industrial experience report</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2016c.html#ChenSHNF16</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G174" t="n">
+      <c r="G198" t="n">
         <v>2016</v>
       </c>
-      <c r="H174" t="inlineStr">
+      <c r="H198" t="inlineStr">
         <is>
           <t>conf/icse/2016c</t>
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+    <row r="199">
+      <c r="A199" t="inlineStr">
         <is>
           <t>Rudolf Bayer</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>@inproceedings{bayer:1979,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -7633,42 +8713,42 @@
 }</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>conf/icse/Bayer79</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="D199" t="inlineStr">
         <is>
           <t>On Synchronization and Recovery in Database Systems</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>db/conf/icse/icse79.html#Bayer79</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G175" t="n">
+      <c r="G199" t="n">
         <v>1979</v>
       </c>
-      <c r="H175" t="inlineStr">
+      <c r="H199" t="inlineStr">
         <is>
           <t>conf/icse/1979</t>
         </is>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+    <row r="200">
+      <c r="A200" t="inlineStr">
         <is>
           <t>David Willmor and Suzanne M. Embury</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>@inproceedings{willmor:2006,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -7678,42 +8758,42 @@
 }</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>conf/icse/WillmorE06</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="D200" t="inlineStr">
         <is>
           <t>An intensional approach to the specification of test cases for database applications</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2006.html#WillmorE06</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G176" t="n">
+      <c r="G200" t="n">
         <v>2006</v>
       </c>
-      <c r="H176" t="inlineStr">
+      <c r="H200" t="inlineStr">
         <is>
           <t>conf/icse/2006</t>
         </is>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
+    <row r="201">
+      <c r="A201" t="inlineStr">
         <is>
           <t>Karen E. Huff</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>@inproceedings{e.:1981,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -7723,42 +8803,42 @@
 }</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>conf/icse/Huff81</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="D201" t="inlineStr">
         <is>
           <t>A Database Model for Effective Configuration Management in the Programming Environment</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>db/conf/icse/icse81.html#Huff81</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G177" t="n">
+      <c r="G201" t="n">
         <v>1981</v>
       </c>
-      <c r="H177" t="inlineStr">
+      <c r="H201" t="inlineStr">
         <is>
           <t>conf/icse/1981</t>
         </is>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
+    <row r="202">
+      <c r="A202" t="inlineStr">
         <is>
           <t>Kai Pan and Xintao Wu and Tao Xie</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>@inproceedings{pan:2013,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -7768,42 +8848,42 @@
 }</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>conf/icse/PanWX13</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="D202" t="inlineStr">
         <is>
           <t>Automatic test generation for mutation testing on database applications</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>db/conf/icse/ast2013.html#PanWX13</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G178" t="n">
+      <c r="G202" t="n">
         <v>2013</v>
       </c>
-      <c r="H178" t="inlineStr">
+      <c r="H202" t="inlineStr">
         <is>
           <t>conf/icse/2013ast</t>
         </is>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
+    <row r="203">
+      <c r="A203" t="inlineStr">
         <is>
           <t>Mashel Al-Barak and Rami Bahsoon</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>@inproceedings{al-barak:2018,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -7813,42 +8893,42 @@
 }</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>conf/icse/Al-BarakB18</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="D203" t="inlineStr">
         <is>
           <t>Prioritizing technical debt in database normalization using portfolio theory and data quality metrics</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>db/conf/icse/techdebt2018.html#Al-BarakB18</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G179" t="n">
+      <c r="G203" t="n">
         <v>2018</v>
       </c>
-      <c r="H179" t="inlineStr">
+      <c r="H203" t="inlineStr">
         <is>
           <t>conf/icse/2018techdebt</t>
         </is>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
+    <row r="204">
+      <c r="A204" t="inlineStr">
         <is>
           <t>David Chays and Yuetang Deng</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>@inproceedings{chays:2003,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -7858,42 +8938,42 @@
 }</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>conf/icse/ChaysD03</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="D204" t="inlineStr">
         <is>
           <t>Demonstration of AGENDA Tool Set for Testing Relational Database Applications</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2003.html#ChaysD03</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G180" t="n">
+      <c r="G204" t="n">
         <v>2003</v>
       </c>
-      <c r="H180" t="inlineStr">
+      <c r="H204" t="inlineStr">
         <is>
           <t>conf/icse/2003</t>
         </is>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
+    <row r="205">
+      <c r="A205" t="inlineStr">
         <is>
           <t>Richard W. Selby</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>@inproceedings{w.:1997,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -7903,42 +8983,42 @@
 }</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>conf/icse/Selby97</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="D205" t="inlineStr">
         <is>
           <t>Platforms for Software Execution: Databases vs. Operating Systems vs. Browsers (Panel)</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>db/conf/icse/icse97.html#Selby97</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G181" t="n">
+      <c r="G205" t="n">
         <v>1997</v>
       </c>
-      <c r="H181" t="inlineStr">
+      <c r="H205" t="inlineStr">
         <is>
           <t>conf/icse/1997</t>
         </is>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
+    <row r="206">
+      <c r="A206" t="inlineStr">
         <is>
           <t>Isao Miyamoto</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>@inproceedings{miyamoto:1976,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -7948,42 +9028,42 @@
 }</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>conf/icse/Miyamoto76</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="D206" t="inlineStr">
         <is>
           <t>Some Considerations in Database Application Programming</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>db/conf/icse/icse76.html#Miyamoto76</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G182" t="n">
+      <c r="G206" t="n">
         <v>1976</v>
       </c>
-      <c r="H182" t="inlineStr">
+      <c r="H206" t="inlineStr">
         <is>
           <t>conf/icse/1976</t>
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
+    <row r="207">
+      <c r="A207" t="inlineStr">
         <is>
           <t>Andreza M. F. V. de Castro and Gisele Macedo and Eliane Collins and Arilo Claudio Dias-Neto</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>@inproceedings{m.:2013,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -7993,42 +9073,42 @@
 }</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>conf/icse/CastroMCD13</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="D207" t="inlineStr">
         <is>
           <t>Extension of Selenium RC tool to perform automated testing with databases in web applications</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>db/conf/icse/ast2013.html#CastroMCD13</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="F207" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G183" t="n">
+      <c r="G207" t="n">
         <v>2013</v>
       </c>
-      <c r="H183" t="inlineStr">
+      <c r="H207" t="inlineStr">
         <is>
           <t>conf/icse/2013ast</t>
         </is>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
+    <row r="208">
+      <c r="A208" t="inlineStr">
         <is>
           <t>Cathrin Weiss and Cindy Rubio-González and Ben Liblit</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>@inproceedings{weiss:2015,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8038,42 +9118,42 @@
 }</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>conf/icse/WeissRL15</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="D208" t="inlineStr">
         <is>
           <t>Database-Backed Program Analysis for Scalable Error Propagation</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2015-1.html#WeissRL15</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F208" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G184" t="n">
+      <c r="G208" t="n">
         <v>2015</v>
       </c>
-      <c r="H184" t="inlineStr">
+      <c r="H208" t="inlineStr">
         <is>
           <t>conf/icse/2015-1</t>
         </is>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
+    <row r="209">
+      <c r="A209" t="inlineStr">
         <is>
           <t>Dimitrios S. Kolovos and Fady Medhat and Richard F. Paige and Davide Di Ruscio and Tijs van der Storm and Sebastian Scholze and Athanasios Zolotas</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>@inproceedings{s.:2019,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8083,42 +9163,42 @@
 }</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>conf/icse/KolovosMPRSSZ19</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="D209" t="inlineStr">
         <is>
           <t>Domain-specific languages for the design, deployment and manipulation of heterogeneous databases</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>db/conf/icse/mise2019.html#KolovosMPRSSZ19</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="F209" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G185" t="n">
+      <c r="G209" t="n">
         <v>2019</v>
       </c>
-      <c r="H185" t="inlineStr">
+      <c r="H209" t="inlineStr">
         <is>
           <t>conf/icse/2019mise</t>
         </is>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
+    <row r="210">
+      <c r="A210" t="inlineStr">
         <is>
           <t>Maria Heloisa (Lolo) Penedo and E. Don Stuckle</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>@inproceedings{heloisa:1985,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8128,42 +9208,42 @@
 }</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>conf/icse/PenedoS85</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="D210" t="inlineStr">
         <is>
           <t>PMDB - A Project Master Database for Software Engineering Environments</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>db/conf/icse/icse85.html#PenedoS85</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G186" t="n">
+      <c r="G210" t="n">
         <v>1985</v>
       </c>
-      <c r="H186" t="inlineStr">
+      <c r="H210" t="inlineStr">
         <is>
           <t>conf/icse/1985</t>
         </is>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
+    <row r="211">
+      <c r="A211" t="inlineStr">
         <is>
           <t>K. Chong and P. Hsia</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>@inproceedings{chong:1984,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8173,42 +9253,42 @@
 }</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>conf/icse/ChongH84</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="D211" t="inlineStr">
         <is>
           <t>Diagnostic System for Distributed Software: A Relational Database Approach</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>db/conf/icse/icse84.html#ChongH84</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="F211" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G187" t="n">
+      <c r="G211" t="n">
         <v>1984</v>
       </c>
-      <c r="H187" t="inlineStr">
+      <c r="H211" t="inlineStr">
         <is>
           <t>conf/icse/1984</t>
         </is>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
+    <row r="212">
+      <c r="A212" t="inlineStr">
         <is>
           <t>David W. Stemple and Tim Sheard</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>@inproceedings{w.:1985,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8218,42 +9298,42 @@
 }</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>conf/icse/StempleS85</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="D212" t="inlineStr">
         <is>
           <t>Database Theory for Supporting Specification-Based Database Systems Development</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>db/conf/icse/icse85.html#StempleS85</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G188" t="n">
+      <c r="G212" t="n">
         <v>1985</v>
       </c>
-      <c r="H188" t="inlineStr">
+      <c r="H212" t="inlineStr">
         <is>
           <t>conf/icse/1985</t>
         </is>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
+    <row r="213">
+      <c r="A213" t="inlineStr">
         <is>
           <t>Marco Scavuzzo and Damian Andrew Tamburri and Elisabetta Di Nitto</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>@inproceedings{scavuzzo:2016,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8263,42 +9343,42 @@
 }</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>conf/icse/ScavuzzoTN16</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="D213" t="inlineStr">
         <is>
           <t>Providing big data applications with fault-tolerant data migration across heterogeneous NoSQL databases</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>db/conf/icse/bigdse2016.html#ScavuzzoTN16</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="F213" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G189" t="n">
+      <c r="G213" t="n">
         <v>2016</v>
       </c>
-      <c r="H189" t="inlineStr">
+      <c r="H213" t="inlineStr">
         <is>
           <t>conf/icse/2016bigdse</t>
         </is>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
+    <row r="214">
+      <c r="A214" t="inlineStr">
         <is>
           <t>Jaumir V. da Silveira Jr. and Karin Koogan Breitman</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>@inproceedings{v.:2011,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8308,42 +9388,42 @@
 }</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>conf/icse/SilveiraB11</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="D214" t="inlineStr">
         <is>
           <t>A cloud-aware API for semi-structured BLOB databases addressing data overflow</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="E214" t="inlineStr">
         <is>
           <t>db/conf/icse/topi2011.html#SilveiraB11</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="F214" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G190" t="n">
+      <c r="G214" t="n">
         <v>2011</v>
       </c>
-      <c r="H190" t="inlineStr">
+      <c r="H214" t="inlineStr">
         <is>
           <t>conf/icse/2011topi</t>
         </is>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
+    <row r="215">
+      <c r="A215" t="inlineStr">
         <is>
           <t>Barbara A. Kitchenham and Cat Kutay and D. Ross Jeffery and Colin Connaughton</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>@inproceedings{a.:2006,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8353,42 +9433,42 @@
 }</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>conf/icse/KitchenhamKJC06</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="D215" t="inlineStr">
         <is>
           <t>Lessons learnt from the analysis of large-scale corporate databases</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2006.html#KitchenhamKJC06</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="F215" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G191" t="n">
+      <c r="G215" t="n">
         <v>2006</v>
       </c>
-      <c r="H191" t="inlineStr">
+      <c r="H215" t="inlineStr">
         <is>
           <t>conf/icse/2006</t>
         </is>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
+    <row r="216">
+      <c r="A216" t="inlineStr">
         <is>
           <t>Carl Gould 0001 and Zhendong Su and Premkumar T. Devanbu</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>@inproceedings{gould:2004,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8398,42 +9478,42 @@
 }</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>conf/icse/GouldSD04</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="D216" t="inlineStr">
         <is>
           <t>Static Checking of Dynamically Generated Queries in Database Applications</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2004.html#GouldSD04</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="F216" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G192" t="n">
+      <c r="G216" t="n">
         <v>2004</v>
       </c>
-      <c r="H192" t="inlineStr">
+      <c r="H216" t="inlineStr">
         <is>
           <t>conf/icse/2004</t>
         </is>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
+    <row r="217">
+      <c r="A217" t="inlineStr">
         <is>
           <t>Lin Chiu and Ming T. Liu</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>@inproceedings{chiu:1988,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8443,42 +9523,42 @@
 }</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>conf/icse/ChiuL88</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="D217" t="inlineStr">
         <is>
           <t>High-Level Specification of Concurrency Control in Distributed Database Systems</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="E217" t="inlineStr">
         <is>
           <t>db/conf/icse/icse88.html#ChiuL88</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="F217" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G193" t="n">
+      <c r="G217" t="n">
         <v>1988</v>
       </c>
-      <c r="H193" t="inlineStr">
+      <c r="H217" t="inlineStr">
         <is>
           <t>conf/icse/1988</t>
         </is>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
+    <row r="218">
+      <c r="A218" t="inlineStr">
         <is>
           <t>Michael de Jong and Arie van Deursen and Anthony Cleve</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>@inproceedings{de:2017,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8488,42 +9568,42 @@
 }</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>conf/icse/JongDC17</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="D218" t="inlineStr">
         <is>
           <t>Zero-Downtime SQL Database Schema Evolution for Continuous Deployment</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2017seip.html#JongDC17</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G194" t="n">
+      <c r="G218" t="n">
         <v>2017</v>
       </c>
-      <c r="H194" t="inlineStr">
+      <c r="H218" t="inlineStr">
         <is>
           <t>conf/icse/2017seip</t>
         </is>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
+    <row r="219">
+      <c r="A219" t="inlineStr">
         <is>
           <t>Yuan Tian 0008 and David Lo 0001 and Julia L. Lawall</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>@inproceedings{tian:2014,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8533,42 +9613,42 @@
 }</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>conf/icse/TianLL14</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="D219" t="inlineStr">
         <is>
           <t>SEWordSim: software-specific word similarity database</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="E219" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2014c.html#TianLL14</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="F219" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G195" t="n">
+      <c r="G219" t="n">
         <v>2014</v>
       </c>
-      <c r="H195" t="inlineStr">
+      <c r="H219" t="inlineStr">
         <is>
           <t>conf/icse/2014c</t>
         </is>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
+    <row r="220">
+      <c r="A220" t="inlineStr">
         <is>
           <t>Oskari Koskimies and Johan Wikman and Tapani Mikola and Antero Taivalsaari</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>@inproceedings{koskimies:2015,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8578,42 +9658,42 @@
 }</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>conf/icse/KoskimiesWMT15</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="D220" t="inlineStr">
         <is>
           <t>EDB: A Multi-master Database for Liquid Multi-device Software</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>db/conf/icse/mobilesoft2015.html#KoskimiesWMT15</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="F220" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G196" t="n">
+      <c r="G220" t="n">
         <v>2015</v>
       </c>
-      <c r="H196" t="inlineStr">
+      <c r="H220" t="inlineStr">
         <is>
           <t>conf/icse/2015mobilesoft</t>
         </is>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
+    <row r="221">
+      <c r="A221" t="inlineStr">
         <is>
           <t>Claudio de la Riva and María José Suárez Cabal and Javier Tuya</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>@inproceedings{de:2010,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8623,42 +9703,42 @@
 }</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>conf/icse/RivaCT10</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="D221" t="inlineStr">
         <is>
           <t>Constraint-based test database generation for SQL queries</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>db/conf/icse/ast2010.html#RivaCT10</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="F221" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G197" t="n">
+      <c r="G221" t="n">
         <v>2010</v>
       </c>
-      <c r="H197" t="inlineStr">
+      <c r="H221" t="inlineStr">
         <is>
           <t>conf/icse/2010ast</t>
         </is>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
+    <row r="222">
+      <c r="A222" t="inlineStr">
         <is>
           <t>Nate Kube and Kevin Yoo and Daniel Hoffman</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>@inproceedings{kube:2011,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8668,42 +9748,42 @@
 }</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>conf/icse/KubeYH11</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="D222" t="inlineStr">
         <is>
           <t>Automated testing of industrial control devices: the delphi database</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>db/conf/icse/ast2011.html#KubeYH11</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F222" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G198" t="n">
+      <c r="G222" t="n">
         <v>2011</v>
       </c>
-      <c r="H198" t="inlineStr">
+      <c r="H222" t="inlineStr">
         <is>
           <t>conf/icse/2011ast</t>
         </is>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
+    <row r="223">
+      <c r="A223" t="inlineStr">
         <is>
           <t>Percy E. Salas and Edgard Marx and Alexander Mera and José Viterbo</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>@inproceedings{e.:2011,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8713,42 +9793,42 @@
 }</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>conf/icse/SalasMMV11</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="D223" t="inlineStr">
         <is>
           <t>RDB2RDF plugin: relational databases to RDF plugin for eclipse</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>db/conf/icse/topi2011.html#SalasMMV11</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="F223" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G199" t="n">
+      <c r="G223" t="n">
         <v>2011</v>
       </c>
-      <c r="H199" t="inlineStr">
+      <c r="H223" t="inlineStr">
         <is>
           <t>conf/icse/2011topi</t>
         </is>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
+    <row r="224">
+      <c r="A224" t="inlineStr">
         <is>
           <t>Tushar Sharma and Marios Fragkoulis and Stamatia Rizou and Magiel Bruntink and Diomidis Spinellis</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>@inproceedings{sharma:2018,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8758,42 +9838,42 @@
 }</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>conf/icse/SharmaFRBS18</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="D224" t="inlineStr">
         <is>
           <t>Smelly relations: measuring and understanding database schema quality</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>db/conf/icse/seip2018.html#SharmaFRBS18</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="F224" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G200" t="n">
+      <c r="G224" t="n">
         <v>2018</v>
       </c>
-      <c r="H200" t="inlineStr">
+      <c r="H224" t="inlineStr">
         <is>
           <t>conf/icse/2018seip</t>
         </is>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
+    <row r="225">
+      <c r="A225" t="inlineStr">
         <is>
           <t>Junwen Yang and Cong Yan and Chengcheng Wan and Shan Lu and Alvin Cheung</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>@inproceedings{yang:2019,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8803,42 +9883,42 @@
 }</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>conf/icse/YangYWLC19</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="D225" t="inlineStr">
         <is>
           <t>View-centric performance optimization for database-backed web applications</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2019.html#YangYWLC19</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G201" t="n">
+      <c r="G225" t="n">
         <v>2019</v>
       </c>
-      <c r="H201" t="inlineStr">
+      <c r="H225" t="inlineStr">
         <is>
           <t>conf/icse/2019</t>
         </is>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
+    <row r="226">
+      <c r="A226" t="inlineStr">
         <is>
           <t>Csaba Nagy and Anthony Cleve</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>@inproceedings{nagy:2018,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8848,42 +9928,42 @@
 }</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>conf/icse/NagyC18</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="D226" t="inlineStr">
         <is>
           <t>SQLInspect: a static analyzer to inspect database usage in Java applications</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="E226" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2018c.html#NagyC18</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="F226" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G202" t="n">
+      <c r="G226" t="n">
         <v>2018</v>
       </c>
-      <c r="H202" t="inlineStr">
+      <c r="H226" t="inlineStr">
         <is>
           <t>conf/icse/2018c</t>
         </is>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
+    <row r="227">
+      <c r="A227" t="inlineStr">
         <is>
           <t>Michael de Jong and Arie van Deursen</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>@inproceedings{de:2015,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8893,42 +9973,42 @@
 }</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>conf/icse/JongD15</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="D227" t="inlineStr">
         <is>
           <t>Continuous Deployment and Schema Evolution in SQL Databases</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="E227" t="inlineStr">
         <is>
           <t>db/conf/icse/releng2015.html#JongD15</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="F227" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G203" t="n">
+      <c r="G227" t="n">
         <v>2015</v>
       </c>
-      <c r="H203" t="inlineStr">
+      <c r="H227" t="inlineStr">
         <is>
           <t>conf/icse/2015releng</t>
         </is>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
+    <row r="228">
+      <c r="A228" t="inlineStr">
         <is>
           <t>Ramkrishna Chatterjee and Gopalan Arun and Sanjay Agarwal and Ben Speckhard and Ramesh Vasudevan</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>@inproceedings{chatterjee:2004,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8938,42 +10018,42 @@
 }</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>conf/icse/ChatterjeeAASV04</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="D228" t="inlineStr">
         <is>
           <t>Using Data Versioning in Database Application Development</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E228" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2004.html#ChatterjeeAASV04</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="F228" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G204" t="n">
+      <c r="G228" t="n">
         <v>2004</v>
       </c>
-      <c r="H204" t="inlineStr">
+      <c r="H228" t="inlineStr">
         <is>
           <t>conf/icse/2004</t>
         </is>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
+    <row r="229">
+      <c r="A229" t="inlineStr">
         <is>
           <t>Phil McMinn and Gregory M. Kapfhammer and Chris J. Wright</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>@inproceedings{mcminn:2016,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8983,42 +10063,42 @@
 }</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>conf/icse/McMinnKW16</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="D229" t="inlineStr">
         <is>
           <t>Virtual mutation analysis of relational database schemas</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
+      <c r="E229" t="inlineStr">
         <is>
           <t>db/conf/icse/ast2016.html#McMinnKW16</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="F229" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G205" t="n">
+      <c r="G229" t="n">
         <v>2016</v>
       </c>
-      <c r="H205" t="inlineStr">
+      <c r="H229" t="inlineStr">
         <is>
           <t>conf/icse/2016ast</t>
         </is>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
+    <row r="230">
+      <c r="A230" t="inlineStr">
         <is>
           <t>Junwen Yang and Pranav Subramaniam and Shan Lu and Cong Yan and Alvin Cheung</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>@inproceedings{yang:2018,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9028,42 +10108,42 @@
 }</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>conf/icse/YangSLYC18</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="D230" t="inlineStr">
         <is>
           <t>How not to structure your database-backed web applications: a study of performance bugs in the wild</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2018.html#YangSLYC18</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="F230" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G206" t="n">
+      <c r="G230" t="n">
         <v>2018</v>
       </c>
-      <c r="H206" t="inlineStr">
+      <c r="H230" t="inlineStr">
         <is>
           <t>conf/icse/2018</t>
         </is>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
+    <row r="231">
+      <c r="A231" t="inlineStr">
         <is>
           <t>Jesús M. González-Barahona and Gregorio Robles and Daniel Izquierdo-Cortazar</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>@inproceedings{m.:2015,
 booktitle = {International Conference on Mining Software Repositories (MSR)}, 
@@ -9073,42 +10153,42 @@
 }</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>conf/msr/Gonzalez-Barahona15</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="D231" t="inlineStr">
         <is>
           <t>The MetricsGrimoire Database Collection</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>db/conf/msr/msr2015.html#Gonzalez-Barahona15</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="F231" t="inlineStr">
         <is>
           <t>conf/msr/</t>
         </is>
       </c>
-      <c r="G207" t="n">
+      <c r="G231" t="n">
         <v>2015</v>
       </c>
-      <c r="H207" t="inlineStr">
+      <c r="H231" t="inlineStr">
         <is>
           <t>conf/msr/2015</t>
         </is>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
+    <row r="232">
+      <c r="A232" t="inlineStr">
         <is>
           <t>Omar Alonso and Premkumar T. Devanbu and Michael Gertz</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>@inproceedings{alonso:2004,
 booktitle = {International Conference on Mining Software Repositories (MSR)}, 
@@ -9118,42 +10198,42 @@
 }</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>conf/msr/AlonsoDG04</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="D232" t="inlineStr">
         <is>
           <t>Database Techniques for the Analysis and Exploration of Software Repositories</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>db/conf/msr/msr2004.html#AlonsoDG04</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="F232" t="inlineStr">
         <is>
           <t>conf/msr/</t>
         </is>
       </c>
-      <c r="G208" t="n">
+      <c r="G232" t="n">
         <v>2004</v>
       </c>
-      <c r="H208" t="inlineStr">
+      <c r="H232" t="inlineStr">
         <is>
           <t>conf/msr/2004</t>
         </is>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
+    <row r="233">
+      <c r="A233" t="inlineStr">
         <is>
           <t>Alexander Breckel</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>@inproceedings{breckel:2012,
 booktitle = {International Conference on Mining Software Repositories (MSR)}, 
@@ -9163,42 +10243,42 @@
 }</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>conf/msr/Breckel12</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
+      <c r="D233" t="inlineStr">
         <is>
           <t>Error mining: Bug detection through comparison with large code databases</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>db/conf/msr/msr2012.html#Breckel12</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>conf/msr/</t>
         </is>
       </c>
-      <c r="G209" t="n">
+      <c r="G233" t="n">
         <v>2012</v>
       </c>
-      <c r="H209" t="inlineStr">
+      <c r="H233" t="inlineStr">
         <is>
           <t>conf/msr/2012</t>
         </is>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
+    <row r="234">
+      <c r="A234" t="inlineStr">
         <is>
           <t>Remco Bloemen and Chintan Amrit and Stefan Kuhlmann and Gonzalo Ordóñez-Matamoros</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>@inproceedings{bloemen:2014,
 booktitle = {International Conference on Mining Software Repositories (MSR)}, 
@@ -9208,42 +10288,42 @@
 }</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>conf/msr/BloemenAKO14</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="D234" t="inlineStr">
         <is>
           <t>Innovation diffusion in open source software: preliminary analysis of dependency changes in the gentoo portage package database</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>db/conf/msr/msr2014.html#BloemenAKO14</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>conf/msr/</t>
         </is>
       </c>
-      <c r="G210" t="n">
+      <c r="G234" t="n">
         <v>2014</v>
       </c>
-      <c r="H210" t="inlineStr">
+      <c r="H234" t="inlineStr">
         <is>
           <t>conf/msr/2014</t>
         </is>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
+    <row r="235">
+      <c r="A235" t="inlineStr">
         <is>
           <t>Lucas Nussbaum and Stefano Zacchiroli</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>@inproceedings{nussbaum:2010,
 booktitle = {International Conference on Mining Software Repositories (MSR)}, 
@@ -9253,32 +10333,977 @@
 }</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>conf/msr/NussbaumZ10</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
+      <c r="D235" t="inlineStr">
         <is>
           <t>The Ultimate Debian Database: Consolidating bazaar metadata for Quality Assurance and data mining</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>db/conf/msr/msr2010.html#NussbaumZ10</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
+      <c r="F235" t="inlineStr">
         <is>
           <t>conf/msr/</t>
         </is>
       </c>
-      <c r="G211" t="n">
+      <c r="G235" t="n">
         <v>2010</v>
       </c>
-      <c r="H211" t="inlineStr">
+      <c r="H235" t="inlineStr">
         <is>
           <t>conf/msr/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Mashel Al-Barak and Rami Bahsoon</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>@inproceedings{al-barak:2016,
+booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
+author = {Mashel Al-Barak and Rami Bahsoon}, 
+title = {{Database Design Debts through Examining Schema Evolution}}, 
+year = {2016} 
+}</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>conf/icsm/Al-BarakB16</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Database Design Debts through Examining Schema Evolution</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>db/conf/icsm/mtd2016.html#Al-BarakB16</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>conf/icsm/</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>conf/icsm/2016mtd</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Mathieu Goeminne and Tom Mens</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>@inproceedings{goeminne:2015,
+booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
+author = {Mathieu Goeminne and Tom Mens}, 
+title = {{Towards a survival analysis of database framework usage in Java projects}}, 
+year = {2015} 
+}</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>conf/icsm/GoeminneM15</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Towards a survival analysis of database framework usage in Java projects</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>db/conf/icsm/icsme2015.html#GoeminneM15</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>conf/icsm/</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>conf/icsm/2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Jens H. Jahnke and Wilhelm Schäfer and Albert Zündorf</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>@inproceedings{h.:1996,
+booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
+author = {Jens H. Jahnke and Wilhelm Schäfer and Albert Zündorf}, 
+title = {{A Design Environment for Migrating Relational to Object Oriented Database Systems}}, 
+year = {1996} 
+}</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>conf/icsm/JahnkeSZ96</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>A Design Environment for Migrating Relational to Object Oriented Database Systems</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>db/conf/icsm/icsm1996.html#JahnkeSZ96</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>conf/icsm/</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>1996</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>conf/icsm/1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Jens H. Weber and Anthony Cleve and Loup Meurice and Francisco Javier Bermudez Ruiz</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>@inproceedings{h.:2014,
+booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
+author = {Jens H. Weber and Anthony Cleve and Loup Meurice and Francisco Javier Bermudez Ruiz}, 
+title = {{Managing Technical Debt in Database Schemas of Critical Software}}, 
+year = {2014} 
+}</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>conf/icsm/WeberCMR14</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Managing Technical Debt in Database Schemas of Critical Software</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>db/conf/icsm/mtd2014.html#WeberCMR14</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>conf/icsm/</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>conf/icsm/2014mtd</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Karla Saur and Tudor Dumitras and Michael W. Hicks</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>@inproceedings{saur:2016,
+booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
+author = {Karla Saur and Tudor Dumitras and Michael W. Hicks}, 
+title = {{Evolving NoSQL Databases without Downtime}}, 
+year = {2016} 
+}</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>conf/icsm/SaurDH16</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Evolving NoSQL Databases without Downtime</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>db/conf/icsm/icsme2016.html#SaurDH16</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>conf/icsm/</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>conf/icsm/2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Julien Delplanque and Anne Etien and Nicolas Anquetil and Olivier Auverlot</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>@inproceedings{delplanque:2018,
+booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
+author = {Julien Delplanque and Anne Etien and Nicolas Anquetil and Olivier Auverlot}, 
+title = {{Relational Database Schema Evolution: An Industrial Case Study}}, 
+year = {2018} 
+}</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>conf/icsm/DelplanqueEAA18</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Relational Database Schema Evolution: An Industrial Case Study</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>db/conf/icsm/icsme2018.html#DelplanqueEAA18</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>conf/icsm/</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>conf/icsm/2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>David Willmor and Suzanne M. Embury and Jianhua Shao 0001</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>@inproceedings{willmor:2004,
+booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
+author = {David Willmor and Suzanne M. Embury and Jianhua Shao 0001}, 
+title = {{Program Slicing in the Presence of a Database State}}, 
+year = {2004} 
+}</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>conf/icsm/WillmorES04</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Program Slicing in the Presence of a Database State</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>db/conf/icsm/icsm2004.html#WillmorES04</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>conf/icsm/</t>
+        </is>
+      </c>
+      <c r="G242" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>conf/icsm/2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Audris Mockus and Lawrence G. Votta</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>@inproceedings{mockus:2000,
+booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
+author = {Audris Mockus and Lawrence G. Votta}, 
+title = {{Identifying Reasons for Software Changes using Historic Databases}}, 
+year = {2000} 
+}</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>conf/icsm/MockusV00</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Identifying Reasons for Software Changes using Historic Databases</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>db/conf/icsm/icsm2000.html#MockusV00</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>conf/icsm/</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>conf/icsm/2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Yingjun Lyu and Jiaping Gui and Mian Wan and William G. J. Halfond</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>@inproceedings{lyu:2017,
+booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
+author = {Yingjun Lyu and Jiaping Gui and Mian Wan and William G. J. Halfond}, 
+title = {{An Empirical Study of Local Database Usage in Android Applications}}, 
+year = {2017} 
+}</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>conf/icsm/LyuGWH17</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>An Empirical Study of Local Database Usage in Android Applications</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>db/conf/icsm/icsme2017.html#LyuGWH17</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>conf/icsm/</t>
+        </is>
+      </c>
+      <c r="G244" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>conf/icsm/2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Véronique Narat</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>@inproceedings{narat:1993,
+booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
+author = {Véronique Narat}, 
+title = {{Using a Relational Database for Software Maintenance: A Case Study}}, 
+year = {1993} 
+}</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>conf/icsm/Narat93</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Using a Relational Database for Software Maintenance: A Case Study</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>db/conf/icsm/icsm1993.html#Narat93</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>conf/icsm/</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>1993</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>conf/icsm/1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Stefan Strobl and Mario Bernhart and Thomas Grechenig and Wolfgang Kleinert</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>@inproceedings{strobl:2009,
+booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
+author = {Stefan Strobl and Mario Bernhart and Thomas Grechenig and Wolfgang Kleinert}, 
+title = {{Digging deep: Software reengineering supported by database reverse engineering of a system with 30+ years of legacy}}, 
+year = {2009} 
+}</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>conf/icsm/StroblBGK09</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Digging deep: Software reengineering supported by database reverse engineering of a system with 30+ years of legacy</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>db/conf/icsm/icsm2009.html#StroblBGK09</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>conf/icsm/</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>conf/icsm/2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Phil McMinn and Chris J. Wright and Cody Kinneer and Colton J. McCurdy and Michael Camara and Gregory M. Kapfhammer</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>@inproceedings{mcminn:2016,
+booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
+author = {Phil McMinn and Chris J. Wright and Cody Kinneer and Colton J. McCurdy and Michael Camara and Gregory M. Kapfhammer}, 
+title = {{SchemaAnalyst: Search-Based Test Data Generation for Relational Database Schemas}}, 
+year = {2016} 
+}</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>conf/icsm/McMinnWKMCK16</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>SchemaAnalyst: Search-Based Test Data Generation for Relational Database Schemas</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>db/conf/icsm/icsme2016.html#McMinnWKMCK16</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>conf/icsm/</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>conf/icsm/2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Laurent Deruelle and Mourad Bouneffa and Nordine Melab and Henri Basson</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>@inproceedings{deruelle:2001,
+booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
+author = {Laurent Deruelle and Mourad Bouneffa and Nordine Melab and Henri Basson}, 
+title = {{A Change Propagation Model and Platform for Multi-Database Applications}}, 
+year = {2001} 
+}</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>conf/icsm/DeruelleBMB01</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>A Change Propagation Model and Platform for Multi-Database Applications</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>db/conf/icsm/icsm2001.html#DeruelleBMB01</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>conf/icsm/</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
+        <v>2001</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>conf/icsm/2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Erik Rogstad and Lionel C. Briand and Ronny Dalberg and Marianne Rynning and Erik Arisholm</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>@inproceedings{rogstad:2011,
+booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
+author = {Erik Rogstad and Lionel C. Briand and Ronny Dalberg and Marianne Rynning and Erik Arisholm}, 
+title = {{Industrial experiences with automated regression testing of a legacy database application}}, 
+year = {2011} 
+}</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>conf/icsm/RogstadBDRA11</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Industrial experiences with automated regression testing of a legacy database application</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>db/conf/icsm/icsm2011.html#RogstadBDRA11</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>conf/icsm/</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>2011</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>conf/icsm/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Donatella Castelli</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>@inproceedings{castelli:1998,
+booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
+author = {Donatella Castelli}, 
+title = {{Reuse in Replaying Database Design}}, 
+year = {1998} 
+}</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>conf/icsm/Castelli98</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Reuse in Replaying Database Design</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>db/conf/icsm/icsm1998.html#Castelli98</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>conf/icsm/</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>1998</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>conf/icsm/1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Maxime Gobert and Jerome Maes and Anthony Cleve and Jens H. Weber</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>@inproceedings{gobert:2013,
+booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
+author = {Maxime Gobert and Jerome Maes and Anthony Cleve and Jens H. Weber}, 
+title = {{Understanding Schema Evolution as a Basis for Database Reengineering}}, 
+year = {2013} 
+}</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>conf/icsm/GobertMCW13</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Understanding Schema Evolution as a Basis for Database Reengineering</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>db/conf/icsm/icsm2013.html#GobertMCW13</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>conf/icsm/</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>conf/icsm/2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Abram Hindle and Michael W. Godfrey and Richard C. Holt</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>@inproceedings{hindle:2007,
+booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
+author = {Abram Hindle and Michael W. Godfrey and Richard C. Holt}, 
+title = {{Release Pattern Discovery: A Case Study of Database Systems}}, 
+year = {2007} 
+}</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>conf/icsm/HindleGH07</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Release Pattern Discovery: A Case Study of Database Systems</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>db/conf/icsm/icsm2007.html#HindleGH07</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>conf/icsm/</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>2007</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>conf/icsm/2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Awais Rashid</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>@inproceedings{rashid:2001,
+booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
+author = {Awais Rashid}, 
+title = {{A Database Evolution Approach for Object-Oriented Databases}}, 
+year = {2001} 
+}</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>conf/icsm/Rashid01</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>A Database Evolution Approach for Object-Oriented Databases</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>db/conf/icsm/icsm2001.html#Rashid01</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>conf/icsm/</t>
+        </is>
+      </c>
+      <c r="G253" t="n">
+        <v>2001</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>conf/icsm/2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Hung Viet Nguyen and Hoan Anh Nguyen and Tung Thanh Nguyen and Tien N. Nguyen</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>@inproceedings{viet:2013,
+booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
+author = {Hung Viet Nguyen and Hoan Anh Nguyen and Tung Thanh Nguyen and Tien N. Nguyen}, 
+title = {{Database-Aware Fault Localization for Dynamic Web Applications}}, 
+year = {2013} 
+}</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>conf/icsm/NguyenNNN13a</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Database-Aware Fault Localization for Dynamic Web Applications</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>db/conf/icsm/icsm2013.html#NguyenNNN13a</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>conf/icsm/</t>
+        </is>
+      </c>
+      <c r="G254" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>conf/icsm/2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Michael Fischer 0001 and Martin Pinzger 0001 and Harald C. Gall</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>@inproceedings{fischer:2003,
+booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
+author = {Michael Fischer 0001 and Martin Pinzger 0001 and Harald C. Gall}, 
+title = {{Populating a Release History Database from Version Control and Bug Tracking Systems}}, 
+year = {2003} 
+}</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>conf/icsm/FischerPG03</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Populating a Release History Database from Version Control and Bug Tracking Systems</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>db/conf/icsm/icsm2003.html#FischerPG03</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>conf/icsm/</t>
+        </is>
+      </c>
+      <c r="G255" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>conf/icsm/2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>David Willmor and Suzanne M. Embury</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>@inproceedings{willmor:2005,
+booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
+author = {David Willmor and Suzanne M. Embury}, 
+title = {{A Safe Regression Test Selection Technique for Database-Driven Applications}}, 
+year = {2005} 
+}</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>conf/icsm/WillmorE05</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>A Safe Regression Test Selection Technique for Database-Driven Applications</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>db/conf/icsm/icsm2005.html#WillmorE05</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>conf/icsm/</t>
+        </is>
+      </c>
+      <c r="G256" t="n">
+        <v>2005</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>conf/icsm/2005</t>
         </is>
       </c>
     </row>

--- a/resources/filtered_papers.xlsx
+++ b/resources/filtered_papers.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H256"/>
+  <dimension ref="A1:H261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7755,10 +7755,235 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
+          <t>Paul Luo Li and Randy Nakagawa and Rob Montroy</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>@inproceedings{luo:2007,
+booktitle = {International Symposium on Empirical Software Engineering and Measurement (ESEM)}, 
+author = {Paul Luo Li and Randy Nakagawa and Rob Montroy}, 
+title = {{Estimating the Quality of Widely Used Software Products Using Software Reliability Growth Modeling: Case Study of an IBM Federated Database Project}}, 
+year = {2007} 
+}</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>conf/esem/LiNM07</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Estimating the Quality of Widely Used Software Products Using Software Reliability Growth Modeling: Case Study of an IBM Federated Database Project</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>db/conf/esem/esem2007.html#LiNM07</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>conf/esem/</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>2007</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>conf/esem/2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Donald W. McCormick II and William B. Frakes and Reghu Anguswamy</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>@inproceedings{w.:2012,
+booktitle = {International Symposium on Empirical Software Engineering and Measurement (ESEM)}, 
+author = {Donald W. McCormick II and William B. Frakes and Reghu Anguswamy}, 
+title = {{A comparison of database fault detection capabilities using mutation testing}}, 
+year = {2012} 
+}</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>conf/esem/McCormickFA12</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>A comparison of database fault detection capabilities using mutation testing</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>db/conf/esem/esem2012.html#McCormickFA12</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>conf/esem/</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>conf/esem/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Rudolf Ramler and Klaus Wolfmaier</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>@inproceedings{ramler:2008,
+booktitle = {International Symposium on Empirical Software Engineering and Measurement (ESEM)}, 
+author = {Rudolf Ramler and Klaus Wolfmaier}, 
+title = {{Issues and effort in integrating data from heterogeneous software repositories and corporate databases}}, 
+year = {2008} 
+}</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>conf/esem/RamlerW08</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Issues and effort in integrating data from heterogeneous software repositories and corporate databases</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>db/conf/esem/esem2008.html#RamlerW08</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>conf/esem/</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>2008</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>conf/esem/2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Michael Wedel and Uwe Jensen and Peter Göhner</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>@inproceedings{wedel:2008,
+booktitle = {International Symposium on Empirical Software Engineering and Measurement (ESEM)}, 
+author = {Michael Wedel and Uwe Jensen and Peter Göhner}, 
+title = {{Mining software code repositories and bug databases using survival analysis models}}, 
+year = {2008} 
+}</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>conf/esem/WedelJG08</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Mining software code repositories and bug databases using survival analysis models</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>db/conf/esem/esem2008.html#WedelJG08</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>conf/esem/</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>2008</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>conf/esem/2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Samireh Jalali and Claes Wohlin</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>@inproceedings{jalali:2012,
+booktitle = {International Symposium on Empirical Software Engineering and Measurement (ESEM)}, 
+author = {Samireh Jalali and Claes Wohlin}, 
+title = {{Systematic literature studies: database searches vs. backward snowballing}}, 
+year = {2012} 
+}</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>conf/esem/JalaliW12</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Systematic literature studies: database searches vs. backward snowballing</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>db/conf/esem/esem2012.html#JalaliW12</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>conf/esem/</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>conf/esem/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
           <t>Julien Delplanque</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>@inproceedings{delplanque:2018,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -7768,42 +7993,42 @@
 }</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>conf/kbse/Delplanque18</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="D183" t="inlineStr">
         <is>
           <t>Software engineering techniques applied to relational databases</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2018.html#Delplanque18</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G178" t="n">
+      <c r="G183" t="n">
         <v>2018</v>
       </c>
-      <c r="H178" t="inlineStr">
+      <c r="H183" t="inlineStr">
         <is>
           <t>conf/kbse/2018</t>
         </is>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
+    <row r="184">
+      <c r="A184" t="inlineStr">
         <is>
           <t>Yossi Cohen and Yishai A. Feldman</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>@inproceedings{cohen:1997,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -7813,42 +8038,42 @@
 }</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>conf/kbse/CohenF97</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="D184" t="inlineStr">
         <is>
           <t>Automatic High-Quality Reengineering of Database Programs by Temporal Abstraction</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase1997.html#CohenF97</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G179" t="n">
+      <c r="G184" t="n">
         <v>1997</v>
       </c>
-      <c r="H179" t="inlineStr">
+      <c r="H184" t="inlineStr">
         <is>
           <t>conf/kbse/1997</t>
         </is>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
+    <row r="185">
+      <c r="A185" t="inlineStr">
         <is>
           <t>Shadi Abdul Khalek and Sarfraz Khurshid</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>@inproceedings{abdul:2010,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -7858,42 +8083,42 @@
 }</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>conf/kbse/KhalekK10</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>Automated SQL query generation for systematic testing of database engines</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2010.html#KhalekK10</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G180" t="n">
+      <c r="G185" t="n">
         <v>2010</v>
       </c>
-      <c r="H180" t="inlineStr">
+      <c r="H185" t="inlineStr">
         <is>
           <t>conf/kbse/2010</t>
         </is>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
+    <row r="186">
+      <c r="A186" t="inlineStr">
         <is>
           <t>Yuetang Deng and Phyllis G. Frankl and Zhongqiang Chen</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>@inproceedings{deng:2003,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -7903,42 +8128,42 @@
 }</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>conf/kbse/DengFC03</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="D186" t="inlineStr">
         <is>
           <t>Testing Database Transaction Concurrency</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2003.html#DengFC03</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G181" t="n">
+      <c r="G186" t="n">
         <v>2003</v>
       </c>
-      <c r="H181" t="inlineStr">
+      <c r="H186" t="inlineStr">
         <is>
           <t>conf/kbse/2003</t>
         </is>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
+    <row r="187">
+      <c r="A187" t="inlineStr">
         <is>
           <t>Kai Pan and Xintao Wu and Tao Xie</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>@inproceedings{pan:2011,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -7948,42 +8173,42 @@
 }</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>conf/kbse/PanWX11</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>Generating program inputs for database application testing</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2011.html#PanWX11</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G182" t="n">
+      <c r="G187" t="n">
         <v>2011</v>
       </c>
-      <c r="H182" t="inlineStr">
+      <c r="H187" t="inlineStr">
         <is>
           <t>conf/kbse/2011</t>
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
+    <row r="188">
+      <c r="A188" t="inlineStr">
         <is>
           <t>Kunal Taneja and Yi Zhang and Tao Xie 0001</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>@inproceedings{taneja:2010,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -7993,42 +8218,42 @@
 }</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>conf/kbse/TanejaZX10</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="D188" t="inlineStr">
         <is>
           <t>MODA: automated test generation for database applications via mock objects</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2010.html#TanejaZX10</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G183" t="n">
+      <c r="G188" t="n">
         <v>2010</v>
       </c>
-      <c r="H183" t="inlineStr">
+      <c r="H188" t="inlineStr">
         <is>
           <t>conf/kbse/2010</t>
         </is>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
+    <row r="189">
+      <c r="A189" t="inlineStr">
         <is>
           <t>Muhammad Suleman Mahmood and Maryam Abdul Ghafoor and Junaid Haroon Siddiqui</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>@inproceedings{suleman:2016,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -8038,42 +8263,42 @@
 }</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>conf/kbse/MahmoodGS16</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="D189" t="inlineStr">
         <is>
           <t>Symbolic execution of stored procedures in database management systems</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2016.html#MahmoodGS16</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G184" t="n">
+      <c r="G189" t="n">
         <v>2016</v>
       </c>
-      <c r="H184" t="inlineStr">
+      <c r="H189" t="inlineStr">
         <is>
           <t>conf/kbse/2016</t>
         </is>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
+    <row r="190">
+      <c r="A190" t="inlineStr">
         <is>
           <t>Hamid Ould-Brahim and Stan Matwin</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>@inproceedings{ould-brahim:1992,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -8083,42 +8308,42 @@
 }</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>conf/kbse/Ould-BrahimM92</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="D190" t="inlineStr">
         <is>
           <t>Reusing database queries in analogical domains</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>db/conf/kbse/kbse1992.html#Ould-BrahimM92</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G185" t="n">
+      <c r="G190" t="n">
         <v>1992</v>
       </c>
-      <c r="H185" t="inlineStr">
+      <c r="H190" t="inlineStr">
         <is>
           <t>conf/kbse/1992</t>
         </is>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
+    <row r="191">
+      <c r="A191" t="inlineStr">
         <is>
           <t>Mario Linares Vásquez and Boyang Li and Christopher Vendome and Denys Poshyvanyk</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>@inproceedings{linares:2015,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -8128,42 +8353,42 @@
 }</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>conf/kbse/VasquezLVP15</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="D191" t="inlineStr">
         <is>
           <t>How do Developers Document Database Usages in Source Code? (N)</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2015.html#VasquezLVP15</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G186" t="n">
+      <c r="G191" t="n">
         <v>2015</v>
       </c>
-      <c r="H186" t="inlineStr">
+      <c r="H191" t="inlineStr">
         <is>
           <t>conf/kbse/2015</t>
         </is>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
+    <row r="192">
+      <c r="A192" t="inlineStr">
         <is>
           <t>Shahrul Azman Noah and Michael D. Williams</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B192" t="inlineStr">
         <is>
           <t>@inproceedings{azman:2000,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -8173,42 +8398,42 @@
 }</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t>conf/kbse/NoahW00</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="D192" t="inlineStr">
         <is>
           <t>Exploring and Validating the Contributions of Real-World Knowledge to the Diagnostic Performance of Automated Database Design Tools</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2000.html#NoahW00</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G187" t="n">
+      <c r="G192" t="n">
         <v>2000</v>
       </c>
-      <c r="H187" t="inlineStr">
+      <c r="H192" t="inlineStr">
         <is>
           <t>conf/kbse/2000</t>
         </is>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
+    <row r="193">
+      <c r="A193" t="inlineStr">
         <is>
           <t>William G. J. Halfond and Alessandro Orso</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>@inproceedings{g.:2006,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -8218,42 +8443,42 @@
 }</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>conf/kbse/HalfondO06</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="D193" t="inlineStr">
         <is>
           <t>Command-Form Coverage for Testing Database Applications</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2006.html#HalfondO06</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G188" t="n">
+      <c r="G193" t="n">
         <v>2006</v>
       </c>
-      <c r="H188" t="inlineStr">
+      <c r="H193" t="inlineStr">
         <is>
           <t>conf/kbse/2006</t>
         </is>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
+    <row r="194">
+      <c r="A194" t="inlineStr">
         <is>
           <t>Sarah R. Clark and Jake Cobb and Gregory M. Kapfhammer and James A. Jones and Mary Jean Harrold</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>@inproceedings{r.:2011,
 booktitle = {International Conference on Automated Software Engineering(ASE)}, 
@@ -8263,42 +8488,42 @@
 }</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>conf/kbse/ClarkCKJH11</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>Localizing SQL faults in database applications</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>db/conf/kbse/ase2011.html#ClarkCKJH11</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>conf/kbse/</t>
         </is>
       </c>
-      <c r="G189" t="n">
+      <c r="G194" t="n">
         <v>2011</v>
       </c>
-      <c r="H189" t="inlineStr">
+      <c r="H194" t="inlineStr">
         <is>
           <t>conf/kbse/2011</t>
         </is>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
+    <row r="195">
+      <c r="A195" t="inlineStr">
         <is>
           <t>Yuetang Deng and Phyllis G. Frankl and David Chays</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>@inproceedings{deng:2005,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8308,42 +8533,42 @@
 }</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>conf/icse/DengFC05</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="D195" t="inlineStr">
         <is>
           <t>Testing database transactions with AGENDA</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2005.html#DengFC05</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G190" t="n">
+      <c r="G195" t="n">
         <v>2005</v>
       </c>
-      <c r="H190" t="inlineStr">
+      <c r="H195" t="inlineStr">
         <is>
           <t>conf/icse/2005</t>
         </is>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
+    <row r="196">
+      <c r="A196" t="inlineStr">
         <is>
           <t>Mathieu Humblet and Dang Vinh Tran and Jens H. Weber and Anthony Cleve</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t>@inproceedings{humblet:2016,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8353,42 +8578,42 @@
 }</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>conf/icse/HumbletTWC16</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="D196" t="inlineStr">
         <is>
           <t>Variability management in database applications</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>db/conf/icse/vace2016.html#HumbletTWC16</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="F196" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G191" t="n">
+      <c r="G196" t="n">
         <v>2016</v>
       </c>
-      <c r="H191" t="inlineStr">
+      <c r="H196" t="inlineStr">
         <is>
           <t>conf/icse/2016vace</t>
         </is>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
+    <row r="197">
+      <c r="A197" t="inlineStr">
         <is>
           <t>Klaus R. Dittrich and Dimitris Tombros and Andreas Geppert</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>@inproceedings{r.:2000,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8398,42 +8623,42 @@
 }</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>conf/icse/DittrichTG00</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="D197" t="inlineStr">
         <is>
           <t>Databases in software engineering: a roadmap</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>db/conf/icse/future2000.html#DittrichTG00</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G192" t="n">
+      <c r="G197" t="n">
         <v>2000</v>
       </c>
-      <c r="H192" t="inlineStr">
+      <c r="H197" t="inlineStr">
         <is>
           <t>conf/icse/2000future</t>
         </is>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
+    <row r="198">
+      <c r="A198" t="inlineStr">
         <is>
           <t>Andy Maule and Wolfgang Emmerich and David S. Rosenblum</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>@inproceedings{maule:2008,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8443,42 +8668,42 @@
 }</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>conf/icse/MauleER08</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="D198" t="inlineStr">
         <is>
           <t>Impact analysis of database schema changes</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2008.html#MauleER08</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G193" t="n">
+      <c r="G198" t="n">
         <v>2008</v>
       </c>
-      <c r="H193" t="inlineStr">
+      <c r="H198" t="inlineStr">
         <is>
           <t>conf/icse/2008</t>
         </is>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
+    <row r="199">
+      <c r="A199" t="inlineStr">
         <is>
           <t>Roger King</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>@inproceedings{king:1994,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8488,42 +8713,42 @@
 }</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>conf/icse/King94</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="D199" t="inlineStr">
         <is>
           <t>Workshop on the Intersection Between Databases and Software Engineering</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>db/conf/icse/icse94.html#King94</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G194" t="n">
+      <c r="G199" t="n">
         <v>1994</v>
       </c>
-      <c r="H194" t="inlineStr">
+      <c r="H199" t="inlineStr">
         <is>
           <t>conf/icse/1994</t>
         </is>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
+    <row r="200">
+      <c r="A200" t="inlineStr">
         <is>
           <t>John Slankas</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>@inproceedings{slankas:2013,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8533,42 +8758,42 @@
 }</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>conf/icse/Slankas04</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="D200" t="inlineStr">
         <is>
           <t>Implementing database access control policy from unconstrained natural language text</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2013.html#Slankas04</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G195" t="n">
+      <c r="G200" t="n">
         <v>2013</v>
       </c>
-      <c r="H195" t="inlineStr">
+      <c r="H200" t="inlineStr">
         <is>
           <t>conf/icse/2013</t>
         </is>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
+    <row r="201">
+      <c r="A201" t="inlineStr">
         <is>
           <t>Wito Delnat and Eddy Truyen and Ansar Rafique and Dimitri Van Landuyt and Wouter Joosen</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>@inproceedings{delnat:2018,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8578,42 +8803,42 @@
 }</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>conf/icse/DelnatTRLJ18</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="D201" t="inlineStr">
         <is>
           <t>K8-scalar: a workbench to compare autoscalers for container-orchestrated database clusters</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>db/conf/icse/seams2018.html#DelnatTRLJ18</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G196" t="n">
+      <c r="G201" t="n">
         <v>2018</v>
       </c>
-      <c r="H196" t="inlineStr">
+      <c r="H201" t="inlineStr">
         <is>
           <t>conf/icse/2018seams</t>
         </is>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
+    <row r="202">
+      <c r="A202" t="inlineStr">
         <is>
           <t>Philip A. Bernstein</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>@inproceedings{a.:1987,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8623,42 +8848,42 @@
 }</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>conf/icse/Bernstein87</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="D202" t="inlineStr">
         <is>
           <t>Database System Support for Software Engineering</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>db/conf/icse/icse87.html#Bernstein87</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G197" t="n">
+      <c r="G202" t="n">
         <v>1987</v>
       </c>
-      <c r="H197" t="inlineStr">
+      <c r="H202" t="inlineStr">
         <is>
           <t>conf/icse/1987</t>
         </is>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
+    <row r="203">
+      <c r="A203" t="inlineStr">
         <is>
           <t>Tse-Hsun Chen and Weiyi Shang and Ahmed E. Hassan and Mohamed N. Nasser and Parminder Flora</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>@inproceedings{chen:2016,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8668,42 +8893,42 @@
 }</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>conf/icse/ChenSHNF16</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="D203" t="inlineStr">
         <is>
           <t>Detecting problems in the database access code of large scale systems: an industrial experience report</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2016c.html#ChenSHNF16</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G198" t="n">
+      <c r="G203" t="n">
         <v>2016</v>
       </c>
-      <c r="H198" t="inlineStr">
+      <c r="H203" t="inlineStr">
         <is>
           <t>conf/icse/2016c</t>
         </is>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
+    <row r="204">
+      <c r="A204" t="inlineStr">
         <is>
           <t>Rudolf Bayer</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>@inproceedings{bayer:1979,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8713,42 +8938,42 @@
 }</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>conf/icse/Bayer79</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="D204" t="inlineStr">
         <is>
           <t>On Synchronization and Recovery in Database Systems</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>db/conf/icse/icse79.html#Bayer79</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G199" t="n">
+      <c r="G204" t="n">
         <v>1979</v>
       </c>
-      <c r="H199" t="inlineStr">
+      <c r="H204" t="inlineStr">
         <is>
           <t>conf/icse/1979</t>
         </is>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
+    <row r="205">
+      <c r="A205" t="inlineStr">
         <is>
           <t>David Willmor and Suzanne M. Embury</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>@inproceedings{willmor:2006,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8758,42 +8983,42 @@
 }</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>conf/icse/WillmorE06</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="D205" t="inlineStr">
         <is>
           <t>An intensional approach to the specification of test cases for database applications</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2006.html#WillmorE06</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G200" t="n">
+      <c r="G205" t="n">
         <v>2006</v>
       </c>
-      <c r="H200" t="inlineStr">
+      <c r="H205" t="inlineStr">
         <is>
           <t>conf/icse/2006</t>
         </is>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
+    <row r="206">
+      <c r="A206" t="inlineStr">
         <is>
           <t>Karen E. Huff</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>@inproceedings{e.:1981,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8803,42 +9028,42 @@
 }</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>conf/icse/Huff81</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="D206" t="inlineStr">
         <is>
           <t>A Database Model for Effective Configuration Management in the Programming Environment</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>db/conf/icse/icse81.html#Huff81</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G201" t="n">
+      <c r="G206" t="n">
         <v>1981</v>
       </c>
-      <c r="H201" t="inlineStr">
+      <c r="H206" t="inlineStr">
         <is>
           <t>conf/icse/1981</t>
         </is>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
+    <row r="207">
+      <c r="A207" t="inlineStr">
         <is>
           <t>Kai Pan and Xintao Wu and Tao Xie</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>@inproceedings{pan:2013,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8848,42 +9073,42 @@
 }</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>conf/icse/PanWX13</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="D207" t="inlineStr">
         <is>
           <t>Automatic test generation for mutation testing on database applications</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>db/conf/icse/ast2013.html#PanWX13</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="F207" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G202" t="n">
+      <c r="G207" t="n">
         <v>2013</v>
       </c>
-      <c r="H202" t="inlineStr">
+      <c r="H207" t="inlineStr">
         <is>
           <t>conf/icse/2013ast</t>
         </is>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
+    <row r="208">
+      <c r="A208" t="inlineStr">
         <is>
           <t>Mashel Al-Barak and Rami Bahsoon</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>@inproceedings{al-barak:2018,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8893,42 +9118,42 @@
 }</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>conf/icse/Al-BarakB18</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="D208" t="inlineStr">
         <is>
           <t>Prioritizing technical debt in database normalization using portfolio theory and data quality metrics</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>db/conf/icse/techdebt2018.html#Al-BarakB18</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="F208" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G203" t="n">
+      <c r="G208" t="n">
         <v>2018</v>
       </c>
-      <c r="H203" t="inlineStr">
+      <c r="H208" t="inlineStr">
         <is>
           <t>conf/icse/2018techdebt</t>
         </is>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
+    <row r="209">
+      <c r="A209" t="inlineStr">
         <is>
           <t>David Chays and Yuetang Deng</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>@inproceedings{chays:2003,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8938,42 +9163,42 @@
 }</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>conf/icse/ChaysD03</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="D209" t="inlineStr">
         <is>
           <t>Demonstration of AGENDA Tool Set for Testing Relational Database Applications</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2003.html#ChaysD03</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="F209" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G204" t="n">
+      <c r="G209" t="n">
         <v>2003</v>
       </c>
-      <c r="H204" t="inlineStr">
+      <c r="H209" t="inlineStr">
         <is>
           <t>conf/icse/2003</t>
         </is>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
+    <row r="210">
+      <c r="A210" t="inlineStr">
         <is>
           <t>Richard W. Selby</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>@inproceedings{w.:1997,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -8983,42 +9208,42 @@
 }</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>conf/icse/Selby97</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="D210" t="inlineStr">
         <is>
           <t>Platforms for Software Execution: Databases vs. Operating Systems vs. Browsers (Panel)</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>db/conf/icse/icse97.html#Selby97</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G205" t="n">
+      <c r="G210" t="n">
         <v>1997</v>
       </c>
-      <c r="H205" t="inlineStr">
+      <c r="H210" t="inlineStr">
         <is>
           <t>conf/icse/1997</t>
         </is>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
+    <row r="211">
+      <c r="A211" t="inlineStr">
         <is>
           <t>Isao Miyamoto</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>@inproceedings{miyamoto:1976,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9028,42 +9253,42 @@
 }</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>conf/icse/Miyamoto76</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="D211" t="inlineStr">
         <is>
           <t>Some Considerations in Database Application Programming</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>db/conf/icse/icse76.html#Miyamoto76</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="F211" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G206" t="n">
+      <c r="G211" t="n">
         <v>1976</v>
       </c>
-      <c r="H206" t="inlineStr">
+      <c r="H211" t="inlineStr">
         <is>
           <t>conf/icse/1976</t>
         </is>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
+    <row r="212">
+      <c r="A212" t="inlineStr">
         <is>
           <t>Andreza M. F. V. de Castro and Gisele Macedo and Eliane Collins and Arilo Claudio Dias-Neto</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>@inproceedings{m.:2013,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9073,42 +9298,42 @@
 }</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>conf/icse/CastroMCD13</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="D212" t="inlineStr">
         <is>
           <t>Extension of Selenium RC tool to perform automated testing with databases in web applications</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>db/conf/icse/ast2013.html#CastroMCD13</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G207" t="n">
+      <c r="G212" t="n">
         <v>2013</v>
       </c>
-      <c r="H207" t="inlineStr">
+      <c r="H212" t="inlineStr">
         <is>
           <t>conf/icse/2013ast</t>
         </is>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
+    <row r="213">
+      <c r="A213" t="inlineStr">
         <is>
           <t>Cathrin Weiss and Cindy Rubio-González and Ben Liblit</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>@inproceedings{weiss:2015,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9118,42 +9343,42 @@
 }</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>conf/icse/WeissRL15</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="D213" t="inlineStr">
         <is>
           <t>Database-Backed Program Analysis for Scalable Error Propagation</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2015-1.html#WeissRL15</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="F213" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G208" t="n">
+      <c r="G213" t="n">
         <v>2015</v>
       </c>
-      <c r="H208" t="inlineStr">
+      <c r="H213" t="inlineStr">
         <is>
           <t>conf/icse/2015-1</t>
         </is>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
+    <row r="214">
+      <c r="A214" t="inlineStr">
         <is>
           <t>Dimitrios S. Kolovos and Fady Medhat and Richard F. Paige and Davide Di Ruscio and Tijs van der Storm and Sebastian Scholze and Athanasios Zolotas</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>@inproceedings{s.:2019,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9163,42 +9388,42 @@
 }</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>conf/icse/KolovosMPRSSZ19</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
+      <c r="D214" t="inlineStr">
         <is>
           <t>Domain-specific languages for the design, deployment and manipulation of heterogeneous databases</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="E214" t="inlineStr">
         <is>
           <t>db/conf/icse/mise2019.html#KolovosMPRSSZ19</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
+      <c r="F214" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G209" t="n">
+      <c r="G214" t="n">
         <v>2019</v>
       </c>
-      <c r="H209" t="inlineStr">
+      <c r="H214" t="inlineStr">
         <is>
           <t>conf/icse/2019mise</t>
         </is>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
+    <row r="215">
+      <c r="A215" t="inlineStr">
         <is>
           <t>Maria Heloisa (Lolo) Penedo and E. Don Stuckle</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>@inproceedings{heloisa:1985,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9208,42 +9433,42 @@
 }</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>conf/icse/PenedoS85</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="D215" t="inlineStr">
         <is>
           <t>PMDB - A Project Master Database for Software Engineering Environments</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>db/conf/icse/icse85.html#PenedoS85</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F215" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G210" t="n">
+      <c r="G215" t="n">
         <v>1985</v>
       </c>
-      <c r="H210" t="inlineStr">
+      <c r="H215" t="inlineStr">
         <is>
           <t>conf/icse/1985</t>
         </is>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
+    <row r="216">
+      <c r="A216" t="inlineStr">
         <is>
           <t>K. Chong and P. Hsia</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>@inproceedings{chong:1984,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9253,42 +9478,42 @@
 }</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>conf/icse/ChongH84</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
+      <c r="D216" t="inlineStr">
         <is>
           <t>Diagnostic System for Distributed Software: A Relational Database Approach</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>db/conf/icse/icse84.html#ChongH84</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
+      <c r="F216" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G211" t="n">
+      <c r="G216" t="n">
         <v>1984</v>
       </c>
-      <c r="H211" t="inlineStr">
+      <c r="H216" t="inlineStr">
         <is>
           <t>conf/icse/1984</t>
         </is>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
+    <row r="217">
+      <c r="A217" t="inlineStr">
         <is>
           <t>David W. Stemple and Tim Sheard</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>@inproceedings{w.:1985,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9298,42 +9523,42 @@
 }</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>conf/icse/StempleS85</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
+      <c r="D217" t="inlineStr">
         <is>
           <t>Database Theory for Supporting Specification-Based Database Systems Development</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="E217" t="inlineStr">
         <is>
           <t>db/conf/icse/icse85.html#StempleS85</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="F217" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G212" t="n">
+      <c r="G217" t="n">
         <v>1985</v>
       </c>
-      <c r="H212" t="inlineStr">
+      <c r="H217" t="inlineStr">
         <is>
           <t>conf/icse/1985</t>
         </is>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
+    <row r="218">
+      <c r="A218" t="inlineStr">
         <is>
           <t>Marco Scavuzzo and Damian Andrew Tamburri and Elisabetta Di Nitto</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>@inproceedings{scavuzzo:2016,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9343,42 +9568,42 @@
 }</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>conf/icse/ScavuzzoTN16</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
+      <c r="D218" t="inlineStr">
         <is>
           <t>Providing big data applications with fault-tolerant data migration across heterogeneous NoSQL databases</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>db/conf/icse/bigdse2016.html#ScavuzzoTN16</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G213" t="n">
+      <c r="G218" t="n">
         <v>2016</v>
       </c>
-      <c r="H213" t="inlineStr">
+      <c r="H218" t="inlineStr">
         <is>
           <t>conf/icse/2016bigdse</t>
         </is>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
+    <row r="219">
+      <c r="A219" t="inlineStr">
         <is>
           <t>Jaumir V. da Silveira Jr. and Karin Koogan Breitman</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>@inproceedings{v.:2011,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9388,42 +9613,42 @@
 }</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>conf/icse/SilveiraB11</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="D219" t="inlineStr">
         <is>
           <t>A cloud-aware API for semi-structured BLOB databases addressing data overflow</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
+      <c r="E219" t="inlineStr">
         <is>
           <t>db/conf/icse/topi2011.html#SilveiraB11</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
+      <c r="F219" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G214" t="n">
+      <c r="G219" t="n">
         <v>2011</v>
       </c>
-      <c r="H214" t="inlineStr">
+      <c r="H219" t="inlineStr">
         <is>
           <t>conf/icse/2011topi</t>
         </is>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
+    <row r="220">
+      <c r="A220" t="inlineStr">
         <is>
           <t>Barbara A. Kitchenham and Cat Kutay and D. Ross Jeffery and Colin Connaughton</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>@inproceedings{a.:2006,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9433,42 +9658,42 @@
 }</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>conf/icse/KitchenhamKJC06</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="D220" t="inlineStr">
         <is>
           <t>Lessons learnt from the analysis of large-scale corporate databases</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2006.html#KitchenhamKJC06</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
+      <c r="F220" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G215" t="n">
+      <c r="G220" t="n">
         <v>2006</v>
       </c>
-      <c r="H215" t="inlineStr">
+      <c r="H220" t="inlineStr">
         <is>
           <t>conf/icse/2006</t>
         </is>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
+    <row r="221">
+      <c r="A221" t="inlineStr">
         <is>
           <t>Carl Gould 0001 and Zhendong Su and Premkumar T. Devanbu</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>@inproceedings{gould:2004,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9478,42 +9703,42 @@
 }</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>conf/icse/GouldSD04</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
+      <c r="D221" t="inlineStr">
         <is>
           <t>Static Checking of Dynamically Generated Queries in Database Applications</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2004.html#GouldSD04</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
+      <c r="F221" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G216" t="n">
+      <c r="G221" t="n">
         <v>2004</v>
       </c>
-      <c r="H216" t="inlineStr">
+      <c r="H221" t="inlineStr">
         <is>
           <t>conf/icse/2004</t>
         </is>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
+    <row r="222">
+      <c r="A222" t="inlineStr">
         <is>
           <t>Lin Chiu and Ming T. Liu</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>@inproceedings{chiu:1988,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9523,42 +9748,42 @@
 }</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>conf/icse/ChiuL88</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
+      <c r="D222" t="inlineStr">
         <is>
           <t>High-Level Specification of Concurrency Control in Distributed Database Systems</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>db/conf/icse/icse88.html#ChiuL88</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
+      <c r="F222" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G217" t="n">
+      <c r="G222" t="n">
         <v>1988</v>
       </c>
-      <c r="H217" t="inlineStr">
+      <c r="H222" t="inlineStr">
         <is>
           <t>conf/icse/1988</t>
         </is>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
+    <row r="223">
+      <c r="A223" t="inlineStr">
         <is>
           <t>Michael de Jong and Arie van Deursen and Anthony Cleve</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>@inproceedings{de:2017,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9568,42 +9793,42 @@
 }</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>conf/icse/JongDC17</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
+      <c r="D223" t="inlineStr">
         <is>
           <t>Zero-Downtime SQL Database Schema Evolution for Continuous Deployment</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2017seip.html#JongDC17</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F223" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G218" t="n">
+      <c r="G223" t="n">
         <v>2017</v>
       </c>
-      <c r="H218" t="inlineStr">
+      <c r="H223" t="inlineStr">
         <is>
           <t>conf/icse/2017seip</t>
         </is>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
+    <row r="224">
+      <c r="A224" t="inlineStr">
         <is>
           <t>Yuan Tian 0008 and David Lo 0001 and Julia L. Lawall</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>@inproceedings{tian:2014,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9613,42 +9838,42 @@
 }</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>conf/icse/TianLL14</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
+      <c r="D224" t="inlineStr">
         <is>
           <t>SEWordSim: software-specific word similarity database</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2014c.html#TianLL14</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
+      <c r="F224" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G219" t="n">
+      <c r="G224" t="n">
         <v>2014</v>
       </c>
-      <c r="H219" t="inlineStr">
+      <c r="H224" t="inlineStr">
         <is>
           <t>conf/icse/2014c</t>
         </is>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
+    <row r="225">
+      <c r="A225" t="inlineStr">
         <is>
           <t>Oskari Koskimies and Johan Wikman and Tapani Mikola and Antero Taivalsaari</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>@inproceedings{koskimies:2015,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9658,42 +9883,42 @@
 }</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>conf/icse/KoskimiesWMT15</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
+      <c r="D225" t="inlineStr">
         <is>
           <t>EDB: A Multi-master Database for Liquid Multi-device Software</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>db/conf/icse/mobilesoft2015.html#KoskimiesWMT15</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G220" t="n">
+      <c r="G225" t="n">
         <v>2015</v>
       </c>
-      <c r="H220" t="inlineStr">
+      <c r="H225" t="inlineStr">
         <is>
           <t>conf/icse/2015mobilesoft</t>
         </is>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
+    <row r="226">
+      <c r="A226" t="inlineStr">
         <is>
           <t>Claudio de la Riva and María José Suárez Cabal and Javier Tuya</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>@inproceedings{de:2010,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9703,42 +9928,42 @@
 }</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>conf/icse/RivaCT10</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
+      <c r="D226" t="inlineStr">
         <is>
           <t>Constraint-based test database generation for SQL queries</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="E226" t="inlineStr">
         <is>
           <t>db/conf/icse/ast2010.html#RivaCT10</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
+      <c r="F226" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G221" t="n">
+      <c r="G226" t="n">
         <v>2010</v>
       </c>
-      <c r="H221" t="inlineStr">
+      <c r="H226" t="inlineStr">
         <is>
           <t>conf/icse/2010ast</t>
         </is>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
+    <row r="227">
+      <c r="A227" t="inlineStr">
         <is>
           <t>Nate Kube and Kevin Yoo and Daniel Hoffman</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>@inproceedings{kube:2011,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9748,42 +9973,42 @@
 }</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>conf/icse/KubeYH11</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
+      <c r="D227" t="inlineStr">
         <is>
           <t>Automated testing of industrial control devices: the delphi database</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
+      <c r="E227" t="inlineStr">
         <is>
           <t>db/conf/icse/ast2011.html#KubeYH11</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="F227" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G222" t="n">
+      <c r="G227" t="n">
         <v>2011</v>
       </c>
-      <c r="H222" t="inlineStr">
+      <c r="H227" t="inlineStr">
         <is>
           <t>conf/icse/2011ast</t>
         </is>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
+    <row r="228">
+      <c r="A228" t="inlineStr">
         <is>
           <t>Percy E. Salas and Edgard Marx and Alexander Mera and José Viterbo</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>@inproceedings{e.:2011,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9793,42 +10018,42 @@
 }</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>conf/icse/SalasMMV11</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr">
+      <c r="D228" t="inlineStr">
         <is>
           <t>RDB2RDF plugin: relational databases to RDF plugin for eclipse</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr">
+      <c r="E228" t="inlineStr">
         <is>
           <t>db/conf/icse/topi2011.html#SalasMMV11</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
+      <c r="F228" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G223" t="n">
+      <c r="G228" t="n">
         <v>2011</v>
       </c>
-      <c r="H223" t="inlineStr">
+      <c r="H228" t="inlineStr">
         <is>
           <t>conf/icse/2011topi</t>
         </is>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
+    <row r="229">
+      <c r="A229" t="inlineStr">
         <is>
           <t>Tushar Sharma and Marios Fragkoulis and Stamatia Rizou and Magiel Bruntink and Diomidis Spinellis</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>@inproceedings{sharma:2018,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9838,42 +10063,42 @@
 }</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>conf/icse/SharmaFRBS18</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
+      <c r="D229" t="inlineStr">
         <is>
           <t>Smelly relations: measuring and understanding database schema quality</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
+      <c r="E229" t="inlineStr">
         <is>
           <t>db/conf/icse/seip2018.html#SharmaFRBS18</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
+      <c r="F229" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G224" t="n">
+      <c r="G229" t="n">
         <v>2018</v>
       </c>
-      <c r="H224" t="inlineStr">
+      <c r="H229" t="inlineStr">
         <is>
           <t>conf/icse/2018seip</t>
         </is>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
+    <row r="230">
+      <c r="A230" t="inlineStr">
         <is>
           <t>Junwen Yang and Cong Yan and Chengcheng Wan and Shan Lu and Alvin Cheung</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>@inproceedings{yang:2019,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9883,42 +10108,42 @@
 }</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>conf/icse/YangYWLC19</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
+      <c r="D230" t="inlineStr">
         <is>
           <t>View-centric performance optimization for database-backed web applications</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2019.html#YangYWLC19</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
+      <c r="F230" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G225" t="n">
+      <c r="G230" t="n">
         <v>2019</v>
       </c>
-      <c r="H225" t="inlineStr">
+      <c r="H230" t="inlineStr">
         <is>
           <t>conf/icse/2019</t>
         </is>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
+    <row r="231">
+      <c r="A231" t="inlineStr">
         <is>
           <t>Csaba Nagy and Anthony Cleve</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>@inproceedings{nagy:2018,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9928,42 +10153,42 @@
 }</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>conf/icse/NagyC18</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
+      <c r="D231" t="inlineStr">
         <is>
           <t>SQLInspect: a static analyzer to inspect database usage in Java applications</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2018c.html#NagyC18</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
+      <c r="F231" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G226" t="n">
+      <c r="G231" t="n">
         <v>2018</v>
       </c>
-      <c r="H226" t="inlineStr">
+      <c r="H231" t="inlineStr">
         <is>
           <t>conf/icse/2018c</t>
         </is>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
+    <row r="232">
+      <c r="A232" t="inlineStr">
         <is>
           <t>Michael de Jong and Arie van Deursen</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>@inproceedings{de:2015,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -9973,42 +10198,42 @@
 }</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>conf/icse/JongD15</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
+      <c r="D232" t="inlineStr">
         <is>
           <t>Continuous Deployment and Schema Evolution in SQL Databases</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>db/conf/icse/releng2015.html#JongD15</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
+      <c r="F232" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G227" t="n">
+      <c r="G232" t="n">
         <v>2015</v>
       </c>
-      <c r="H227" t="inlineStr">
+      <c r="H232" t="inlineStr">
         <is>
           <t>conf/icse/2015releng</t>
         </is>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
+    <row r="233">
+      <c r="A233" t="inlineStr">
         <is>
           <t>Ramkrishna Chatterjee and Gopalan Arun and Sanjay Agarwal and Ben Speckhard and Ramesh Vasudevan</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>@inproceedings{chatterjee:2004,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -10018,42 +10243,42 @@
 }</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>conf/icse/ChatterjeeAASV04</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr">
+      <c r="D233" t="inlineStr">
         <is>
           <t>Using Data Versioning in Database Application Development</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2004.html#ChatterjeeAASV04</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G228" t="n">
+      <c r="G233" t="n">
         <v>2004</v>
       </c>
-      <c r="H228" t="inlineStr">
+      <c r="H233" t="inlineStr">
         <is>
           <t>conf/icse/2004</t>
         </is>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
+    <row r="234">
+      <c r="A234" t="inlineStr">
         <is>
           <t>Phil McMinn and Gregory M. Kapfhammer and Chris J. Wright</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>@inproceedings{mcminn:2016,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -10063,42 +10288,42 @@
 }</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>conf/icse/McMinnKW16</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr">
+      <c r="D234" t="inlineStr">
         <is>
           <t>Virtual mutation analysis of relational database schemas</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>db/conf/icse/ast2016.html#McMinnKW16</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G229" t="n">
+      <c r="G234" t="n">
         <v>2016</v>
       </c>
-      <c r="H229" t="inlineStr">
+      <c r="H234" t="inlineStr">
         <is>
           <t>conf/icse/2016ast</t>
         </is>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
+    <row r="235">
+      <c r="A235" t="inlineStr">
         <is>
           <t>Junwen Yang and Pranav Subramaniam and Shan Lu and Cong Yan and Alvin Cheung</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>@inproceedings{yang:2018,
 booktitle = {International Conference on Software Engineering (ICSE)}, 
@@ -10108,42 +10333,42 @@
 }</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>conf/icse/YangSLYC18</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
+      <c r="D235" t="inlineStr">
         <is>
           <t>How not to structure your database-backed web applications: a study of performance bugs in the wild</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>db/conf/icse/icse2018.html#YangSLYC18</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
+      <c r="F235" t="inlineStr">
         <is>
           <t>conf/icse/</t>
         </is>
       </c>
-      <c r="G230" t="n">
+      <c r="G235" t="n">
         <v>2018</v>
       </c>
-      <c r="H230" t="inlineStr">
+      <c r="H235" t="inlineStr">
         <is>
           <t>conf/icse/2018</t>
         </is>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
+    <row r="236">
+      <c r="A236" t="inlineStr">
         <is>
           <t>Jesús M. González-Barahona and Gregorio Robles and Daniel Izquierdo-Cortazar</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>@inproceedings{m.:2015,
 booktitle = {International Conference on Mining Software Repositories (MSR)}, 
@@ -10153,42 +10378,42 @@
 }</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>conf/msr/Gonzalez-Barahona15</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
+      <c r="D236" t="inlineStr">
         <is>
           <t>The MetricsGrimoire Database Collection</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>db/conf/msr/msr2015.html#Gonzalez-Barahona15</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
+      <c r="F236" t="inlineStr">
         <is>
           <t>conf/msr/</t>
         </is>
       </c>
-      <c r="G231" t="n">
+      <c r="G236" t="n">
         <v>2015</v>
       </c>
-      <c r="H231" t="inlineStr">
+      <c r="H236" t="inlineStr">
         <is>
           <t>conf/msr/2015</t>
         </is>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
+    <row r="237">
+      <c r="A237" t="inlineStr">
         <is>
           <t>Omar Alonso and Premkumar T. Devanbu and Michael Gertz</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>@inproceedings{alonso:2004,
 booktitle = {International Conference on Mining Software Repositories (MSR)}, 
@@ -10198,42 +10423,42 @@
 }</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>conf/msr/AlonsoDG04</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr">
+      <c r="D237" t="inlineStr">
         <is>
           <t>Database Techniques for the Analysis and Exploration of Software Repositories</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>db/conf/msr/msr2004.html#AlonsoDG04</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>conf/msr/</t>
         </is>
       </c>
-      <c r="G232" t="n">
+      <c r="G237" t="n">
         <v>2004</v>
       </c>
-      <c r="H232" t="inlineStr">
+      <c r="H237" t="inlineStr">
         <is>
           <t>conf/msr/2004</t>
         </is>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
+    <row r="238">
+      <c r="A238" t="inlineStr">
         <is>
           <t>Alexander Breckel</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>@inproceedings{breckel:2012,
 booktitle = {International Conference on Mining Software Repositories (MSR)}, 
@@ -10243,42 +10468,42 @@
 }</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>conf/msr/Breckel12</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr">
+      <c r="D238" t="inlineStr">
         <is>
           <t>Error mining: Bug detection through comparison with large code databases</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>db/conf/msr/msr2012.html#Breckel12</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F238" t="inlineStr">
         <is>
           <t>conf/msr/</t>
         </is>
       </c>
-      <c r="G233" t="n">
+      <c r="G238" t="n">
         <v>2012</v>
       </c>
-      <c r="H233" t="inlineStr">
+      <c r="H238" t="inlineStr">
         <is>
           <t>conf/msr/2012</t>
         </is>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
+    <row r="239">
+      <c r="A239" t="inlineStr">
         <is>
           <t>Remco Bloemen and Chintan Amrit and Stefan Kuhlmann and Gonzalo Ordóñez-Matamoros</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>@inproceedings{bloemen:2014,
 booktitle = {International Conference on Mining Software Repositories (MSR)}, 
@@ -10288,42 +10513,42 @@
 }</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>conf/msr/BloemenAKO14</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr">
+      <c r="D239" t="inlineStr">
         <is>
           <t>Innovation diffusion in open source software: preliminary analysis of dependency changes in the gentoo portage package database</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>db/conf/msr/msr2014.html#BloemenAKO14</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F239" t="inlineStr">
         <is>
           <t>conf/msr/</t>
         </is>
       </c>
-      <c r="G234" t="n">
+      <c r="G239" t="n">
         <v>2014</v>
       </c>
-      <c r="H234" t="inlineStr">
+      <c r="H239" t="inlineStr">
         <is>
           <t>conf/msr/2014</t>
         </is>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
+    <row r="240">
+      <c r="A240" t="inlineStr">
         <is>
           <t>Lucas Nussbaum and Stefano Zacchiroli</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>@inproceedings{nussbaum:2010,
 booktitle = {International Conference on Mining Software Repositories (MSR)}, 
@@ -10333,42 +10558,42 @@
 }</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>conf/msr/NussbaumZ10</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr">
+      <c r="D240" t="inlineStr">
         <is>
           <t>The Ultimate Debian Database: Consolidating bazaar metadata for Quality Assurance and data mining</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>db/conf/msr/msr2010.html#NussbaumZ10</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="F240" t="inlineStr">
         <is>
           <t>conf/msr/</t>
         </is>
       </c>
-      <c r="G235" t="n">
+      <c r="G240" t="n">
         <v>2010</v>
       </c>
-      <c r="H235" t="inlineStr">
+      <c r="H240" t="inlineStr">
         <is>
           <t>conf/msr/2010</t>
         </is>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
+    <row r="241">
+      <c r="A241" t="inlineStr">
         <is>
           <t>Mashel Al-Barak and Rami Bahsoon</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B241" t="inlineStr">
         <is>
           <t>@inproceedings{al-barak:2016,
 booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
@@ -10378,42 +10603,42 @@
 }</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C241" t="inlineStr">
         <is>
           <t>conf/icsm/Al-BarakB16</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
+      <c r="D241" t="inlineStr">
         <is>
           <t>Database Design Debts through Examining Schema Evolution</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="E241" t="inlineStr">
         <is>
           <t>db/conf/icsm/mtd2016.html#Al-BarakB16</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
+      <c r="F241" t="inlineStr">
         <is>
           <t>conf/icsm/</t>
         </is>
       </c>
-      <c r="G236" t="n">
+      <c r="G241" t="n">
         <v>2016</v>
       </c>
-      <c r="H236" t="inlineStr">
+      <c r="H241" t="inlineStr">
         <is>
           <t>conf/icsm/2016mtd</t>
         </is>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
+    <row r="242">
+      <c r="A242" t="inlineStr">
         <is>
           <t>Mathieu Goeminne and Tom Mens</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B242" t="inlineStr">
         <is>
           <t>@inproceedings{goeminne:2015,
 booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
@@ -10423,42 +10648,42 @@
 }</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C242" t="inlineStr">
         <is>
           <t>conf/icsm/GoeminneM15</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr">
+      <c r="D242" t="inlineStr">
         <is>
           <t>Towards a survival analysis of database framework usage in Java projects</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E242" t="inlineStr">
         <is>
           <t>db/conf/icsm/icsme2015.html#GoeminneM15</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F242" t="inlineStr">
         <is>
           <t>conf/icsm/</t>
         </is>
       </c>
-      <c r="G237" t="n">
+      <c r="G242" t="n">
         <v>2015</v>
       </c>
-      <c r="H237" t="inlineStr">
+      <c r="H242" t="inlineStr">
         <is>
           <t>conf/icsm/2015</t>
         </is>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
+    <row r="243">
+      <c r="A243" t="inlineStr">
         <is>
           <t>Jens H. Jahnke and Wilhelm Schäfer and Albert Zündorf</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B243" t="inlineStr">
         <is>
           <t>@inproceedings{h.:1996,
 booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
@@ -10468,42 +10693,42 @@
 }</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
+      <c r="C243" t="inlineStr">
         <is>
           <t>conf/icsm/JahnkeSZ96</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr">
+      <c r="D243" t="inlineStr">
         <is>
           <t>A Design Environment for Migrating Relational to Object Oriented Database Systems</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
+      <c r="E243" t="inlineStr">
         <is>
           <t>db/conf/icsm/icsm1996.html#JahnkeSZ96</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
+      <c r="F243" t="inlineStr">
         <is>
           <t>conf/icsm/</t>
         </is>
       </c>
-      <c r="G238" t="n">
+      <c r="G243" t="n">
         <v>1996</v>
       </c>
-      <c r="H238" t="inlineStr">
+      <c r="H243" t="inlineStr">
         <is>
           <t>conf/icsm/1996</t>
         </is>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
+    <row r="244">
+      <c r="A244" t="inlineStr">
         <is>
           <t>Jens H. Weber and Anthony Cleve and Loup Meurice and Francisco Javier Bermudez Ruiz</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>@inproceedings{h.:2014,
 booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
@@ -10513,42 +10738,42 @@
 }</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>conf/icsm/WeberCMR14</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
+      <c r="D244" t="inlineStr">
         <is>
           <t>Managing Technical Debt in Database Schemas of Critical Software</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr">
+      <c r="E244" t="inlineStr">
         <is>
           <t>db/conf/icsm/mtd2014.html#WeberCMR14</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
+      <c r="F244" t="inlineStr">
         <is>
           <t>conf/icsm/</t>
         </is>
       </c>
-      <c r="G239" t="n">
+      <c r="G244" t="n">
         <v>2014</v>
       </c>
-      <c r="H239" t="inlineStr">
+      <c r="H244" t="inlineStr">
         <is>
           <t>conf/icsm/2014mtd</t>
         </is>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
+    <row r="245">
+      <c r="A245" t="inlineStr">
         <is>
           <t>Karla Saur and Tudor Dumitras and Michael W. Hicks</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr">
+      <c r="B245" t="inlineStr">
         <is>
           <t>@inproceedings{saur:2016,
 booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
@@ -10558,42 +10783,42 @@
 }</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
+      <c r="C245" t="inlineStr">
         <is>
           <t>conf/icsm/SaurDH16</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr">
+      <c r="D245" t="inlineStr">
         <is>
           <t>Evolving NoSQL Databases without Downtime</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr">
+      <c r="E245" t="inlineStr">
         <is>
           <t>db/conf/icsm/icsme2016.html#SaurDH16</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
+      <c r="F245" t="inlineStr">
         <is>
           <t>conf/icsm/</t>
         </is>
       </c>
-      <c r="G240" t="n">
+      <c r="G245" t="n">
         <v>2016</v>
       </c>
-      <c r="H240" t="inlineStr">
+      <c r="H245" t="inlineStr">
         <is>
           <t>conf/icsm/2016</t>
         </is>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
+    <row r="246">
+      <c r="A246" t="inlineStr">
         <is>
           <t>Julien Delplanque and Anne Etien and Nicolas Anquetil and Olivier Auverlot</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="B246" t="inlineStr">
         <is>
           <t>@inproceedings{delplanque:2018,
 booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
@@ -10603,42 +10828,42 @@
 }</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
+      <c r="C246" t="inlineStr">
         <is>
           <t>conf/icsm/DelplanqueEAA18</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
+      <c r="D246" t="inlineStr">
         <is>
           <t>Relational Database Schema Evolution: An Industrial Case Study</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr">
+      <c r="E246" t="inlineStr">
         <is>
           <t>db/conf/icsm/icsme2018.html#DelplanqueEAA18</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
+      <c r="F246" t="inlineStr">
         <is>
           <t>conf/icsm/</t>
         </is>
       </c>
-      <c r="G241" t="n">
+      <c r="G246" t="n">
         <v>2018</v>
       </c>
-      <c r="H241" t="inlineStr">
+      <c r="H246" t="inlineStr">
         <is>
           <t>conf/icsm/2018</t>
         </is>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
+    <row r="247">
+      <c r="A247" t="inlineStr">
         <is>
           <t>David Willmor and Suzanne M. Embury and Jianhua Shao 0001</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B247" t="inlineStr">
         <is>
           <t>@inproceedings{willmor:2004,
 booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
@@ -10648,42 +10873,42 @@
 }</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
+      <c r="C247" t="inlineStr">
         <is>
           <t>conf/icsm/WillmorES04</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr">
+      <c r="D247" t="inlineStr">
         <is>
           <t>Program Slicing in the Presence of a Database State</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
+      <c r="E247" t="inlineStr">
         <is>
           <t>db/conf/icsm/icsm2004.html#WillmorES04</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
+      <c r="F247" t="inlineStr">
         <is>
           <t>conf/icsm/</t>
         </is>
       </c>
-      <c r="G242" t="n">
+      <c r="G247" t="n">
         <v>2004</v>
       </c>
-      <c r="H242" t="inlineStr">
+      <c r="H247" t="inlineStr">
         <is>
           <t>conf/icsm/2004</t>
         </is>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
+    <row r="248">
+      <c r="A248" t="inlineStr">
         <is>
           <t>Audris Mockus and Lawrence G. Votta</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>@inproceedings{mockus:2000,
 booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
@@ -10693,42 +10918,42 @@
 }</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>conf/icsm/MockusV00</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
+      <c r="D248" t="inlineStr">
         <is>
           <t>Identifying Reasons for Software Changes using Historic Databases</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>db/conf/icsm/icsm2000.html#MockusV00</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
+      <c r="F248" t="inlineStr">
         <is>
           <t>conf/icsm/</t>
         </is>
       </c>
-      <c r="G243" t="n">
+      <c r="G248" t="n">
         <v>2000</v>
       </c>
-      <c r="H243" t="inlineStr">
+      <c r="H248" t="inlineStr">
         <is>
           <t>conf/icsm/2000</t>
         </is>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
+    <row r="249">
+      <c r="A249" t="inlineStr">
         <is>
           <t>Yingjun Lyu and Jiaping Gui and Mian Wan and William G. J. Halfond</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>@inproceedings{lyu:2017,
 booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
@@ -10738,42 +10963,42 @@
 }</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>conf/icsm/LyuGWH17</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr">
+      <c r="D249" t="inlineStr">
         <is>
           <t>An Empirical Study of Local Database Usage in Android Applications</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr">
+      <c r="E249" t="inlineStr">
         <is>
           <t>db/conf/icsm/icsme2017.html#LyuGWH17</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
+      <c r="F249" t="inlineStr">
         <is>
           <t>conf/icsm/</t>
         </is>
       </c>
-      <c r="G244" t="n">
+      <c r="G249" t="n">
         <v>2017</v>
       </c>
-      <c r="H244" t="inlineStr">
+      <c r="H249" t="inlineStr">
         <is>
           <t>conf/icsm/2017</t>
         </is>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
+    <row r="250">
+      <c r="A250" t="inlineStr">
         <is>
           <t>Véronique Narat</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>@inproceedings{narat:1993,
 booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
@@ -10783,42 +11008,42 @@
 }</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>conf/icsm/Narat93</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr">
+      <c r="D250" t="inlineStr">
         <is>
           <t>Using a Relational Database for Software Maintenance: A Case Study</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr">
+      <c r="E250" t="inlineStr">
         <is>
           <t>db/conf/icsm/icsm1993.html#Narat93</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
+      <c r="F250" t="inlineStr">
         <is>
           <t>conf/icsm/</t>
         </is>
       </c>
-      <c r="G245" t="n">
+      <c r="G250" t="n">
         <v>1993</v>
       </c>
-      <c r="H245" t="inlineStr">
+      <c r="H250" t="inlineStr">
         <is>
           <t>conf/icsm/1993</t>
         </is>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
+    <row r="251">
+      <c r="A251" t="inlineStr">
         <is>
           <t>Stefan Strobl and Mario Bernhart and Thomas Grechenig and Wolfgang Kleinert</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B251" t="inlineStr">
         <is>
           <t>@inproceedings{strobl:2009,
 booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
@@ -10828,42 +11053,42 @@
 }</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
+      <c r="C251" t="inlineStr">
         <is>
           <t>conf/icsm/StroblBGK09</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr">
+      <c r="D251" t="inlineStr">
         <is>
           <t>Digging deep: Software reengineering supported by database reverse engineering of a system with 30+ years of legacy</t>
         </is>
       </c>
-      <c r="E246" t="inlineStr">
+      <c r="E251" t="inlineStr">
         <is>
           <t>db/conf/icsm/icsm2009.html#StroblBGK09</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
+      <c r="F251" t="inlineStr">
         <is>
           <t>conf/icsm/</t>
         </is>
       </c>
-      <c r="G246" t="n">
+      <c r="G251" t="n">
         <v>2009</v>
       </c>
-      <c r="H246" t="inlineStr">
+      <c r="H251" t="inlineStr">
         <is>
           <t>conf/icsm/2009</t>
         </is>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
+    <row r="252">
+      <c r="A252" t="inlineStr">
         <is>
           <t>Phil McMinn and Chris J. Wright and Cody Kinneer and Colton J. McCurdy and Michael Camara and Gregory M. Kapfhammer</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B252" t="inlineStr">
         <is>
           <t>@inproceedings{mcminn:2016,
 booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
@@ -10873,42 +11098,42 @@
 }</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>conf/icsm/McMinnWKMCK16</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr">
+      <c r="D252" t="inlineStr">
         <is>
           <t>SchemaAnalyst: Search-Based Test Data Generation for Relational Database Schemas</t>
         </is>
       </c>
-      <c r="E247" t="inlineStr">
+      <c r="E252" t="inlineStr">
         <is>
           <t>db/conf/icsm/icsme2016.html#McMinnWKMCK16</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
+      <c r="F252" t="inlineStr">
         <is>
           <t>conf/icsm/</t>
         </is>
       </c>
-      <c r="G247" t="n">
+      <c r="G252" t="n">
         <v>2016</v>
       </c>
-      <c r="H247" t="inlineStr">
+      <c r="H252" t="inlineStr">
         <is>
           <t>conf/icsm/2016</t>
         </is>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
+    <row r="253">
+      <c r="A253" t="inlineStr">
         <is>
           <t>Laurent Deruelle and Mourad Bouneffa and Nordine Melab and Henri Basson</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B253" t="inlineStr">
         <is>
           <t>@inproceedings{deruelle:2001,
 booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
@@ -10918,42 +11143,42 @@
 }</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>conf/icsm/DeruelleBMB01</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr">
+      <c r="D253" t="inlineStr">
         <is>
           <t>A Change Propagation Model and Platform for Multi-Database Applications</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E253" t="inlineStr">
         <is>
           <t>db/conf/icsm/icsm2001.html#DeruelleBMB01</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
+      <c r="F253" t="inlineStr">
         <is>
           <t>conf/icsm/</t>
         </is>
       </c>
-      <c r="G248" t="n">
+      <c r="G253" t="n">
         <v>2001</v>
       </c>
-      <c r="H248" t="inlineStr">
+      <c r="H253" t="inlineStr">
         <is>
           <t>conf/icsm/2001</t>
         </is>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
+    <row r="254">
+      <c r="A254" t="inlineStr">
         <is>
           <t>Erik Rogstad and Lionel C. Briand and Ronny Dalberg and Marianne Rynning and Erik Arisholm</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>@inproceedings{rogstad:2011,
 booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
@@ -10963,42 +11188,42 @@
 }</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>conf/icsm/RogstadBDRA11</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr">
+      <c r="D254" t="inlineStr">
         <is>
           <t>Industrial experiences with automated regression testing of a legacy database application</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr">
+      <c r="E254" t="inlineStr">
         <is>
           <t>db/conf/icsm/icsm2011.html#RogstadBDRA11</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
+      <c r="F254" t="inlineStr">
         <is>
           <t>conf/icsm/</t>
         </is>
       </c>
-      <c r="G249" t="n">
+      <c r="G254" t="n">
         <v>2011</v>
       </c>
-      <c r="H249" t="inlineStr">
+      <c r="H254" t="inlineStr">
         <is>
           <t>conf/icsm/2011</t>
         </is>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
+    <row r="255">
+      <c r="A255" t="inlineStr">
         <is>
           <t>Donatella Castelli</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>@inproceedings{castelli:1998,
 booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
@@ -11008,42 +11233,42 @@
 }</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>conf/icsm/Castelli98</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr">
+      <c r="D255" t="inlineStr">
         <is>
           <t>Reuse in Replaying Database Design</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr">
+      <c r="E255" t="inlineStr">
         <is>
           <t>db/conf/icsm/icsm1998.html#Castelli98</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
+      <c r="F255" t="inlineStr">
         <is>
           <t>conf/icsm/</t>
         </is>
       </c>
-      <c r="G250" t="n">
+      <c r="G255" t="n">
         <v>1998</v>
       </c>
-      <c r="H250" t="inlineStr">
+      <c r="H255" t="inlineStr">
         <is>
           <t>conf/icsm/1998</t>
         </is>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
+    <row r="256">
+      <c r="A256" t="inlineStr">
         <is>
           <t>Maxime Gobert and Jerome Maes and Anthony Cleve and Jens H. Weber</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>@inproceedings{gobert:2013,
 booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
@@ -11053,42 +11278,42 @@
 }</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>conf/icsm/GobertMCW13</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr">
+      <c r="D256" t="inlineStr">
         <is>
           <t>Understanding Schema Evolution as a Basis for Database Reengineering</t>
         </is>
       </c>
-      <c r="E251" t="inlineStr">
+      <c r="E256" t="inlineStr">
         <is>
           <t>db/conf/icsm/icsm2013.html#GobertMCW13</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
+      <c r="F256" t="inlineStr">
         <is>
           <t>conf/icsm/</t>
         </is>
       </c>
-      <c r="G251" t="n">
+      <c r="G256" t="n">
         <v>2013</v>
       </c>
-      <c r="H251" t="inlineStr">
+      <c r="H256" t="inlineStr">
         <is>
           <t>conf/icsm/2013</t>
         </is>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
+    <row r="257">
+      <c r="A257" t="inlineStr">
         <is>
           <t>Abram Hindle and Michael W. Godfrey and Richard C. Holt</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>@inproceedings{hindle:2007,
 booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
@@ -11098,42 +11323,42 @@
 }</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>conf/icsm/HindleGH07</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr">
+      <c r="D257" t="inlineStr">
         <is>
           <t>Release Pattern Discovery: A Case Study of Database Systems</t>
         </is>
       </c>
-      <c r="E252" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>db/conf/icsm/icsm2007.html#HindleGH07</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
+      <c r="F257" t="inlineStr">
         <is>
           <t>conf/icsm/</t>
         </is>
       </c>
-      <c r="G252" t="n">
+      <c r="G257" t="n">
         <v>2007</v>
       </c>
-      <c r="H252" t="inlineStr">
+      <c r="H257" t="inlineStr">
         <is>
           <t>conf/icsm/2007</t>
         </is>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
+    <row r="258">
+      <c r="A258" t="inlineStr">
         <is>
           <t>Awais Rashid</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>@inproceedings{rashid:2001,
 booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
@@ -11143,42 +11368,42 @@
 }</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C258" t="inlineStr">
         <is>
           <t>conf/icsm/Rashid01</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr">
+      <c r="D258" t="inlineStr">
         <is>
           <t>A Database Evolution Approach for Object-Oriented Databases</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr">
+      <c r="E258" t="inlineStr">
         <is>
           <t>db/conf/icsm/icsm2001.html#Rashid01</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
+      <c r="F258" t="inlineStr">
         <is>
           <t>conf/icsm/</t>
         </is>
       </c>
-      <c r="G253" t="n">
+      <c r="G258" t="n">
         <v>2001</v>
       </c>
-      <c r="H253" t="inlineStr">
+      <c r="H258" t="inlineStr">
         <is>
           <t>conf/icsm/2001</t>
         </is>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
+    <row r="259">
+      <c r="A259" t="inlineStr">
         <is>
           <t>Hung Viet Nguyen and Hoan Anh Nguyen and Tung Thanh Nguyen and Tien N. Nguyen</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B259" t="inlineStr">
         <is>
           <t>@inproceedings{viet:2013,
 booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
@@ -11188,42 +11413,42 @@
 }</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C259" t="inlineStr">
         <is>
           <t>conf/icsm/NguyenNNN13a</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr">
+      <c r="D259" t="inlineStr">
         <is>
           <t>Database-Aware Fault Localization for Dynamic Web Applications</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr">
+      <c r="E259" t="inlineStr">
         <is>
           <t>db/conf/icsm/icsm2013.html#NguyenNNN13a</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
+      <c r="F259" t="inlineStr">
         <is>
           <t>conf/icsm/</t>
         </is>
       </c>
-      <c r="G254" t="n">
+      <c r="G259" t="n">
         <v>2013</v>
       </c>
-      <c r="H254" t="inlineStr">
+      <c r="H259" t="inlineStr">
         <is>
           <t>conf/icsm/2013</t>
         </is>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
+    <row r="260">
+      <c r="A260" t="inlineStr">
         <is>
           <t>Michael Fischer 0001 and Martin Pinzger 0001 and Harald C. Gall</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>@inproceedings{fischer:2003,
 booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
@@ -11233,42 +11458,42 @@
 }</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>conf/icsm/FischerPG03</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr">
+      <c r="D260" t="inlineStr">
         <is>
           <t>Populating a Release History Database from Version Control and Bug Tracking Systems</t>
         </is>
       </c>
-      <c r="E255" t="inlineStr">
+      <c r="E260" t="inlineStr">
         <is>
           <t>db/conf/icsm/icsm2003.html#FischerPG03</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
+      <c r="F260" t="inlineStr">
         <is>
           <t>conf/icsm/</t>
         </is>
       </c>
-      <c r="G255" t="n">
+      <c r="G260" t="n">
         <v>2003</v>
       </c>
-      <c r="H255" t="inlineStr">
+      <c r="H260" t="inlineStr">
         <is>
           <t>conf/icsm/2003</t>
         </is>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
+    <row r="261">
+      <c r="A261" t="inlineStr">
         <is>
           <t>David Willmor and Suzanne M. Embury</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>@inproceedings{willmor:2005,
 booktitle = {International Conference on Software Maintenance and Evolution (ICSME)}, 
@@ -11278,30 +11503,30 @@
 }</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>conf/icsm/WillmorE05</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr">
+      <c r="D261" t="inlineStr">
         <is>
           <t>A Safe Regression Test Selection Technique for Database-Driven Applications</t>
         </is>
       </c>
-      <c r="E256" t="inlineStr">
+      <c r="E261" t="inlineStr">
         <is>
           <t>db/conf/icsm/icsm2005.html#WillmorE05</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
+      <c r="F261" t="inlineStr">
         <is>
           <t>conf/icsm/</t>
         </is>
       </c>
-      <c r="G256" t="n">
+      <c r="G261" t="n">
         <v>2005</v>
       </c>
-      <c r="H256" t="inlineStr">
+      <c r="H261" t="inlineStr">
         <is>
           <t>conf/icsm/2005</t>
         </is>
